--- a/fake_edited.xlsx
+++ b/fake_edited.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,6 +28,14 @@
     <t>Print They should pay all the back all the money plus interest. The entire family and everyone who came in with them need to be deported asap. Why did it take two years to bust them? 
 Here we go again …another group stealing from the government and taxpayers! A group of Somalis stole over four million in government benefits over just 10 months! 
 We’ve reported on numerous cases like this one where the Muslim refugees/immigrants commit fraud by scamming our system…It’s way out of control! More Related</t>
+  </si>
+  <si>
+    <t>0    Muslims BUSTED: They Stole Millions In Gov’t B...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>0    Barracuda Brigade
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">BREAKING! NYPD Ready To Make Arrests In Weiner Case…Hillary Visited Pedophile Island At Least 6 Times…Money Laundering, Underage Sex, Pay-for-Play,Proof of Inappropriate Handling Classified Information Blackwater USA Founder, Retired Navy Seal Erik Prince 
@@ -52,6 +60,14 @@
 As for the mayor of New York City, Prince said he has heard that “de Blasio wants to stay away from this.” 
 “The evidence is so bad, the email content is so bad, that I think even he wants to stay away from it, which is really telling,” he said. 
 For entire story: Breitbart News 14.7K shares </t>
+  </si>
+  <si>
+    <t>6    BREAKING! NYPD Ready To Make Arrests In Weiner...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6    Fed Up
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -141,6 +157,14 @@
 23. Katie Hopkins </t>
   </si>
   <si>
+    <t>11    SAY GOODBYE! These 23 Hollywood Celebs Threate...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>11    Fed Up
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Go to Article Dear Abby, I supported a woman I knew had a history of criminal activity, who is married to a rapist and who left 4 men to die in Benghazi. She put our national security at grave risk by leaving top classified emails on her private server, and she took money from nations who throw gays off rooftops and treat women worse than cockroaches. She is likely very sick and would be unlikely to serve out her first term without someone there to prop her up, but nevertheless, I supported her anyhow, because she’s a Democrat and has a vagina. Someone told me she still has a chance of winning the presidency if I just signed a petition. They said that Trump really didn’t win, because Hillary won the popular vote. Is that true? 
 Okay, let’s address this “Hillary might win the popular vote, isn’t that Electoral College situation just awful” thing head on. 
 No, it’s not awful. It’s great, and it protects the importance of your vote. It’s also uniquely American and demonstrates yet again the once-in-creation brilliance of the Founding Fathers. 
@@ -152,9 +176,25 @@
 Shortcomings? Sure. The E.C. can make an R vote meaningless in a very few heavily D states or vice versa. But without the Electoral College, the country’s entire population is subject to the disproportionate voting preferences of the few most populous states. – American Thinker Comment on this Article Via Your Facebook Account Comment on this Article Via Your Disqus Account Follow Us on Facebook!</t>
   </si>
   <si>
+    <t>19    SORRY LIBERALS…You Can Stop With The Petitions...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>19    EdJenner
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mark Cuban has made no secret of his dislike for Trump and his love for Crooked Hillary. Watch him tell FOX News’ Neil Cavuto (at 5:38 mark), “If Donald wins, I have no doubt the market tanks!” Well, that’s not exactly what happened now is it Cuban? So here’s what really happened: 
 Market Watch – U.S. stocks rallied Wednesday, with the Dow industrials jumping 257 points, led by a surge in financial, health-care and industrial stocks, as investors bet on the infrastructure spending policy promised by President-elect Donald Trump. 
 The Dow Jones Industrial Average DJIA, +1.40% gained as much as 316 points, briefly surpassing the all-time closing high set in August. The index closed 256.95 points, or 1.4%, higher at 18,589.69, its highest level since Aug. 18. Pfizer Inc. PFE, +7.07% and Caterpillar Inc CAT, +7.70% led the gains, rallying more than 7%. Way to go Cuban…you just reminded us of how little you know about economics or choosing the right candidate for President… Hope that loss didn’t cost you too much Cuban…Cheers! 46.4K shares </t>
+  </si>
+  <si>
+    <t>20    MARK CUBAN: "In The Event Donald Wins, I Have ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>20    Fed Up
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">on October 25, 2016 10:41 pm · 
@@ -169,6 +209,14 @@
 Featured image via screen capture Share this Article! Author: Oliver Willis I was one of the first political bloggers in the world (since 2000), and was among the first bloggers to interview President Obama at the White House. I am on Twitter @owillis and write at OliverWillis.com Search </t>
   </si>
   <si>
+    <t>363    ‘I Don’t Rent To N s’: Smoking Gun Proves Trum...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>363    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">on November 4, 2016 10:58 pm · 
 GOP presidential nominee Donald Trump has taken a ridiculously hardline – and even bigoted – stance on immigration. He has promised to build a wall and force Mexico to pay for it, and he has said that he will erect “deportation forces” to root out and get rid of all people in the United States without proper documentation. Well, as we already knew, it turns out that The Donald is the ultimate hypocrite on this one. 
 According to the Associated Press , it turns out that Donald Trump’s wife Melania violated immigration laws by working illegally in the United States when she first arrived from her native Slovenia. Melania often modeled using just her first name, and was first granted entry into the country on a visitor’s visa, known as a B1/B2 visa. This occurred on August 27, 1996. Melania did not get a legal work visa until October 18, 1996. During the time when she was prohibited from working in the country, Melania made money on ten different modeling assignments, totaling upwards of $20,000. She got a green card in 2000, and became a naturalized citizen in 2006. 
@@ -177,6 +225,14 @@
 Well, it appears that, as has long been suspected, that Melania Trump wasn’t as kosher in her immigration and work practices as she claims. The information obtained by the AP include, but are not limited to, her contract from Metropolitan International Management – a modeling agency. Also, there’s the ledgers from the agency, which is no longer in business, that shows Melania working during the time when she had the visitor’s visa, but no work visa. It seems to be a complicated story full of many attempts to cover up Melania’s wrongdoing, but it is certainly quite interesting. This would be why Melania Trump never released actual records regarding her initial immigration to the United States and her eventual path to citizenship. While it is unlikely that her citizenship is at risk, it certainly means that she committed immigration fraud. You can read more here at the Associated Press . 
 The long and short of it is this: Donald Trump launched his crazy bid for the presidency preying on the fears of the “other.” Namely, immigrants. That is the height of hypocrisy, seeing as how his own wife didn’t completely comply with immigration law. Hopefully this story, and the many other lies and cover-ups and shady dealings surrounding the Trump campaign break through the hypnotism that the demagogue has spun onto so many desperate citizens of this great country, and they figure out that they are falling for the biggest con of all time. 
 Featured image via Alex Wong/Getty Images Share this Article! Share on Facebook Author: Shannon Barber Shannon Barber is a self- described queer feminist and activist for racial equality, LGBT rights, women’s rights, and secular rights in America. She is a lifelong lover of words, though her educational background is in computer science. She currently writes for 2 liberal websites, and keeps her own humor blog for lesbians. She hopes to change the world, one mind at a time. Search </t>
+  </si>
+  <si>
+    <t>365    BREAKING: Melania Trump’s Immigration Records ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>365    NaN
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>on November 14, 2016 11:36 pm · 
@@ -190,6 +246,14 @@
 Now we have to reap what we’ve sown, or rather what the less than half of voting Americans have sown considering Trump only won with the Electoral College and lost the popular vote to Hillary Clinton in his own words, big league. 
 Most of us with The Simpsons were very wrong with the prediction as well. 
 Featured image via video screen capture Share this Article! Author: Sarah Sarah is a liberal writer who's been writing and commenting on politics for over 5 years as the Opinionated Democrat on Facebook. She is also the founder and Editor-in-Chief of the online satirical publication Free Wood Post. Search</t>
+  </si>
+  <si>
+    <t>376    ‘The Simpsons’ React To Their Trump Election P...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>376    NaN
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>You begin describing small aliens… 
@@ -292,6 +356,14 @@
 “I was in the ship corridor to the south of the first room.” I went north.</t>
   </si>
   <si>
+    <t>1531    Clickventure: You Were Abducted By Aliens. Wil...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>1531    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Email You’re just six steps away from an unforgettable Halloween bash. Just keep in mind not all of these pointers are for everyone! 
 1. Have a really awesome theme: The best Halloween parties are the ones that have a great theme and stick to it, unless that’s just not a thing your friends would be into. Is it “ghosts and ghouls”? Or “zombie apocalypse”? Or maybe your party is the fourth one of the night for your friends, and they don’t want to spend money on multiple costumes. In that case, maybe a theme isn’t the way to go. Just ask around, and you’ll be good to go! 
 2. Fire up some spooky music: Nothing sets the mood like some classic “Monster Mash.” However, it’s entirely possible that your attendees would actually favor a playlist of pop hits to just generally hang out to. No worries, then! Just do what’s best for you and everyone that’s planning on coming, and you’ll surely still have a great time, right? 
@@ -301,6 +373,14 @@
 6. Don’t have the party if your friends don’t like to party on Halloween: We shouldn’t have to say this, but you don’t have to throw a party at all. Why did you even read this list if you know your crew hates Halloween? What the hell is wrong with you? Please close this tab, power down your computer, and throw it in the ocean. Thanks.</t>
   </si>
   <si>
+    <t>1532    Life: 6 Tips For Throwing The Perfect Hallowee...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>1532    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Email His hand might be on your leg, but right now, you’re in the driver’s seat! 
 1. Phrase your request carefully: It’s absolutely imperative that when you ask the man who currently has his hand on your knee for a raise, you are respectful and conscious. Nail down every word in your request beforehand, so that when the time comes, the man with his hand on your knee is inspired, but not threatened. 
 2. Anticipate your talking points: Ask yourself: Is your employer data-conscious? Is your parent company in a good financial position to give out raises right now? Are five sweaty fingers simply resting on your knee, or are they moving around, toying playfully with the fabric on your pants? As you’re sitting across from the man controlling those fingers, make sure you’re constantly asking yourself these types of questions, because if you do, you’re guaranteed to step up your negotiation skills tenfold! 
@@ -310,7 +390,23 @@
 6. Be prepared for a no: Look, you might not get a raise this time, but don’t worry, it’s not personal! That’s just business, and sometimes you have to ask once, twice, or even three more times before the man with his hand on your knee finally gives you a raise. And if he doesn’t, who knows? Might be time for a new job!</t>
   </si>
   <si>
+    <t>1559    Life: Career Goals FTW: 6 Tips For Asking The ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>1559    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Email Yoda is a sick, elderly reptile who lives alone at a motel in a swamp. He’s an absolute mess, and he’s incapable of looking after himself. Do you think you have what it takes to be his live-in caretaker? 1. Before we get started, you need to understand that this is not a glamorous job. Yoda is miserable to be around, he needs constant supervision, and his hygiene is appalling. Caring for him is an around-the-clock gig, and it requires an extraordinary level of patience and compassion. You’re going to have to put up with a lot of bullshit. That’s okay. I’m confident I can handle whatever challenges the job throws my way. Wow, that sounds pretty difficult. I suppose I’d just have to try my best and hope I do a good job. Honestly, I don’t really have any experience with anything like this. I already know that I would do a terrible job. 2. One of the most important aspects of the job is tending to Yoda’s skincare needs. His skin is dry, flaky, and covered in sores, and it needs to be rubbed down several times a day with a special prescription lotion. Unfortunately, Yoda hates being touched, and he won’t let you put the lotion on without a fight. Sometimes he’ll spray you with his stink gland or try to bite you. Other times he’ll scurry underneath the couch and try to dig a hole in the floor to hide in, frantically scratching at the carpet until his hooves are bloody and raw. With this in mind, how would you go about getting him to cooperate with you for his skin treatments? Using simple terms he can understand, I’d explain to him why the skin treatments are necessary, and I’d work with him to figure out what, exactly, he doesn’t enjoy about them and then use that information to tailor the process for him so that it’s as painless and comfortable as possible. I would trap him underneath a laundry basket until he burns off all his combative energy. Then, once he’s tuckered out, I would pin him to the floor with my knee and apply the lotion to his skin as quickly as possible before he gets a second wind. I’d spread a thin layer of the lotion around the inside of a garbage bag. Then, I’d roll a tennis ball past Yoda to create a distraction, and while his attention is diverted, I would run over and stuff him inside the garbage bag. I’d shake him up and down inside the bag until his body was covered in lotion, and then I would dump him out on a mat of paper towels to clean off any excess lotion. I would really rather not touch his gross skin, so I’d probably just leave the lotion out on the counter for him. 3. Yoda always makes a huge fuss about eating his fruits and vegetables, and if he had his way, he would live entirely off of Slim Jims. How would you ensure that he’s eating a healthy, nutritious diet and not just Slim Jims? I would make him healthy vegetarian Slim Jims out of ground mushrooms, spices, lentils, and other wholesome ingredients—he wouldn’t be able to tell the difference! I would dip all of his Slim Jims in nail polish remover to make them taste horrible, leaving him no choice but to eat the vegetables if he doesn’t want to go hungry. I would tell him that his nemesis Count Dooku is coming to spay him, and the only way for him to get strong enough to fight back is if he fills himself up on powerful vitamins and minerals, like the ones found in fruits and vegetables. I would mash the fruits and vegetables into a paste and force the paste down his throat with my fingers. 4. Yoda spends hours each morning tending to a patch of weeds out back that he refers to as his “crops.” It’s pretty harmless—he mostly just sprays the hose and drags a rake around a bit—but if you don’t keep an eye on him, he’ll sneak away and try to find “the Chosen One.” That’s what he calls the trash-eating swamp pelican that lives in the pond behind the house. It’s unclear why he thinks this pelican is so special, but he’s already given it his lightsaber and all of his money in an effort to help it “defeat the dark side.” This is all nonsense, of course, and it’s important to make sure Yoda doesn’t give any more of his valuables to this bird. What measures would you take to keep Yoda away from “the Chosen One”? I would tether him to the house with a length of rope that’s long enough for him to freely tend to his “crops” but too short for him to wander off to places he shouldn’t be. I would dress Yoda in a vest covered in flashing lights and bells, which would scare the pelican away should it ever try to approach. Shock collar. I would shoot the pelican with a gun and then make Yoda eat its disgusting meat so that he realizes that the bird isn’t special. 5. There’s nothing in the world that Yoda enjoys more than watching pornography. However, doing so gets him extremely riled up, and his doctor has warned that his heart is no longer strong enough to handle excitement like this. Nonetheless, Yoda will still try to watch porn any chance he gets, and the only way to curb this habit is to reprimand him when he does. How would you reprimand Yoda for watching porn? I would revoke his TV and computer privileges for the rest of the day and have him use his time to do something constructive instead. I would put an oven mitt over his head and duct-tape it in place so he’d be physically incapable of looking at porn—or anything else, for that matter. I would leave the oven mitt over his head for an entire day. I would strip off all his clothes and parade him around town so that he could see how it feels to have strangers stare at him when he’s naked. I would charge people $5 to take pictures with naked Yoda, and I would spend all the money on something he hates. I would put him in the oven and pretend like I was going to cremate him, and I would only take him out if he promised to never look at porn again. 6. One thing to be aware of is that Yoda is very afraid of airplanes. If he hears a commercial jet flying overhead, he’ll freak out and try to use the Force to make it crash. Granted, he’s probably not strong enough anymore to actually cause any harm, but just be aware that that’s a thing he might do. Got it. I’ll make sure he doesn’t try to down any airplanes. If Yoda wants to make an airplane crash, who am I to stop him? 7. Yoda has no family or friends, but he does have a catfish named Obi-Wan that he keeps in a cigar box next to his bed. He talks quietly to the catfish for several hours each night, but what he doesn’t realize is that the catfish is dead. Yoda’s doctor is concerned that he’s formed an unhealthy attachment to the catfish, and he has strongly suggested taking the catfish away from him before he becomes any more emotionally invested in it. How would you go about taking Yoda’s catfish away from him while also minimizing the emotional devastation that will result from losing his treasured companion? I would get Yoda a fishbowl and his very own pet goldfish. Once he has a real, live fish to take care of, I trust he’ll begin losing interest in Obi-Wan, and I will then gradually start weaning the dead fish out of his life. While Yoda is sleeping, I would secretly put a small speaker inside of Obi-Wan’s belly and wirelessly connect it to a microphone that I could use to make the dead catfish “talk.” Then, the following day when Yoda is having his alone time with Obi-Wan, I would have the catfish say, “Yoda, if you truly care about me, please flush me down the toilet so I can go live with my family in the sewer.” Hopefully he would feel comfortable parting with his companion if he thought it was what the dead catfish wanted. I would tell Yoda that Count Dooku is coming to make Obi-Wan into a delicious po’ boy sandwich, and the only way for him to thwart his nemesis is to run outside and toss Obi-Wan into the swamp pond so he can swim away to safety. I would throw Obi-Wan in the trash and then lock Yoda in a cupboard until he stops crying. Get results Results for Do You Have What It Takes To Be Yoda’s Live-In Caretaker? You Have What It Takes To Be Yoda’s Live-In Caretaker. Wow, sounds like this is the perfect gig for you! Looking after Yoda is a very demanding job, but your thoughtfulness and patience would be the perfect counterbalance to his unpleasant lifestyle and turbulent behavior. The Force is definitely on your side! Share Your Results</t>
+  </si>
+  <si>
+    <t>1561    Quiz: Do You Have What It Takes To Be Yoda’s L...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>1561    NaN
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>6 Things That Happen In Every Jane Austen Story Ever Posted today Email Jane, we love ya, but maybe mix it up a little! 
@@ -320,6 +416,14 @@
 4. Characters spend the entirety of a picnic trying to remember the word “picnic”: SISTER 1: I do believe the proper nomenclature is “dirt supper.”SISTER 2: Nonsense! Mother insists it is called a “scoundrel’s meal.”SISTER 3: Now, now, let us not be uncomely. I happen to know, as a matter of fact, that it is called a “porknock.” Every. Damn. Book! 
 5. Abraham Lincoln always shows up at the main character’s home and asks to use the toilet: Did they even have toilets back then?!? Whether it’s Northanger Abbey or Mansfield Park , Sense And Sensibility or Persuasion , there’s always that part where Honest Abe is standing at the front door, holding his top hat over his crotch region and politely asking if he can “make disgrace” in the family commode. 
 6. The local butcher tries to insert himself into any love triangle that will have him: This Austen staple was first seen in Pride And Prejudice , where Brigsby the Butcher sheepishly presents Fitzwilliam Darcy, Elizabeth Bennet, and Anne de Bourgh with a sack full of raw ribeye and quietly begs them to break his heart too. If you’ve read any other Austen novel, you know the scorned butcher is as essential to her writing as the setting of Victorian England.</t>
+  </si>
+  <si>
+    <t>1568    Life: 6 Things That Happen In Every Jane Auste...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>1568    NaN
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Email 
@@ -333,6 +437,14 @@
 While nobody can ever take the place of Sophie’s father, it is seriously heartwarming to see John step up to the plate like this. Sophie is so lucky to have an uncle she can always turn to for love, guidance, and stacks of brochures for MBA programs handed to her at every family holiday. Here’s to you, John!</t>
   </si>
   <si>
+    <t>1571    Life: Stepping Up: When This Man’s Brother Die...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>1571    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Email 
 Well, Donald Trump certainly has cause for celebration today. 
 Despite having a multi-billion-dollar net worth, an international real estate company, and a primetime television show, Donald Trump’s ambitions were still set higher. The one trophy he’d spent his entire life trying to claim for his mantle of accomplishments had always evaded him—until today. By winning the 2016 presidential election, Donald Trump is finally able to kick the nation’s most powerful black family out of their house. 
@@ -342,14 +454,46 @@
 What a truly stunning feat. With the biggest item on his bucket list now firmly checked off, Trump would be more than justified in resting on his laurels to soak in the consummation of all his dreams. It’s hard to imagine an even more powerful and famous black family Donald could evict, but knowing Trump, he will continue to push himself. Whatever his plans are now, the world will be watching in anxious anticipation.</t>
   </si>
   <si>
+    <t>1582    News: Crowning Achievement: Donald Trump Has J...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>1582    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">Email The majesty of nature is awe-inspiring, and don’t worry, we’ve got plenty of those monkeys with the giant red asses. 1. We’re not going to leave you hanging, wondering when the swollen red asses are going to show up. Here’s one monkey ass to start this list of beautiful nature photos off right. 2. Elsewhere in nature, the blue whale is the largest animal in Earth’s history, even bigger than the dinosaurs! And if you think we blew our entire red-assed money wad on that first one, then you are seriously mistaken. 3. The Alaskan wood frog has the amazing ability to freeze in winter and thaw itself out when the weather gets warm again. It sounds like something out of science fiction, and while it isn’t a hulking red monkey ass, it’s still an impressive example of the power of evolution. 4. No way we’d skimp on monkeys with bulbous red buttocks. That’s not how we treat our readers. When we promise inflamed red monkey asses, we deliver in spades. Feast your eyes on these remarkable specimens. 5. More monkeys with beacon-like red asses are coming up, but in the meantime here is the hummingbird moth. At first glance, you’d mistake it for a bird, but it’s actually an insect that happens to look like a hummingbird, which is pretty cool if you think about it. 6. Once again, it’s time to behold red monkey ass, and this time there’s a whole gaggle of monkeys with blindingly bright asses. But this isn’t the end of the red assfest, no siree. This we promise. 7. Chimpanzees are our closest cousins in nature, with an almost human-like intelligence. They sadly were not blessed with a bright-red ass but are smart enough to use simple tools like sticks to catch termites. You can’t help but wonder about humanity’s place in nature when you see a creature so similar to us. 8. We’ve got a real showstopper of a red ass on deck, but first let’s do our due diligence and check out the Galápagos tortoise. It can live over 170 years. Incredible. 9. Here we go! This monkey has a truly huge red ass, much bigger and redder than any ass we’ve seen before. We are fortunate to share a planet with a bloated red miracle as beautiful as this monkey’s breathtaking ass. Red monkey asses are nature at its finest, and we hope you’ve had your fill of them. </t>
   </si>
   <si>
+    <t>1591    9 Breathtaking Photos Of Nature With A Generou...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>1591    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Email Ever wonder what’s on the mind of today’s most notable people? Well, don’t miss our unbelievable roundup of the best and most talked about quotes of the day: “ I saw a contortionist fold herself into a box once, but there were no toys or food in the box, so I didn’t really see the point. ” —Paula Hawkins On flexibility “ When you’re this rich, you can pay a guy to breathe into your shoes to warm them up before you put them on. If you’re less wealthy, you can still afford to have someone do that. It’s really a matter of frugal spending and organizing a co-op in your neighborhood of people who take turns breathing into each others’ shoes. ” —Sheryl Sandberg On everyday luxury “ The skin of the avocado can hide many a secret. To remove it is to journey into mystery and madness. ” —Neil Gaiman</t>
+  </si>
+  <si>
+    <t>1595    They Said What?!: Find Out What Paula Hawkins,...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>1595    NaN
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>NYT: FBI Failed To Connect Trump To Putin By: Robert Kraychik November 2, 2016 The New York Times reported on Monday that the FBI has failed to establish “any conclusive or direct link between Mr. Trump and the Russian government.” Speaking with unnamed FBI sources, the left-wing “paper of record” reported that the FBI pursued an investigation into stateside Russian attempts to affect the presidential election. “Agents scrutinized advisors close to Donald J. Trump" in order to search for financial connections between Donald Trump’s political circle and “Russian financial figures," reported The New York Times . A report from Slate ’s Franklin Foer sought to advance the narrative of collusion between Trump and Putin pushed by Hillary Clinton, Democrats, and affiliated political allies. It was then forwarded by left-wing Democrat media personalities and affiliates. Trump Tower had a special server to communicate with Russia's Alfa Bank, reports the eternal badass @FranklinFoer . https://t.co/yIX6rZXbxJ — Julia Ioffe (@juliaioffe) October 31, 2016 So, why? Why Trump's stubborn almost devotion to Putin? Why the Russia friendly policies? Why the Mantafort links? Why the secret server? — Scott Gilmore (@Scott_Gilmore) October 31, 2016 Putin's Puppet didn't cover his tracks: Trump server directly communicating with Russia. Voters deserve answers now. https://t.co/VXQNIoQXB6 — Chad Griffin (@ChadHGriffin) November 1, 2016 Despite the narrative of Putin preferring to see Trump elected president, the FBI investigation apparently arrived at a different conclusion. The New York Times reported that unnamed FBI investigators said they “have become increasingly confident, based on the evidence they have uncovered, that Russia’s direct goal is not to support the election of Mr. Trump, as many Democrats have asserted, but rather to disrupt the integrity of the political system and undermine America’s standing in the world more broadly.” No mention was made of the Kremlin-run English-language propaganda outlet RT, which regularly pushes what can broadly be described as mostly left-wing anti-American and pro-Russian agitation. Also ignored were actual financial connections between Russian-related interests and the Clintons or their inner circle. For months, Democrat politicians and operatives have colluded with their news media allies to push a narrative of Russia’s President Vladimir Putin directing the Russian state apparatus to provide political support to Donald Trump. 
 Follow Robert Kraychik on Twitter . Tags</t>
+  </si>
+  <si>
+    <t>2230    NYT: FBI Failed To Connect Trump To Putin
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>2230    NaN
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">11 Stupid Things Vox.com's Matthew Yglesias Has Said By: Aaron Bandler October 26, 2016 
@@ -403,6 +547,14 @@
 Apparently Slate believes that "passion" trumps basic human decency and a reasonable IQ level, and Yglesias certainly does not possess the latter two qualities. </t>
   </si>
   <si>
+    <t>2241    11 Stupid Things Vox.com's Matthew Yglesias Ha...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>2241    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">Video: Women On The Street Explain Why They Hate Hillary By: Chase Stephens November 8, 2016 
 Media analyst and YouTuber Mark Dice took to the streets once again to ask the public what they think of this year's presidential election, specifically, what they think about ol' Crooked Hillary. 
 In the video (below), titled "Why Women Hate Hillary Clinton," Dice gives women the opportunity to voice their concerns about the character and integrity of the former Secretary of State, and the results are brutally honest. 
@@ -416,6 +568,14 @@
 </t>
   </si>
   <si>
+    <t>2244    Video: Women On The Street Explain Why They Ha...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>2244    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">Democratic Congressman Threatens Violence If GOP Tries To Defund Planned Parenthood By: Hank Berrien November 21, 2016 
 The Democratic congressman who is challenging House Minority leader Nancy Pelosi, Ohio Rep. Tim Ryan, threatened a “Youngstown street fight” if Donald Trump attempts to defund Planned Parenthood. 
 Speaking with Jake Tapper on CNN’s State of the Union on Sunday, Ryan intimated that defunding Planned Parenthood wasn’t the only stimulus he would need to launch violence. He stated, “If he tries to defund Planned Parenthood, if he tries to kick people off their health insurance, if they try to privatize Medicare or cut taxes for the wealthy, you know, we are going to have a Youngstown street fight in the Capitol.” 
@@ -423,6 +583,14 @@
 Ryan called Trump’s infrastructure plan “a bunch of smoke and mirrors.” He added that he didn’t blame Pelosi for focusing any specific economic issues: “I can’t in good conscience hang this election around Nancy Pelosi’s neck, of course. But, moving forward, we have to win congressional seats in areas of the country that voted for Donald Trump, even in my district, where they voted for me and they voted for Donald Trump.” 
 Ryan’s campaign to replace Pelsoi is picking up steam; on Sunday, New York Rep. Kathleen Rice endorsed him, stating, "He has a lot of good ideas, but maybe most importantly, he also isn’t suggesting he has all the answers — he has stressed that he wants these conversations to be ongoing, that he wants more voices in the conversation so that we can work together to craft our message and forge a winning strategy," Rice said in a statement. 
 Rice tweeted: Excited to announce my support for @RepTimRyan to serve as our next Democratic Leader. Full statement: https://t.co/LiwFUAxzxa #Dems4Change — Kathleen Rice (@RepKathleenRice) November 20, 2016 Tags </t>
+  </si>
+  <si>
+    <t>2280    Democratic Congressman Threatens Violence If G...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>2280    NaN
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>How they could steal the election from Trump even if he is announced the winner next Tuesday October 31, 2016 at 2:13 am 
@@ -446,6 +614,14 @@
 But what if enough Republican electors vote for other people, Paul Ryan for example, so that no candidate gets a majority? Then the House of Representatives gets to choose between the top three vote finishers in the electoral college vote. You could get a coalition between Democrats and Republican defectors that would deny Trump the presidency and give it to someone like Ryan. (The same applies in the case that Mormon ex-CIA operative and never-Trump independent presidential candidate Evan McMullen wins Utah , which some polls predict is possible.) 
 While none of the above scenarios may come to pass, we do have to face the fact that the establishment has so far stopped at nothing to try to defeat Trump, and so it is not too far fetched to think that they would try these tactics, especially if the November 8 voting produces a very narrow victory for Trump. The media could start inventing more reasons why Trump is uniquely unfit to become president and claim that the Constitution allows for these scenarios (which is the case), and that this in fact was why the framers of the Constitution created the Electoral College (which is not the case). 
 It would then be incumbent on us to make it clear to the members of the Electoral College and the Congress that any violation of the people’s will would not be tolerated.</t>
+  </si>
+  <si>
+    <t>2336    How they could steal the election from Trump e...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>2336    Dr. Patrick Slattery
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>30 Views Share: 
@@ -556,17 +732,49 @@
 As I publish this most recent updated edition, Zionist Jewish Supremacists are committing mass murder against the people of Gaza. We must support Gaza! Gaza is a symbol today of the need for Global freedom from the Tyranny of Zionism. Free Palestine. Free Europe and the Western World, Free the World!</t>
   </si>
   <si>
+    <t>2358    A Way Forward to Liberation for all Peoples: A...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>2358    Staff
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">360 Views Share: By Dr. David Duke. When I was first began to understand the ultra-racist, supremacist ideology of Judaism and Zionism, I came into contact with the theory that present-day Jews are genetically unrelated to the historical Jewish community. The allegation, known as the “”Khazar theory”, claims that the Ashkenazim Jews of today are actually the descendants of the Khazar people, a Central Asiatic nomadic tribe that allegedly converted to Judaism in the 9th Century AD. It is claimed that these newly-minted Jews then migrated into what is now Russia, Eastern Europe and later Western and Northern Europe. The theory is also used to advance the idea that Jewish actions are character are not genetic or racial because the Khazar people adopted the Talmudic values of Shephardic and other Jews who were unrelated to them. Interestingly enough, the Khazar theory was launched, and is still to this day, driven primarily by Communist Jews and other Jews who promote it in the Gentile community as a refutation that the Jews can’t be racist because they are not a race! It is ironic that the three most prominent exponents of the theory that “the Jews are not a race” all have almost exaggerated caricatures of features people ascribe as Jewish. Above, left to right: Zionist extremist and Communist Party member Arthur Koestler (author of the “The Thirteenth Tribe”); Jewish geneticist Eran Elhaik; and Shlomo Sand, an Israeli academic and former member of the Union of Israeli Communist Youth (Banki). All three maintain that large numbers of present-day Jews are completely genetically unrelated to the Middle Eastern-origin Jews who wrote the Babylonian Talmud. 
 For years I accepted the Khazar theory as true. After it, all it was repeated by some writers who also recognized the leading Jewish role in Communism and their leadership in many other subversive movements. It was only later, when I considered the question logically and scientifically, were my doubts about the Khazar theory aroused. One thing that I did not know then was that Koestler, the communist Jew who popularized the Khazar Theory bragged in a Jewish magazine that he advanced the theory as way to fight against anti-Semitism. His theory was that since the Gospels and Europeans blamed Jews for the crucifixion of Jesus Christ, if he could make Europeans believe that they are not related by blood to the Christkiller Jews talked about in the New Testament that he could lessen hatred against Jews. One must remember until the Jewish triumph of “Christian Zionism” 99 percent of Christianity viewed Jews as the greatest enemies of Jesus Christ and God, as the New Testament makes very, very clear. So in those days some Jews, such as Koestler saw an advantage to say that the Jews were not actually related to the Jews who crucified Christ and so persecuted Christians. Koestler’s official biography, written by Michael Scammell, specifically quotes him on why he wrote The Thirteenth Tribe . ”His argument was that if he could persuade people that a non-Jewish “Khazar” heritage formed the basis of modern Jews, then this would be a weapon against European racially-based anti-Semitism. “Should this theory be confirmed, the term ‘anti-Semitism’ would become void of meaning,” he said. According to Scammell, Koestler told French biologist Pierre Debray-Ritzen he “was convinced that if he could prove that the bulk of Eastern European Jews were descended from the Khazars, the racial basis for anti-Semitism would be removed and anti-Semitism itself could disappear.” (Source: Scammell, Michael. Koestler: The Literary and Political Odyssey of a Twentieth-Century Skeptic, Random House, 2009, ISBN 978-0-394-57630-5, p. 546.) In the 1950s the Khazar Theory was also promoted by Benjamin Friedman, a prominent rich Jew who converted to Christianity and turned against the Jews. It was certainly self-serving for him to promote the idea that Jewishness was mostly cultural and religious and not racial in nature therefore facilitating more acceptance of him. There are three fundamental issues which need to addressed: the scientific evidence; thehistorical-logical evidence; and the reasons why the Khazar theory came about. Part I: The Scientific Evidence—Twelve DNA Studies Which Disprove the “Khazar Theory” 1. A 1999 study titled “Jewish and Middle Eastern non-Jewish populations share a common pool of Y-chromosome biallelic haplotypes” ( M.F. Hammer et.al, Proceedings of the US National Academy of Sciences 6769–6774, doi: 10.1073/pnas.100115997 ) found that: “[D]espite their long-term residence in different countries and isolation from one another, most Jewish populations were not significantly different from one another at the genetic level. “Admixture estimates suggested low levels of European Y-chromosome gene flow into Ashkenazi and Roman Jewish communities . . . Jewish and Middle Eastern non-Jewish populations were not statistically different. The results support the hypothesis that the paternal gene pools of Jewish communities from Europe, North Africa, and the Middle East descended from a common Middle Eastern ancestral population, and suggest that most Jewish communities have remained relatively isolated from neighboring non-Jewish communities during and after the Diaspora.” 2. A November 2001 study titled “The Y Chromosome Pool of Jews as Part of the Genetic Landscape of the Middle East” ( Almut Nebel et. al., American Journal of Human Genetics, Nov 2001; 69(5): 1095–1112 ) found that in most Jewish populations, male line ancestors appear to have been mainly Middle Eastern. The study found that Ashkenazi Jews in particular “share more common paternal lineages with other Jewish and Middle Eastern groups than with non-Jewish populations in areas where Jews lived in Eastern Europe, Germany and the French Rhine Valley. This is consistent with Jewish traditions in placing most Jewish paternal origins in the region of the Middle East.” 3. A September 2006 study titled “European Population Substructure: Clustering of Northern and Southern Populations” ( Michael F Seldin et.al., PLOS Genetics, DOI: 0.1371/journal.pgen.0020143 ) found that both Ashkenazi Jews as well as Sephardic Jews showed more than 85% membership in the ‘southern’ European group which made their results “consistent with a later Mediterranean origin of these ethnic groups.” 4. An April 2008 study titled “Counting the Founders: The Matrilineal Genetic Ancestry of the Jewish Diaspora” ( Doron M. Behar et.al., PLoS ONE. 2008; 3(4): e2062. doi: 10.1371/journal.pone.0002062 ) found that about 40% of Ashkenazi Jews originate maternally from just four female founders, who were of Middle Eastern origin. 5. A January 2009 study titled “A genome-wide genetic signature of Jewish ancestry perfectly separates individuals with and without full Jewish ancestry in a large random sample of European Americans” ( Anna C Need et.al., Genome Biology, 2009; 10(1): R7. doi: 10.1186/gb-2009-10-1-r7 ) found that “individuals with full Jewish ancestry formed a clearly distinct cluster from those individuals with no Jewish ancestry.” This study showed that in DNA terms, Jews, both Sephardic and Ashkenazim, cluster as a distinct group—something that, if the Khazar theory was true, would be impossible. 6. A December 2009 study titled “Genomic microsatellites identify shared Jewish ancestry intermediate between Middle Eastern and European populations” ( Naama M Kopelman et.al., BMC Genetics. 2009; 10: 80. doi: 10.1186/1471-2156-10-80 ) found that : “Jewish populations show a high level of genetic similarity to each other, clustering together in several types of analysis of population structure. These results support the view that the Jewish populations largely share a common Middle Eastern ancestry and that over their history they have undergone varying degrees of admixture with non-Jewish populations of European descent.” 7. A December 2009 study titled “The genome-wide structure of the Jewish people” ( Doron M. Behar, et. al., Nature 466, 238–242 (08 July 2010) doi:10.1038/nature09103 ) analyzed individuals from 14 Jewish Diaspora communities and compare these patterns of genome-wide diversity with those from 69 Old World non-Jewish populations in order to “provide comprehensive comparisons between Jewish and non-Jewish populations in the Diaspora, as well as with non-Jewish populations from the Middle East and north Africa.” The results identified a “previously unrecognized genetic substructure within the Middle East” and that “Most Jewish samples form a remarkably tight subcluster,” and that “trace[s] the origins of most Jewish Diaspora communities to the Levant.” 8. A June 2010 study titled “Abraham’s children in the genome era: major Jewish diaspora populations comprise distinct genetic clusters with shared Middle Eastern ancestry” ( Atzmon et al., American Journal of Human Genetics, 2010;86:850-859 ) refuted the idea of large-scale genetic contributions of Central and Eastern European and Slavic populations to the formation of Ashkenazi Jewry. This study found used genome-wide analysis of seven Jewish groups (Iranian, Iraqi, Syrian, Italian, Turkish, Greek, and Ashkenazi) and “demonstrated distinctive Jewish population clusters, each with shared Middle Eastern ancestry, proximity to contemporary Middle Eastern populations, and variable degrees of European and North African admixture.” This paper specifically excluded the “Khazar theory” as an origin for present-day Jews, saying “the genetic proximity . . . is incompatible with theories that Ashkenazi Jews are for the most part the direct lineal descendants of converted Khazars or Slavs.” 9. A March 2012 study by Steven M. Bray et. al., titled “Signatures of founder effects, admixture, and selection in the Ashkenazi Jewish population” ( Proceedings of the US National Academy of Sciences, 16222–16227, doi: 10.1073/pnas.1004381107 ) found that the “Ashkenazi Jewish (AJ) population . . . has a common Middle Eastern origin with other Jewish Diaspora populations” while concluding that the Ashkenazi Jewish population has had the most European admixture. 10. A March 2012 study by Christopher L. Campbell et. al., titled “North African Jewish and non-Jewish populations form distinctive, orthogonal clusters” ( Proceedings of the US National Academy of Sciences, doi: 10.1073/pnas.1204840109 ) found that genome-wide analysis of five North African Jewish groups (Moroccan, Algerian, Tunisian, Djerban, and Libyan) “demonstrated distinctive North African Jewish population clusters with proximity to other Jewish populations.” Furthermore, the study showed, the Sephardic Jewish genome is “compatible with the history of North African Jews—founding during Classical Antiquity with proselytism of local populations, followed by genetic isolation with the rise of Christianity and then Islam, and admixture following the emigration of Sephardic Jews during the Inquisition.” Finally, this study added “ These populations showed a high degree of endogamy and were part of a larger Ashkenazi and Sephardic Jewish group.” (*Endogamy: the practice of marrying within a specific ethnic group, rejecting others on such a basis as being unsuitable for marriage or for other close personal relationships.) 11. In his book, “Legacy: A Genetic History of the Jewish People” (Oxford University Press, USA; May 2012), Harry Ostrer, a professor of Pathology and Genetics at Albert Einstein College of Medicine of Yeshiva University and Director of Genetic and Genomic Testing at Montefiore Medical Center, Medicine, concluded that “Jews exhibit a distinctive genetic signature.” ( Jews Are a ‘Race,’ Genes Reveal–Author Uncovers DNA Links Between Members of Tribe, The Jewish Daily Forward, May 04, 2012 ). Ostrer, who is also director of genetic and genomic testing at Montefiore Medical Center, said in his conclusion that “Jews are a homogeneous group with all the scientific trappings of what we used to call a race.” Ostrer also deals specifically with the Khazar theory. He pointed out that the findings from the Jewish HapMap Project (see below) completely refute “the theories that Ashkenazi Jews are the descendants of converted Khazars or Slavs.” ( Jews: A religious group, people or race?, Jerusalem Post, 8/26/2012 ) 12. The Jewish HapMap Project , a joint project of Albert Einstein College of Medicine and New York University School of Medicine, was created to “understand the structure of the genomes in Jewish populations” and is an outgrowth of the Human HapMap Project. According to this project, “Jewish populations are remarkable for maintaining continuous genetic, cultural, and religious traditions over 4000 years, despite residence all over the world.” Its findings, based on first hand DNA studies amongst Jewish populations around the globe, found no evidence to support a Central Asian DNA origin for Jewry. According to the Jerusalem Post, the “Jewish HapMap Project in New York City has so far shown “in exquisite detail what had been conjectured for a century. Jewish populations from the major Jewish Diaspora groups – Ashkenazi, Sephardic and Mizrahi – form a distinctive population cluster that is closely related to Semitic and European populations. Within this larger Jewish cluster, each of the Jewish populations formed its own subcluster. “A high degree of mixing of Ashkenazi, Sephardi, Italian and Syrian Jews caused them to become more closely related to each other than they were to Middle Eastern, Iraqi and Iranian Jews. This genetic split seemed to have occurred about 2,500 years ago.” ( Jews: A religious group, people or race?, Jerusalem Post, 8/26/2012 ) DNA Studies Find that Ashkenazim Jews have 30% European Admixture Both the Behar study (section 7 above) and the Atzmon study (section 8 above) were commented upon by the British former deputy editor of the journal Nature , and currently the scientific correspondent for the N ew York Times , Nicholas Wade, in an article in that newspaper as follows: “Jewish communities in Europe and the Middle East share many genes inherited from the ancestral Jewish population that lived in the Middle East some 3,000 years ago, even though each community also carries genes from other sources — usually the country in which it lives,” adding that a “major surprise from both surveys is the genetic closeness of the two Jewish communities of Europe, the Ashkenazim and the Sephardim.” Wade pointed out that the two studies “refute the suggestion made by the historian Shlomo Sand in his book ‘The Invention of the Jewish People’ that Jews have no common origin but are a miscellany of people in Europe and Central Asia who converted to Judaism at various times. “Jewish communities from Europe, the Middle East and the Caucasus all have substantial genetic ancestry that traces back to the Levant; Ethiopian Jews and two Judaic communities in India are genetically much closer to their host populations,” Wade wrote. “The shared genetic elements suggest that members of any Jewish community are related to one another as closely as are fourth or fifth cousins in a large population, which is about 10 times higher than the relationship between two people chosen at random off the streets of New York City. “Ashkenazic and Sephardic Jews have roughly 30 percent European ancestry, with most of the rest from the Middle East, the two surveys find. The two communities seem very similar to each other genetically, which is unexpected because they have been separated for so long.” ( Studies Show Jews’ Genetic Similarity, Nicholas Wade, New York Times, June 9, 2010 ). Eran Elhaik’s Single Study Attempts to Refute the Mass of Earlier DNA Evidence The mass of DNA and genetic evidence is, therefore, overwhelmingly indicative that, despite a certain amount of European admixture among Ashkenazim Jewry, there is still a clearly definable Middle Eastern genetic component to both Ashkenazim and Sephardic Jewry. Despite all of these studies—and many more, too numerous to list individually here—in December 2012, a single individual by the name of Eran Elhaik, from the Johns Hopkins University School of Medicine, attempted to refute all of the above mentioned evidence. His paper, titled “The Missing Link of Jewish European Ancestry: Contrasting the Rhineland and the Khazarian Hypotheses” was published in the journal Genome Biological Evolution ( (2013) 5 (1):61-74.doi: 10.1093/gbe/evs119 ). In a nutshell, Elhaik—whose rather obviously Jewish physical appearance should by itself indicate that there is indeed a common Jewish “type” (how else can many Jews be physically “recognized” as Jews?)—argues that his method of doing comparative studies between present-day Central Asian populations, Ashkenazim Jews and non-Jewish test groups, “proves” that Ashkenazim Jews are a hotchpotch of genetic origins, with a strong link to what he identifies as the “Khazar” tribe. Even though Elhaik’s work is the only single paper (as opposed to literally dozens of opposing DNA studies), written by a single Jewish individual (as opposed to the other papers which were written by dozens and dozens of scientists from around the globe, Jewish and non-Jewish alike), it has quickly become the most-quoted “proof” of the “Khazar Theory.” Critical Errors in Elhaik’s Paper Elhaik’s paper has a number of errors, some small and a number of major ones. But they are all serious, because even the “small” errors cast doubt on his academic ability and motivation. For example, his paper discusses in detail what he sees as the geographic origin of the Khazars—yet he completely misidentifies the geographic location of one of his test sample groups, the Mbuti and Biaka Pygmies. These two groups, Elhaik asserts at least twice, are to be found in “South Africa.” Actually, the Mbuti and Biaka Pygmies are nowhere near South Africa, and are only to be found literally half a continent away, in the Congo. While this may seem a “small” error, it does indicate sloppiness in research which certainly does not bode well for the rest of the paper. This sloppiness is again repeated when Elhaik asserts that “Eastern and Central European Jews account for approximately 90% of over 13 million worldwide Jews.” In reality, the figure is far less. Of the estimated 13 million Jews worldwide, 8 million are Ashkenazim and 5 million are Sephardic, a division of 61% “European Jews” to 39% “non-European Jews.” And it should be pointed out that the Zionist State of Israel actually has a Sephardic and Mizrahi (non-Ashkenazi) Jewish majority among Jews. These actual facts on Jewish ethnicity are readily available, and Elhaik’s motivation for making this clearly false claim could only be ascribed to a desire to underscore his general assertion, namely that most Jews are not Middle Eastern in origin and that Jews are not race, or a genetically similar people. The most important error in Elhaik’s paper, however, is actually openly admitted: namely that there is actually no “Khazar DNA” in existence, against which any sort of measurement can be taken. Elhaik himself admits this in his paper: the “Khazars have been vanquished and their remains have yet to be sequenced. . .” —in other words there is no record of what exactly Khazar DNA might have been. As there is no record of what Khazar DNA is—it is, ipso facto, physically impossible to determine who is descended from it and who is not. Elhaik attempts to circumvent this major problem by selecting what he calls “surrogate populations”—in this case, “contemporary Middle Eastern and Caucasus populations.” Anyone with a basic understanding of historical events in the Caucasus in particular will immediately see that Elhaik’s assertion that current populations in that region can be taken to reflect those of 1,500 years ago, is highly problematic and quite simply, unsustainable. The Caucasus, a region at the border of Europe and Asia, situated between the Black and the Caspian seas, has been crisscrossed by numerous peoples and races over the last 2000 years, ranging from Indo-Europeans, Semites, Mongols and others—and is today highly genetically diverse. A claim that DNA samples from this region can be taken as any sort of DNA yardstick, is dubious to say the very least. Finally, Elhaik’s methodology in comparing the DNA samples is, to make an understatement, unique to him. As Marcus Feldman, director of Stanford University’s Morrison Institute for Population and Resource Studies, said, “He [Elhaik] appears to be applying the statistics in a way that gives him different results from what everybody else has obtained from essentially similar data.” ( ‘Jews a Race’ Genetic Theory Comes Under Fierce Attack by DNA Expert. The Jewish Daily Forward, May 07, 2013 ) Interestingly, the study which was cited in the New York Times of the “Jews as a race” is exactly the same conclusion that was reached by German National Socialist anthropologists and other experts who studied race science in the United States and elsewhere. Also, many of the present-day extensive studies have been carried out by both Gentile and Jewish geneticists alike, obviating any claims of racial bias. Elhaik’s theory is completely refuted by the new, most massive and most complete study ever done of the Jewish Genome One of Elhaik’s arguments was that the previous studies (referenced above) “were done in the pregenome-wide era using uniparental markers and including different reference populations”—implying that their results are not in line with the most modern DNA sequencing methodology. In fact, at least one study—which appeared after Elhaik’s work was first published—has confirmed the accuracy of the original studies, and also completely refuted Elhaik’s hypothesis. Titled “No Evidence from Genome-Wide Data of a Khazar Origin for the Ashkenazi Jews,” this study was published by the journal Human Biology in August 2013 (Behar, Doron M. et.al.; Human Biology, Access Pre-Prints. Paper 41 ), this paper emphasized the serious error with Elhaik’s work: “Because the Khazar population has left no obvious modern descendants that could enable a clear test for a contribution to Ashkenazi Jewish ancestry, the Khazar hypothesis has been difficult to examine using genetics. “Furthermore, because only limited genetic data have been available from the Caucasus region, and because these data have been concentrated in populations that are genetically close to populations from the Middle East, the attribution of any signal of Ashkenazi-Caucasus genetic similarity to Khazar ancestry rather than shared ancestral Middle Eastern ancestry has been problematic.” This latest, most massive study of the Jewish genome was a worldwide effort of geneticists, both Gentile and Jewish, to analyze Jewish genetics. Researchers from laboratories around the globe, including Estonia, Russia, Italy, Greece, Bosnia and Herzegovina, Croatia, Armenia, the US, and Israel, gathered together the largest Jewish DNA data set ever yet assembled. The paper explained as follows: “Here, through integration of genotypes on newly collected samples with data from several of our past studies, we have assembled the largest data set available to date for assessment of Ashkenazi Jewish genetic origins.” “Employing a variety of standard techniques for the analysis of population genetic structure, we find that Ashkenazi Jews share the greatest genetic ancestry with other Jewish populations, and among non-Jewish populations, with groups from Europe and the Middle East. “No particular similarity of Ashkenazi Jews with populations from the Caucasus is evident, particularly with the populations that most closely represent the Khazar region. Thus, analysis of Ashkenazi Jews together with a large sample from the region of the Khazar Khaganate corroborates the earlier results that Ashkenazi Jews derive their ancestry primarily from populations of the Middle East and Europe, that they possess considerable shared ancestry with other Jewish populations, and that there is no indication of a significant genetic contribution either from within or from north of the Caucasus region.” The latest, most up-to-date and modern DNA analysis has, therefore, completely refuted the “Khazar Theory.” It is important to understand that this refutation has come from non-Jewish and Jewish scientists from dozens of different universities and geneticists all over the world, and cannot be ascribed to a “conspiracy.” Part II: The Historical-Logical Evidence The Historical Record Shows Jewish Physical Consistency One of the most obvious indicators of genetic commonality is physical appearance. European people broadly resemble each other; African people broadly resemble each other; Chinese people broadly resemble each other; Australian Aborigines broadly resemble each other and so on. It is a characteristic of genetically similar people to physically resemble each other. Jews are no different in this regard to any other people. They too show a resemblance to each other—this is why it is possible to often “recognize” a Jewish person by his physical appearance. A good example in point is the already mentioned Jewish geneticist Eran Elhaik, who, despite physically embodying a Jewish sterrotype recognized around the world, tries to claim that there is no genetic commonality amongst Jews. The “Khazar theory” holds that most Ashkenazim Jews are not Semitic, but are “Central Asian” converts to Judaism. Proponents of the “Khazar theory” fail to understand the logical consequence of their belief—namely that a supposed Central Asian origin of “most” Ashkenazim Jews means that they will not physically resemble other Jews. As anyone can see, this is not the case. Sephardic Jews are, on average, slightly darker than Ashkenazim Jews, but there is no doubt that there is a physical similarity which allows them still to be recognized as such. Above: These two illustrations make the point even more dramatically. On the left, the Ashkenazim Jewess, Barbara Streisand, New York, 1966. On the right, a Jewish leader of Israelite trade delegation as portrayed on a mural on the wall of the 18th Dynasty (1400 BC) Tomb of Sobekhotep, Thutmose IV; Egypt. Two thousand years before the alleged Khazar conversion and they look the same as modern Ashkenazi Jews. Streisand’s paternal grandparents came from Galicia (Poland–Ukraine) and her maternal grandparents came from Russia—if anyone would be “Khazar,” according to that theory, it would be her. Nonetheless, she closely resembles the only designated Jew as portrayed on an Egyptian tomb from 3.400 years ago, the leader of a Jewish trade delegation to Egypt. The genetic continuity is clear—and if the Khazar theory was true, there would be no physical similarity, because there would have been a racial sea change in Jewish appearance. Left: The famous banker of Pompeii, Jucundus, who lived circa 20–62 AD. (700 years before the alleged Ashkenazi conversion) Identified as a Jew by the German anthropologist, Hans F.K. Günther, in his book “ Racial Elements of European History” (Fig, 240a and b, chapter VIII) . Alongside, the Ashkenazi Jew, Abe Foxman of the ADL. The similarity between Jucundus and Foxman is clear, and serves a further indication of the physical continuity of the Jewish type over centuries—something that would be impossible if the “Khazar theory” was true. In addition to genetic studies, there have been extensive physiological comparison of Jewish remains from burial sites from ancient Israel and present-day Ashkenazi and Sephardic physiology, all of which conclusively shows their similarity across both the Sephardic and Ashkenazi spectrum—and their difference from European populations. Jewish Supremacist Behavior Through the Millennia Disprove the “Khazar Theory” Another piece of the jigsaw which disproves the Khazar theory, is that Jewish Supremacist behavior has remained constant throughout the millennia—from biblical times right through to the present day. Most Christians are aware of the behavior of the Old Testament Jews—who burn, rampage, kill rape and enslave their way through Palestine supposedly on order of their tribal God. They are aware of the fact that the gospels of the New Testament show that elite of the Jews, the Pharisees, were the biggest enemies of Christ and arranged for his crucifixion, and the New Testament is clear that they led the persecution of Christians which has continued through both Jewish Bolshevism and the cultural assault in the Zio global media. It must also be clear that the Talmud, the books of Jewish law promoting Jewish extremist supremacism and hatred against all non-Jews, was written hundreds of years before any alleged Khazar conversion. While it another debate altogether as to the historical accuracy of those events, there is no question about Jewish interaction with Gentiles—and Romans in particular—during the first century AD. The world’s first anti-Jewish riots broke out in the city of Alexandria in 38 AD, and re-occurred in 66 AD, 115 AD, 118 AD, and 411 AD. In that year, the archbishop of Alexandria, Cyril, ordered the expulsion of all Jews from the city. The Roman historian Socrates of Constantinople (not be confused with the Socrates of Classical Greece), in his Ecclesiastical History, recorded the reasons for this first great expulsion of Jews from a non-Jewish city in detail, and reveals behavior by Jewish Supremacists exactly as the world experiences it today, over 1,500 years later: “. . .[T]he Jews were continually factious; and there was added to their ordinary hatred of the Christians . . . Cyril, on being informed of this, sent for the principal Jews, and threatened them with the utmost severities unless they desisted from their molestation of the Christians. These menaces, instead of suppressing their violence, only rendered the Jewish populace more furious, and led them to form conspiracies for the destruction of the Christians, one of which was of so desperate a character as to cause their entire expulsion from Alexandria” (Socrates, Hist. Eccl., VII, 13; PC, LXXXII, 759 ff). The very first Jewish community outside of the Middle East was established in Rome in 139 BC—and it was not long before their activities roused Roman public opinion against them. The famous orator Cicero, among others, frequently spoke against the presence of Jews during sittings of the Roman senate. In his famous Pro Flacco oration (which dealt with the case of a Roman aristocrat, Lucius Valerius Flaccus, accused of unlawfully confiscating Jewish money), Cicero said: “Now let us take a look at the Jews and their mania for gold. You chose this site, [chief prosecutor] Laelius, and the crowd which frequents it, with an eye to this particular accusation, knowing very well that Jews with their large numbers and tendency to act as a clique are valuable supporters to have at any kind of public meeting.” Many other prominent and famous Romans, such as Seneca, Juneval, and Tacitus all went on record as complaining about the activities of Jews within the Roman Empire. The Roman historian Tacitus, in his most famous work, Histories, described the activities of the Jews as follows: “In order to secure the allegiance of his people in the future, Moses prescribed for them a novel religion quite different from those of the rest of mankind. Among the Jews all things are profane that we hold sacred; on the other hand they regard as permissible what seems to us immoral . . . The other practices of the Jews are sinister and revolting, and have entrenched themselves by their very wickedness. Wretches of the most abandoned kind who had no use for the religion of their fathers took to contributing dues and free-will offerings to swell the Jewish exchequer; and other reasons for their increasing wealth may be found in their stubborn loyalty and ready benevolence towards brother Jews. “But the rest of the world they confront with the hatred reserved for enemies. They will not feed or intermarry with gentiles. Though a most lascivious people, the Jews avoid sexual intercourse with women of alien race. Among themselves nothing is barred. They have introduced the practice of circumcision to show that they are different from others.” (Tacitus, Histories, 5.2–5). The famous British historian Edward Gibbon, in his monumental work, The Decline and Fall of the Roman Empire, (Lippincourt, Philadelphia, 1878, vol. 2, page 4), discussed Jewish Supremacist behavior in Roman times this way: “From the reign of Nero to that of Antoninus Pius, the Jews discovered a fierce impatience of the dominion of Rome, which repeatedly broke out in the most furious massacres and insurrections. Humanity is shocked at the </t>
   </si>
   <si>
+    <t>2363    Rethinking the Khazar Theory!
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>2363    Staff
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>30 Views Share: Pre-commentary by Dr. David Duke. An article in the Jewish Daily Forward newspaper has claimed that “Jewish charities” give more money to Israel than they do to education, and that this figure is of the order of $26 billion. As Professor Kevin McDonald points out in this article below, this figure is actually not even the real total—it is considerably more. As he points out, this figure does not include what is collected at synagogues—and then given to Israel—each month, because synagogues, schools and seminaries are not required to file tax returns. This is of real importance for everyone who wishes to understand how the Jewish lobby in America works, and how it uses American money—and taxpayers—to keep the racist Jews-only state of Israel in business. The immense wealth of the Jewish lobby is not the product of “Jewish ingenuity”—it is the product of active discrimination in favor of Jews by other Jews—in the educational system, the economy and in the media. Forward Study of the Jewish Charity Industry By Professor Kevin MacDonald. The $26 billion dollar figure in the title refers to the net assets of the network of explicitly Jewish charitable organizations, which puts it in the same league as a major corporation. Annual revenue is around $12-14 billion. Assuming an American Jewish population of around 6.4 million, this implies assets per capita of over $4000 and per capita annual giving of around half that. Based on an older survey indicating 2.3 persons per Jewish household, annual giving per household would be around $4600. These numbers are certainly not earth shaking, but, when broken down to particular categories, they indicate that Jewish activist organizations are indeed well funded, especially when compared to the financial resources of organizations that oppose Jewish interests (probably well under $1 million for organizations explicitly dedicated to advancing the interests of White Americans). For example, 6% of the $3.7 billion in annual donations for “functional charities” is allocated for “General Advocacy” ($222,000,000 annually), and 38% goes to Israel-related causes ($1.4 billion annually). Advocacy presumably includes the ADL which reported revenue of over $53 million in 2012—enough to fund over $31 million in employee salaries (including Abe Foxman at $688,188 ) and 28 regional offices. That’s a lot of power in opposition to European interests given the virtual non-existence of organizations explicitly dedicated to furthering European identification and interests. These numbers for donations to Jewish charity are underestimates because the IRS doesn’t require synagogues to file tax returns, and the same goes for schools and seminaries. As a result, “the $12 billion to $14 billion in annual revenue, the Forward’s best estimate based on tax filings, is probably billions of dollars short of the network’s actual size.” The other way in which such a report fails to get at the scope of financial support for Jewish ethnic activism is that it does not include organizations that are not explicitly Jewish but are supported by Jews for ethnic reasons. As Norman Podhoretz notes, Jews are the financial engine of the left, but of course the vast majority of charity for leftist causes would not appear in the Forward article because they are not explicitly Jewish organizations. A good example is the SPLC which is largely Jewish-funded but would not be considered a Jewish communal organization. (In 2012 the SPLC reported revenue of over $37 million and salaries of over $16 million.) Or consider the neocon infrastructure, such as the Foundation for Defense of Democracies: All of the identifiable donors are Jews, including a host of well-known Jewish activists like Edgar M. Bronfman ($1,050,000) and Michael Steinhardt ($850,000) who co-founded the Birthright Israel program that brings Jewish young people to Israel for a dose of Jewish patriotism. The same goes for the Republicans and Democrats, where Jewish funding promotes Israel and the liberal/left values of the Jewish community (likely at least 60% of Democrat funding, and at least 40% of Republican). For example, Haim Saban has donated millions to the Democrats, and right now “Republicans who are considering a run for president are courting Sheldon Adelson [who donated more than $100 million to Republicans in the last presidential election cycle] as a preliminary to everything else they must do to prove their worthiness, like kissing babies in Iowa or formulating a position on jobs.” And anyone with a half a brain knows that Adelson’s support begins and ends with what the candidate will do for Israel. Ditto for David Gelfand’s donation of more than $100 million to the Sierra Club on condition that it adopt a view on immigration in sync with the views of the organized Jewish community. (My gloss, but it’s hard to believe that his donation did not reflect the typical Jewish commitment to displacement-level immigration). In other words, a lot of the most destructive Jewish funding is not included in these figures. And even though the donations to the explicitly Jewish organizations covered by the article are only the tip of the iceberg, there is no suggestion that the Jewish community is highly mobilized at this time, as indicated by the per capita data. A crisis in Israel would lead to a huge upsurge of Jewish funding, as it did during the 1967 and 1973 wars — as would any indication that European Americans are beginning to develop a sense of racial identity and beginning to assert their interests by developing explicitly European organizations which have the wherewithal to make a difference.</t>
+  </si>
+  <si>
+    <t>2365    $26 Billion Dollars for the Jewish Lobby: Just...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>2365    Staff
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Project Veritas: "I've Known the President Since He Was a Community Organizer in Chicago" October 26, 2016 Daniel Greenfield 
 Another great video from Project Veritas that shows you just how blurred the lines between politics and organized crime have become. 
 The latest of the Project Veritas videos shows once again that it's all one integrated system, despite any protests to the contrary. The same Democratic machine that spouts off about "dark money" lives on it, breathes it and thrives on it. And will take it no matter how dark and dubious it is, whether it's routed from foreign interests, through foreign institutions and through roundabout ways. 
 The system runs of money, on power and favors traded and influence bought and sold. For all the leftist politics on the surface, beneath the waters is the murkier tide in which folks like the Clintons swim. It's the dark water in which money gets you access to Hillary or Obama. In which the royal courts of the royal left are filled with power brokers who do the things that make the money move around.</t>
+  </si>
+  <si>
+    <t>3685    Project Veritas: "I've Known the President Sin...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3685    Daniel Greenfield
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Search Election Law Violation Was Hillary’s Idea Orders to use Donald Duck to foment violence at Trump rallies came straight from the top. October 27, 2016 Matthew Vadum 
@@ -648,6 +856,14 @@
 “Our lawyers won't let us release all our @HillaryClinton &amp; DNC footage[,]”O'Keefe tweeted Tuesday. “For those demanding full raw [footage], be VERY careful what you wish for.”</t>
   </si>
   <si>
+    <t>3687    Election Law Violation Was Hillary’s Idea
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3687    Matthew Vadum
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Realism About the Jihad Threat in Oklahoma Oklahoma State Rep. John Bennett ventures where few dare to tread. October 27, 2016 Robert Spencer 
 In an age of near-universal denial and willful ignorance at the highest levels about the ideological roots, nature and magnitude of the jihad threat, it is as unusual as it is refreshing to find lawmakers at any level who are willing to approach the problem honestly. State Representative John Bennett of Oklahoma, a Marine and combat veteran of Iraq and Afghanistan , is one of an all-too-rare breed. 
 On Tuesday, Bennett held an “Interim Study” on “the current threat posed by radical Islam and the effect that Shariah Law, the Muslim Brotherhood and jihadist indoctrination have in the radicalization process in Oklahoma and America.” In his request to hold this study, he explained: “This will be a study of the current threat posed by radical Islam and the effect that Shariah Law, the Muslim Brotherhood and jihadist indoctrination have in the radicalization process in Oklahoma and America.” 
@@ -663,6 +879,14 @@
 John Bennett has yet again stuck his neck out for freedom. In these hard times, those who are willing to do that have to hang together.</t>
   </si>
   <si>
+    <t>3688    Realism About the Jihad Threat in Oklahoma
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3688    Robert Spencer
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Hillary Clinton Tops "Islamist Money in Politics" List   
 There are some very dubious awards out there that you just don't want to win. Being one of the top recipients of Islamic money in politics certainly tops that list. Hillary Clinton likes to complain about dark money. This is as dark as money gets. As the Middle East Forum's research shows . 
 Hillary Clinton tops the list, raking in $41,165 from prominent Islamists. This includes $19,249 from senior officials of the Council on American-Islamic Relations (CAIR), declared a terrorist organization by the United Arab Emirates on November 15, 2014. 
@@ -671,6 +895,14 @@
 Other top recent recipients of money from the enemy include Rep. Keith Ellison ($17,370) and Rep. Andre Carson ($13,225). 
 The top ten list includes nine Democrats, one independent (Sen. Bernie Sanders accepted $9,285), and no Republicans. 
 I don't think that's too surprising to anyone. Though you have to feel sorry for Jill Stein. She hates Israel and announced she wouldn't have killed Osama bin Laden. What's a girl gotta do to get ahead on Jihad Street anyway?</t>
+  </si>
+  <si>
+    <t>3692    Hillary Clinton Tops "Islamist Money in Politi...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3692    Daniel Greenfield
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Bill Clinton Inc: Billions for the Foundation, $116 Million for the Clintons October 27, 2016 
@@ -695,6 +927,14 @@
 That's not consistent with mafia ethics agreements, but it's all good in Clintonworld.</t>
   </si>
   <si>
+    <t>3694    Bill Clinton Inc: Billions for the Foundation,...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3694    Daniel Greenfield
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Wife of FBI Official Investigating Hillary Got $500K from Hillary Allied PAC October 27, 2016 Daniel Greenfield 
 The system is broken. It's deeply corrupted by insider politics . The situation at the center of power has reached the point of utter unaccountability. Insider politics function as a shadow government. That needs to change. Restoring America requires dismantling much of the Federal government not only for Constitutional reasons, but because it's a simple matter of saving the Republic. 
 Hillary Clinton headlined a major fundraiser for a political action committee shortly before the group steered nearly $500,000 to the wife of the FBI official who oversaw the Clinton email investigation, DailyMail.com has learned. 
@@ -708,6 +948,14 @@
 Although Common Good VA is only allowed to fund state-level candidates, many of its largest donations came from outside of Virginia – including $50,000 from Clinton Foundation official Doug Band in New York, $100,000 from Clinton loyalist Robert Johnson in Maryland, and $10,000 from Clinton mega-donor Stephen Cloobeck in Nevada. 
 In the following months, Common Good VA received several major donations from other close Clinton associates, including $100,000 from Bill Clinton's business partner Ron Burkle in California and $50,000 from Ready for Hillary's finance committee member Leonard Lauder in New York. 
 There are basic conflicts here. Someone this linked to the Clinton network should never have been investigating Hillary regardless of the dates and timing. But this is exactly what happened with Benghazi.</t>
+  </si>
+  <si>
+    <t>3695    Wife of FBI Official Investigating Hillary Got...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3695    Daniel Greenfield
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Reprinted from Spectator.org . 
@@ -740,6 +988,14 @@
 Today, at long last, for Tom Hayden and friends, the new Democratic Party and the new America is theirs. He can rest in peace, assured that his mission is finally being accomplished.</t>
   </si>
   <si>
+    <t>3696    Tom Hayden: From SDS and Viet Cong to Progress...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3696    Paul Kengor
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Obama Votes Against US at UN October 27, 2016 Daniel Greenfield 
 Obama's abstention from a UN vote against the US is a new low for the most anti-American administration in American history. Under Obama, our foreign policy has been reoriented toward damaging our own interests as much as possible. But actively opposing US policy at the UN is a new low. 
 The resolution A/RES/71/5 is on the "Necessity of ending the economic, commercial and financial embargo imposed by the United States of America against Cuba". 
@@ -750,6 +1006,14 @@
 At the UN, Samantha Power took the anti-American positions to applause from a UN united with Obama against America. 
 "For more than 50 years, the United States had a policy aimed at isolating the government of Cuba. For roughly half of those years, UN Member States have voted overwhelmingly for a General Assembly resolution that condemns the U.S. embargo and calls for it to be ended. The United States has always voted against this resolution. Today the United States will abstain. [Applause.] Thank you. " 
 This is treason.</t>
+  </si>
+  <si>
+    <t>3697    Obama Votes Against US at UN
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3697    Daniel Greenfield
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Search The Left in Power : Clinton to Obama David Horowitz explains how the Democrats became a leftwing party in Volume VII of the Black Book of the American Left. October 28, 2016 Richard Baehr 
@@ -767,6 +1031,14 @@
 Horowitz’ latest book is full of insights and straight talk on the goals and the mission of the Left, and how it has advanced its cause this last quarter century. He provides the kind of arguments that keep his books from getting reviewed by the New York Times. And there is always a horrible slur available from the Left to describe a viewpoint that counters one of its missions. The Left chooses to ignore the argument and uses character assassination for the people making it. It argues that these are people (Horowitz included) unworthy of serious consideration, or respect. 
 Silencing the critic or the dissident or limiting his visibility has been a long time weapon of the Left. So far, Horowitz keeps writing, and America is free enough that the Left, though it clearly wants to, cannot ban his books. George Soros and his family have another $20 billion to spend on changing America. The Alinsky acolytes have their mission laid out to make use of the funds and create an America where the smart bureaucrats can organize society and distribute its wealth, so results are all equal. And we can all sing along with the Pete Seeger songs as we turn away from any role overseas (where of course we have primarily been an agent of evil) and disinvest in defense every year. 
 Let’s hope that some of America’s young will read Horowitz’ books,and learn what their professors and teachers won’t teach them.</t>
+  </si>
+  <si>
+    <t>3699    The Left in Power: Clinton to Obama
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3699    Richard Baehr
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>An eyebrow-raising new study from a nonpartisan research institute. October 28, 2016 Matthew Vadum 
@@ -803,6 +1075,14 @@
 And they never will.</t>
   </si>
   <si>
+    <t>3700    Bank Fines Elect Democrats
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3700    Matthew Vadum
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Search What Will Replace ISIS? This is a war to determine whether the future will belong to the West or to Islam. October 28, 2016 Daniel Greenfield 
 Daniel Greenfield, a Shillman Journalism Fellow at the Freedom Center, is a New York writer focusing on radical Islam. 
 Before long the same administration that declared the fighting in Iraq over several times will claim victory over ISIS. The timetable for its push against the Islamic State appears to have less do with the victimized Christians and Yazidis who have been prevented from coming here as refugees in favor of Syrian Muslims than with the Clinton presidential campaign. Like Obama’s declarations that the wars in Afghanistan and Iraq were over, the announcement that ISIS has been defeated will be premature. 
@@ -829,6 +1109,14 @@
 This is a war to determine whether the future will belong to the West or to Islam.</t>
   </si>
   <si>
+    <t>3701    What Will Replace ISIS?
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3701    Daniel Greenfield
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>The SPLC’s Libelous New Report on 'Anti-Muslim Extremists' Equating counter-jihadists with jihadists. Robert Spencer 
 The objective of this libelous new report from the hard-Left money-making and incitement machine the Southern Poverty Law Center (SPLC) is made plain within it: “Before you book a spokesperson from an anti-Muslim extremist group or quote them in a story, research their background — detailed in this in-depth guide to 15 of the most visible anti-Muslim activists— and consider the consequences of giving them a platform.” 
 They wish to silence those who speak honestly about the nature and magnitude of the jihad threat, blaming us for a supposed rise in “Islamophobia.” If they really want to stamp out suspicion of Islam, of course, they will move against not us, but the likes of Omar Mateen, Syed Rizwan Farook, Tashfeen Malik, Nidal Malik Hasan, Mohammed Abdulazeez, Dzhokhar Tsarnaev, and the myriad other Muslims who commit violence in the name of Islam and justify it by reference to Islamic teachings. 
@@ -850,6 +1138,14 @@
 But what need does the SPLC have of facts? It knows its readers won’t check up on the veracity of its claims, but will accept them at face value, since the SPLC is of the camp of the saints, the enlightened and tolerant Left. Those who are outside that camp clearly have no rights that the SPLC feels bound to respect.</t>
   </si>
   <si>
+    <t>3702    The SPLC’s Libelous New Report on 'Anti-Muslim...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3702    Robert Spencer
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Hillary Clinton Seeks Even More Unfit Secretary of State Than Her October 28, 2016 Daniel Greenfield 
 Having never read any medieval German folk tales, Hillary Clinton is counting her chickens before they've hatched and preparing to hand out jobs that no one has handed her to hand out. She's busy planning her fantasy cabinet for her fantasy administration. 
 And her big pick makes sense. 
@@ -858,6 +1154,14 @@
 And who could be counted on to make an even bigger mess than Hillary Clinton or John Kerry... Joe Biden. It's a perfect plan. If you want a fall guy to blame everything on, they don't come any more obvious than Joe Biden. 
 And if you want someone shadowed by the soft bigotry of low expectations, you've gotta go Joe. 
 Joe Biden could accidentally start WW3 and everyone would shrug and say, "That's just Joe."</t>
+  </si>
+  <si>
+    <t>3711    Hillary Clinton Seeks Even More Unfit Secretar...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3711    Daniel Greenfield
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Americans Seek to Help Persecuted Christians , Government Helps Muslims The people of the United States get it, but the Obama administration could care less. October 31, 2016 
@@ -899,6 +1203,14 @@
 Previous Reports :</t>
   </si>
   <si>
+    <t>3726    Americans Seek to Help Persecuted Christians, ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3726    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Freedom Center Urges College Presidents to End Aid to Campus Supporters of Terror “We ask that you withdraw all university privileges granted to SJP.” October 31, 2016 Frontpagemag.com 
 Editor’s Note: The following letter was sent to the presidents of the ten campuses named in the Freedom Center’s report on the “Top Ten Schools Supporting Terrorists.” In alphabetical order, the ten campuses are: Brooklyn College (CUNY), San Diego State University, San Francisco State University, Tufts University, University of California, Berkeley, University of California, Irvine, University of California, Los Angeles, University of Chicago, University of Tennessee, Knoxville, and Vassar College. 
 October 27, 2016 
@@ -912,6 +1224,14 @@
 Students for Justice in Palestine continues to accept funding and aid through the Hamas front group American Muslims for Palestine. Despite its links to terrorist organizations and agendas, Students for Justice in Palestine continues to receive campus funds and campus privileges, including university offices, and the right to hold events preaching the genocidal values of Hamas on university property. These privileges would normally be denied to groups that preach hatred of any other ethnic group, let alone one that supports barbaric terrorists who slaughter men, women and children with the goal of cleansing the earth of people who disagree with them. 
 In light of these facts, we ask that you withdraw all university privileges granted to SJP and other campus groups who promote the genocidal Hamas agenda, and that you put an end to the terrorist influences which have infiltrated your campus and which threaten the security not only of Jewish students on your campus, but of all Americans. 
 David Horowitz ceo The David Horowitz Freedom Center Sherman Oaks, California</t>
+  </si>
+  <si>
+    <t>3727    Freedom Center Urges College Presidents to End...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3727    Frontpagemag.com
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Meet Hillary Clinton’s Secretary of State Send a $200 million check to Iran. October 31, 2016 Daniel Greenfield 
@@ -943,6 +1263,14 @@
 Hillary Clinton’s rise doesn’t just mean that she will be making big decisions. It will mean that Joe Biden will have gone from a Wilmington shyster to running the foreign policy of a country he has betrayed.</t>
   </si>
   <si>
+    <t>3728    Meet Hillary Clinton’s Secretary of State
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3728    Daniel Greenfield
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>A resolution on Jerusalem that will fuel anti-Jewish incitement and violence. October 31, 2016 Joseph Puder 
 If anyone doubted the fact that the United Nations agencies harbored a deep-seated anti-Israel and anti-Jewish animus, the United Nations Educational Scientific and Cultural Organization (UNESCO) vote on Jerusalem proved it. The UNESCO World Heritage Committee voted this week (October 26, 2016) on a resolution dealing with Jerusalem, drafted by the Palestinian and Jordanian delegations, and submitted by Kuwait, Lebanon and Tunisia (all Arab Muslim states). The Executive Committee of UNESCO approved (10 for, 2 opposed, 8 abstained, and 1 missing) the resolution that was already voted on earlier this month in which 24 member-states approved the resolution; (Algeria, Bangladesh, Brazil, Cuba, Chad, Dominican Republic, Egypt, Iran, Lebanon, Malaysia, Morocco, Mauritius, Mexico, Mozambique, Nicaragua, Nigeria, Oman, Pakistan, Qatar, Russia, Senegal, South Africa, Sudan and Vietnam) 6 opposed (Estonia, Germany, Lithuania, The Netherlands, UK, and the U.S.). Among the abstaining 26 states were Argentina, France, Greece, India, Japan, Kenya, South Korea, Spain, Sri Lanka and Sweden. 
 The resolution “deeply decries the continuous Israeli aggressions against civilians including Islamic religious figures and priests, decries the forceful entering into the different mosques and historic buildings, and into Muslim holy sites by Israelis, including employees of “the so-called ‘Israeli Antiquities.’” Israel is urged to “end these aggressions and abuses which inflame the tension on the ground and between faiths.” 
@@ -957,6 +1285,14 @@
 Whereas Jerusalem was King David’s capital and continued to be the capital of the Second Jewish Commonwealth, as well as Israel’s capital today, it was never the capital of any Arab or Muslim empire, Caliphate, or entity, nor was Jerusalem a spiritual center that Muslims yearned for. The Umayyad Caliphate had its capital in Damascus. The Abbasside Caliphate capital was Baghdad, and the Ottoman Empire’s (Caliphate) capital was Constantinople. Ramle, a small town in Israel, was its administrative capital in Palestine - not Jerusalem. A Palestinian state never existed as an independent entity, and the PA claims on Jerusalem are strictly contrarian – to deny Jerusalem as the heart of Jewish spirituality and yearning. Jerusalem exists in every Jewish prayer, and is invoked on every occasion and holiday. 
 Dore Gold, former Director General of Israel’s Foreign Ministry, addressed last year’s UNESCO’s Jerusalem resolution. He pointed out that the resolution “glossed over any Jewish connection to Jerusalem, and it failed to acknowledge Christianity’s ties to Jerusalem.” 
 Most dismaying is the fact that Christian nations who voted for the resolution or abstained, have abandoned all vestiges of pride and honor, and are willing to deny historical truth for narrow political interests. Brazil, Mexico, and the Dominican Republic, predominantly Catholic states, are a case in point. Unfortunately other Christian countries including France, Spain, Greece, Argentina, and Sweden, who should know about Jerusalem from their church bibles, did not have the courage to reject this outrageously false resolution. It can only lead to the conclusion that perhaps cowardice and latent anti-Semitism drove their decision to accept, not reject this infamous resolution.</t>
+  </si>
+  <si>
+    <t>3731    UNESCO’S Anti-Israel Bias
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3731    Joseph Puder
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>The renewed criminal investigation into Hillary's misdeeds -- and how it could affect the election. November 1, 2016 Matthew Vadum 
@@ -994,6 +1330,14 @@
 Former New York mayor and leading Trump surrogate Rudy Giuliani said over the weekend that enough evidence has surfaced from WikiLeaks and the FBI to indict Clinton for racketeering. Bill Clinton “does the speeches, they put the money in the pocket, she does the favors in the government,” said Giuliani, a former federal prosecutor. “It all links up. Why did they destroy 33,000 emails? Because it shows the link.” 
 Influential liberal journalist Ron Fournier threw Hillary under the bus. Mrs. Clinton got “a secret server” to protect what the Washington Post called “the ‘circle of enrichment,’” he said. 
 If Hillary Clinton wins next week, media outlets across America will have to hire extra investigative journalists to handle all the corruption exposes that will follow.</t>
+  </si>
+  <si>
+    <t>3738    Democratic Panic
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3738    Matthew Vadum
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Obama Won’t Vote With America at the UN Under Obama, the United States won’t defend the United States. November 1, 2016 Daniel Greenfield 
@@ -1037,6 +1381,14 @@
 The Cuban people show no signs of winning independence from their Communist overlords. The question is will the United States of America be able to regain its independence from the “we”?</t>
   </si>
   <si>
+    <t>3740    Obama Won’t Vote With America at the UN
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3740    Daniel Greenfield
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>If government can truly alleviate poverty, why have leftist policies only made it worse? November 1, 2016 Thomas Sowell 
 The political left keeps announcing, as if it is a new breakthrough discovery of theirs, that life is unfair. 
 Have they never read Thomas Gray's "Elegy Written in a Country Churchyard," more than two and a half centuries ago? What about economic historian David S. Landes' statement: "The world has never been a level playing field"? 
@@ -1058,6 +1410,14 @@
 Very similar trends occurred in England, after very similar visions and policies also triumphed there in the 1960s. Perhaps it is the left that just doesn't get it — or cannot face the hard fact that its own vision and policies worsened the very things they claimed would be made better.</t>
   </si>
   <si>
+    <t>3743    The Left's Vision
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3743    Thomas Sowell
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Hillary Campaign Manager Gets $7K a Month from Hillary Donor Linked to Economic Collapse   
 Clintonworld is a giant sewer. Nothing about it can surprise. It plummets to infinite depths of slime, mold and rotting carrion. This is just another day in Clintonworld . 
 John Podesta, who draws no salary from the campaign, is making $7,000 per month from the Sandler Foundation, run by Herb Sandler, Politico reported. 
@@ -1067,6 +1427,14 @@
 Notorious right wing comedy show Saturday Night Live also featured the Sandlers 
 On October 4, 2008, however, Saturday Night Live aired a skit in which the Sandlers were depicted as predatory lenders. Under their names, SNL placed the caption “people who should be shot.” Compounding the Sandlers’ negative press was a Time magazine list that identified them as two of the “25 people to blame for the financial crisis.” The New York Times also labeled the Sandlers “pariahs” -- and on December 24, 2008, the Times reportedthat their mortgages were the “Typhoid Mary” of the housing crisis. On February 15, 2009, CBS’s 60 minutes also aired a segment that featured the Sandlers’ World Savings Bank as one of the primary examples of how the mortgage industry had destroyed itself and unleashed an economic collapse.​ 
 And this is whom Hillary's campaign chief is taking cash from.</t>
+  </si>
+  <si>
+    <t>3746    Hillary Campaign Manager Gets $7K a Month from...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3746    Daniel Greenfield
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>FBI Releases Files on Bill Clinton's Cash for Pardons Scandal November 1, 2016 Daniel Greenfield 
@@ -1079,6 +1447,14 @@
 While the files may seem dated, they invoke figures beyond the Clintons who went on to play key roles in official Washington -- including Comey. 
 He served as prosecutor in charge of a legal case against Rich from 1987 to 1993. As the U.S. attorney in Manhattan in 2002, Comey took over a criminal investigation of Clinton’s pardons. “I was stunned” at the Rich pardon, Comey wrote in a letter to lawmakers in 2008. 
 Clinton's people are fuming, but it was a standard FIOA request and there's nothing big here. It's just one of those things the Clintons should have gone to jail for. But didn't. Another of those.</t>
+  </si>
+  <si>
+    <t>3748    FBI Releases Files on Bill Clinton's Cash for ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3748    Daniel Greenfield
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Obama’s Secret Muslim List Why enemies of Israel and Iran’s “go-to guy” appeared on the list. November 2, 2016 Daniel Greenfield 
@@ -1115,6 +1491,14 @@
 This represents behavior that is in Obama’s own words, “shameful” and “not American.” One can’t help but conclude that, based on his own principles, Obama is shameful and not American.</t>
   </si>
   <si>
+    <t>3750    Obama’s Secret Muslim List
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3750    Daniel Greenfield
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Lloyd Billingsley 
 “Presidential debates between Donald Trump and Hillary Clinton included a third participant: Vladimir Putin, standing in the background, stealthily inserting himself in the process.” Putin’s Russia “uses deniable cyber-hooliganism to actively prank the American political system. And it’s taking a toll. . . This is the Putin Playbook. Steal, cheat, attack, disrupt, mislead, confuse. If caught, lie and deny.” And it gets worse. 
 “Unfortunately, the Republican presidential nominee reinforces this narrative, referring to a ‘rigged’ system and an indictable opponent. His outbursts follow years of domestic political discord, where comity is history, crazy seems the new normal, and a sitting president can be heckled with ‘You lie!’” 
@@ -1129,6 +1513,14 @@
 Only one time, as this writer recalls, has Kounalakis acknowledged in print his wife’s strong Clinton connections. Even after the Wikileaks revelations, and with a presidential election only days away, Kounalakis did not acknowledge his wife’s key role in HRC’s inner circle with John Podesta and Huma Abedin. His October 30 Sacramento Bee piece suggests Markos is right at home in those circles. 
 Kounalakis attacks “the Republican presidential nominee,” implying that he is “crazy,” and a tool of the evil Putin. On the other hand, the Clinton email scandal gets zero attention and the author piles on the ad copy: “American society has made great strides in LGBTQ rights, women’s rights and minority rights, and has a relatively strong and resilient globally innovative economy.” 
 The author gives readers good cause to regard this article as pure Clinton campaign propaganda from a camouflaged Clinton crony. Maybe Markos will join his wife, Huma Abedin, and John Podesta in the Wikileaks revelations. For many observers, the issue is not where the leaks came from but whether the revelations are true and authentic. If Markos Kounalakis believes they are bogus, maybe he can write about what’s in the real ones.</t>
+  </si>
+  <si>
+    <t>3752    HillaryMediaMole.Con
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3752    Lloyd Billingsley
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Search form Search From Bad to Worse : Obama’s Ransom Payment to Iran is Just the Tip of the Iceberg In his bid to pursue a legacy, Obama charts disastrous course with reckless abandon. November 2, 2016 Ari Lieberman 
@@ -1147,6 +1539,14 @@
 In addition to the $1.7 billion in cash, Obama also authorized the release of seven convicted Iranian felons and expunged warrants on 14 others. But this aspect of the transaction seems almost trivial when considering the sheer mendacity and illegality of nearly every other aspect of the deal. 
 Lastly, the transfer of such a large sum to Iran in “settlement” of an alleged legal claim required the attorney general’s approval but the administration has yet to produce any document bearing Loretta Lynch’s signature authorizing such payment. On October 7, Sen. Marco Rubio (R., Fla.) and Rep. Mike Pompeo (R., Kan.) presented Lynch with a series of questions seeking clarification of various aspects of the deal. Lynch, whose tenure as attorney general is proving to be as corrupt and partisan as her predecessor, has inexplicably refused to answer the lawmakers’ queries. 
 In a desperate attempt to establish a legacy, Obama pursued the Iran deal with reckless abandon, forfeiting positions previously regarded as red lines and signing the worst deal in U.S. diplomatic history. The ancillary deal struck with the Iranians concerning American hostages was laced with outright lies and enabled the Iranians to continue their reign or regional terror. More importantly, it may also have been in violation of existing U.S. law and Lynch’s stonewalling only lends credence to that notion.</t>
+  </si>
+  <si>
+    <t>3753    From Bad to Worse: Obama’s Ransom Payment to I...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3753    Ari Lieberman
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>The Hostility and Hypocrisy of Left-Wing Israeli NGOs Where are the condemnations of the PA’s efforts to prevent “normalization” with Israel? November 2, 2016 
@@ -1169,6 +1569,14 @@
 “These organizations are silent when the Palestinian leadership pays salaries to the families of terrorists, glorifies murderers and calls streets and city centers after them,” Netanyahu said. “These organizations prove again and again that they are not actually interested in human rights, but only in shaming Israel and libeling it around the world.” 
 If Israel’s left-wing NGOs truly are committed to democracy and peace, why haven’t they condemned the PA’s efforts to prevent “normalization” with Israel? In 2014, Jibril Rajoub, the deputy secretary of the Fatah Central Committee and the head of the Palestinian Supreme Council for Sport and Youth Affairs, condemned a coexistence-promoting soccer match between Israeli and Palestinian youths on a southern kibbutz, as “a crime against humanity.” 
 Last week, a Palestinian newspaper came under intense criticism for publishing an interview with Israeli Defense Minister Avigdor Liberman. The Jerusalem-based newspaper Al-Quds was denounced by Hamas , the Palestinian Journalists’ Syndicate, and the supposedly “moderate” PA. The “chilling effects” and anti-peace message implicit in the harsh reactions to the interview have yet to catch the attention of any left-wing NGOs supposedly working for peace and democracy.</t>
+  </si>
+  <si>
+    <t>3755    The Hostility and Hypocrisy of Left-Wing Israe...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3755    Noah Beck
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>FBI Investigates Saudi Wife-Abusing Clinton Foundation Donor in Straw Donor Scheme November 2, 2016 Daniel Greenfield 
@@ -1200,6 +1608,14 @@
 The Clintons. If there's dirt anywhere, you'll find it on them.</t>
   </si>
   <si>
+    <t>3758    FBI Investigates Saudi Wife-Abusing Clinton Fo...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3758    Daniel Greenfield
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">Go to Article 
 Nothing ought to be plainer, and yet nothing is more obscured, than the meaning of the Islamic concept of jihad. Even if its meaning were at all unclear, every day Islamic jihadists do their best to remind us of what it is. The confusion arises, of course, from the fact that jihad and related concepts are the object of a massive misinformation and disinformation campaign, making books such as William Kilpatrick’s The Politically Incorrect Guide to Jihad so vitally necessary. 
 Kilpatrick covers that propaganda campaign ably in this lucid and genial book, which not only explains from Islamic texts and teachings why ISIS and Boko Haram (and other jihad terror groups) are not only not un-Islamic, as is frequently claimed, but quintessentially Islamic – for the Qur’an, as Kilpatrick explains, commands jihad, and Muhammad, who is considered in Islamic theology to the perfect man, to be imitated by Muslims whenever, wherever, and however possible, not only commanded jihad warfare but waged it himself. 
@@ -1208,6 +1624,14 @@
 The most valuable sections, however, of this useful and engaging book are the second, “Jihad Without Bombs,” and the third, “Defeating Jihad.” For even as violent jihad becomes an increasingly common feature of the Western landscape, more insidious and damaging in the long run may be the stealth jihad that proceeds due to the appeasement policies that Western governments indefatigably pursue, and the politically correct straitjacket on the public discourse that has for well over a decade now hindered, and usually prevented outright, honest discussion in the mainstream media of the nature and magnitude of this threat. Kilpatrick points out that “according to Reporters Without Borders, the U.S. has dropped to forty-sixth place in press freedom.” One of the principal ways in which the press today reveals itself to be a mouthpiece of moneyed elites is in its deliberate attempts to obfuscate the ideological roots of the jihad threat, and its ongoing campaign, every time there is a jihad attack, to inundate us with articles explaining that Islam is really quite wonderful and has nothing to do with this violence, nothing at all. 
 But Kilpatrick details how the media and governing elites are not in the least singular in appearing determined to foster complacency and ignorance among the people they should be enlightening and protecting. The churches are in on the act as well: “Christians,” writes Kilpatrick, “have been lulled into complacency by the oft-repeated emphasis on the similarities between their faith and the faith of Muslims” – an emphasis all too many Church leaders, including, of course, Pope Francis, relentlessly hammer home, heedless of the danger in which they are putting their flock by leaving them intellectually, spiritually, and physically defenseless in the face of an advancing and growing threat. 
 That’s why the most apposite sentence in this entire book is the second sentence of the chapter headed “Strategies for Victory”: “First we’ve got to get serious.” The West suffers from a collective lack of seriousness that could, in the end, be fatal. The frivolity is at the top, fueled by globalist internationalists who are using the complacency the media, the government and the Church are fostering for their own ends. The Politically Incorrect Guide to Jihad is the perfect book for those who don’t know just how bad things are, and how likely they are to get even worse – as well as for all who wish to chart a way out of this madness. It can be done. William Kilpatrick does it, quite well, in this book.  </t>
+  </si>
+  <si>
+    <t>3763    Yes, 'Jihad' Means Warfare Against Unbelievers
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3763    EdJenner
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">Go to Article 
@@ -1241,12 +1665,28 @@
 And those who do it often not only don’t know the facts, but don’t even know what a fact is.  </t>
   </si>
   <si>
+    <t>3764    The Factless Fact-Checkers
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3764    EdJenner
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Who's really to blame for the corrupting influence of money in Washington, DC? November 3, 2016 Walter Williams 
 Microsoft co-founder Bill Gates, having a net worth of $81.8 billion, and Amazon.com CEO Jeff Bezos, having a net worth of $70.4 billion, are the nation's two richest men. They are at the top of the Forbes 400 list of America's superrich individuals, people who have net worths of billions of dollars. Many see the rich as a danger. New York Times columnist Bob Herbert wrote, "It doesn't really matter what ordinary people want. The wealthy call the tune, and the politicians dance." His colleague Paul Krugman wrote, "On paper, we're a one-person-one-vote nation; in reality, we're more than a bit of an oligarchy, in which a handful of wealthy people dominate." It's sentiments like these that have led me to wish there were a humane way to get rid of the rich. For without having the rich around to be whipping boys and distract our attention, we might be able to concentrate on what's best for the 99.9 percent of the rest of us. 
 Let's look at the power of the rich. With all the money that Gates, Bezos and other superrich people have, what can they force you or me to do? Can they condemn our houses to create space so that another individual can build an auto dealership or a casino parking lot? Can they force us to pay money into the government-run — and doomed — Obamacare program? Can they force us to bus our children to schools out of our neighborhood in the name of diversity? Can they force us to buy our sugar from a high-cost domestic producer rather than from a low-cost Caribbean producer? The answer to all of these questions is a big fat no. 
 You say, "Williams, I don't understand." Let me be more explicit. Bill Gates cannot order you to enroll your child in another school in order to promote racial diversity. He has no power to condemn your house to make way for a casino parking lot. Unless our elected public officials grant them the power to rip us off, rich people have little power to force us to do anything. A lowly municipal clerk earning $50,000 a year has far more life-and-death power over us. It is that type of person to whom we must turn for permission to build a house, ply a trade, open a restaurant and do myriad other activities. It's government people, not rich people, who have the power to coerce us and rip us off. They have the power to make our lives miserable if we disobey. This coercive power goes a long way toward explaining legalized political corruption. 
 Take just one of thousands of examples. The Fanjuls are among the biggest sugar cane growers, and they co-own the world's largest refining company, American Sugar Refining, which markets its product under the brand names Domino, C&amp;H, Redpath, Tate &amp; Lyle and Florida Crystals. During the 2014 election cycle, Florida Crystals contributed more than $860,000 to candidates and political spending groups. It spent more than $1 million lobbying Congress, the U.S. departments of Agriculture and Commerce, and the Office of the U.S. Trade Representative. Here's my question to you: Do you think it forked over all that money to help our elected representatives uphold and defend the U.S. Constitution? Nonsense. The Fanjuls and other sugar producers want Congress to use tariffs to keep foreign-produced sugar out of our country so they can reap the financial benefits from being able to charge Americans two to three times the world price of sugar. 
 So here's the ultimate question: If some rich people can line the pockets of politicians to do their bidding at the expense of the rest of us, who's to blame? I think it's we, the people, who are to blame for not using our votes to run such politicians out of town — and that's most of them. But that might be deceitful of us, for we also ask politicians to enable us to live at the expense of others.</t>
+  </si>
+  <si>
+    <t>3771    The Rich and Us
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3771    Walter Williams
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Obama's Weighs Options for His Final Stab at Israel In his twilight months in office, Obama seeks to undermine America’s closest ally. November 4, 2016 Ari Lieberman 
@@ -1267,57 +1707,169 @@
 It is ironic that with the multitude of problems currently facing the administration – spiraling healthcare costs, racial discord, cyber breaches, Russia’s seizure of Crimea and eastern Ukraine, ISIS, the meltdown in the Arab world, Iranian terrorism, China’s expansion into the South and East China Seas, the migrant crisis, immigration reform – Obama would choose to focus his negative energies on harming the Mideast’s only democracy and America’s staunchest ally. That fact, in it of itself, speaks volumes about the man.</t>
   </si>
   <si>
+    <t>3776    Obama's Weighs Options for His Final Stab at I...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3776    Ari Lieberman
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Potentially the Worst VP in American History A look at Tim Kaine's track record and agendas. November 4, 2016 Discover The Networks 
 During his years as a student at Harvard Law School in the early 1980s, Tim Kaine took a year off from his legal studies in order to work with Jesuit missionaries in Honduras. During the nine months he spent there, Kaine developed a keen interest in the teachings of local priests who were adherents of liberation theology , which is essentially Marxism dressed up as Christianity. Kaine himself embraced liberation theology and later claimed that it had “changed” him and “deepened” him. After completing his legal education, Kaine joined a civil litigation firm and practiced law for 17 years. He also launched a career in local politics in the mid-1990s, and eventually went on to serve as governor of Virginia (2006-10) and as a U.S. senator (2013-present). This past July, Hillary Clinton named Kaine as her vice presidential running mate. 
 Over the course of his political career, Kaine has developed some noteworthy ties to a number of Islamist individuals and organizations: In his role as Virginia's governor in 2007, Kaine appointed Esam Omeish, president of the Muslim Brotherhood -affiliated Muslim American Society (MAS), to Virginia’s Immigration Commission. Omeish had previously served as president of the National Muslim Students Association and as a board member of the Islamic Society of North America , both of which have deep ties to the Brotherhood. Omeish had also been a board chairman of the Islamic Center of Passaic County , a New Jersey mosque with significant terrorist connections. And he had been a vice president and board member of the Dar al-Hijrah Islamic Center , a Virginia mosque whose imams have included, among others, an Al-Qaeda operative and a supporter of suicide bombings. Prior to his appointment by Kaine, Omeish had described the Muslim Brotherhood as a “moderate” organization; he had praised the former Hamas leader Ahmed Yassin as “our beloved Sheikh”; and he had pledged to lend his assistance to those Palestinians who understood that “the jihad way is the way to liberate your land.” In May 2007, Kaine was the keynote speaker at the Muslim American Society Freedom Foundation's “Standing for Justice Dinner.” In 2010, Kaine agreed to attend the Dar al-Hijrah Islamic Center's annual fundraising banquet. In September 2011, Kaine spoke at an event that presented a Lifetime Achievement Award to U.S. Muslim Brotherhood leader Jamal Barzinji , who was closely associated with the Palestinian Islamic Jihad , Hamas, and the extremist International Institute of Islamic Thought (IIIT). In 2011-12, Kaine’s U.S. Senate campaign received $4,300 from officials of the Islamic Society of North America and the Council on American-Islamic Relations , plus another $3,500 from IIIT's president-of-finance , Hisham Al-Talib . 
 In early 2015, Kaine objected strenuously when Republican House Speaker John Boehner invited Israeli Prime Minister Benjamin Netanyahu to speak to the U.S. Congress about the gravity of the growing Iranian nuclear threat and his (Netanyahu's) “ profound disagreement ” with the negotiated deal that the Obama Administration was pursuing with Iran. Kaine joined seven other Senate Democrats in boycotting Netanyahu’s speech. That summer, Kaine declared himself a “ strong supporter ” of the final agreement, which allowed the Islamist regime in Tehran to enrich uranium, build advanced centrifuges, purchase ballistic missiles, fund terrorism, and be guaranteed of having a near-zero breakout time to the development of a nuclear bomb approximately a decade down the road. In May 2015, Kaine was one of fourteen U.S. senators who wrote a letter to President Barack Obama urging him to allow 65,000 people from war-torn, terrorism-ravaged Syria into the United States as refugees, despite many people's concern that terrorists could potentially infiltrate the refugee program. Later that same year, Kaine opposed a bill passed by the House of Representatives that would have required more careful vetting of Syrians and Iraqis before they could be admitted to the United States as refugees. “These refugees are people who are terrorized, not terrorists,” Kaine said in a November 2015 interview wherein he claimed that “the refugee vetting process is one of the safest areas that we have.” In a speech on the Senate floor the following month, Kaine said: “I look at this refugee crisis as a test … about whether we, like [the biblical] Job, will be true to our principles or whether we’ll abandon them.” He also urged his fellow legislators to emulate the example of the 17th-century “Indians down near Jamestown Island” who had helped starving English settlers to survive by offering “an extension of a hand to strangers in a strange land.” Kaine ranks among the most left-wing political figures in the United States today. He is the only person with a 0% Lifetime Rating from the American Conservative Union, which has graded Members of Congress on their voting records each year since 1971. Similarly, ConservativeReview.com gives Kaine a 0% rating. In short, Tim Kaine is essentially a political mirror image of Hillary Clinton. Mrs. Clinton picked him as her running mate because she saw him as someone who could effectively help her implement a radical leftist agenda.</t>
   </si>
   <si>
+    <t>3780    Potentially the Worst VP in American History
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>3780    Discover The Networks
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Nestle to launch new non-GMO products ... How shocked will Monsanto be? 
 Thursday, October 27, 2016 by: Vicki Batts Tags: GMOs , Nestle , Monsanto (NaturalNews) One of the food industry's most prominent players recently announced that they will be expanding their line of non-GMO products, due to the ever-increasing customer demand for clean food. Nestle may have wowed consumers with their choice, but it may make some waves with their good friend, Monsanto ."The company is broadening its product offerings to give consumers more options with no GMO ingredients and identifying these products with the SGS-verified 'no GMO ingredients' claim," the food giant stated on Tuesday."Nestle USA understands that consumers are seeking choice and many prefer to select products with no GMO ingredients," they declared.Of course, this is not Nestle's first move towards GMO-free products. In April, Nestle announced that they would be removing GMO ingredients from six of their top-selling ice cream products, as well. The company states it is trying to evolve along with consumer demands. It is great to see that companies are beginning to realize that consumers want options; no one wants to be forced to buy GMO products.It is easy to want to applaud Nestle for their decision to continue to expand their line of non-GMO products. However, it is also clear that this company is doing so out of their own financial interests – not because they care about what people are eating. Organic, GMO-free foods are the newest trend, and smart manufacturers are beginning to see that they will not win anyone over by insisting that GM, pesticide-laden food products are safe. "If you can't beat 'em, join 'em," is a philosophy Nestle has clearly taken to heart.Nestle is not an angelic company, even if they have decided to start serving up "GMO-free" options. Just three years ago, they donated millions of dollars to prevent and oppose GMO labeling in Washington state, along with Monsanto and other biotech firms. Truth Out reports that on October 18, 2013, the Grocery Manufacturers of America disclosed that several of their largest, most powerful players silently donated large sums of money to oppose Initiative 522. This bill would have required grocery items containing GMO ingredients to be labeled as such. The group chose to voluntarily release the names of the silent donors, after Washington state Attorney General Bob Ferguson filed a lawsuit against their concealment of corporate donors.Nestle was among the top three highest contributors, and donated a cool $1.5 million to keep GMO ingredients under wraps and off product labels. Nestle also made a large donation to oppose similar legislation in California the year before, in 2012. The bill ultimately failed, after Big Food and Big Biotech joined forces and together raised a staggering $46 million to prevent its passing. And we're supposed to believe they care?The controversial history of Nestle doesn't end with their consistent financial support of GMO labeling opposition efforts. It is a corporation that is wrought with wrongdoings and corrupt practices. Look no further than their outright theft of water in California.Given that the coastal state is currently being plagued by a devastating drought, you might be shocked to learn that just last year Nestle pumped a disturbing 36 million gallons of water out of one of the state's water sources, known as Strawberry Creek. Peter Gleick, president of the Pacific Institute and author of Bottled and Sold: The Story Behind Our Obsession with Bottled Water , estimates that Nestle is making millions of dollars in this way."They're converting a public resource into private profit," he told Los Angeles Magazine .The most shocking thing is that their permit to pump water from the creek expired in 1988. The forest service has allowed Nestle to gouge the creek for water at will, so long as they continue to pay a minuscule access fee. While bottled water accounts for only a small fraction of California's water use, the overall environmental impact of what their practices are doing to a drought-stricken state have yet to be examined.Nestle has been subject to countless other controversies, including human rights violations, and has been host to many environmental and product safety issues.To put it simply: Nestle may be trying to win over customers with their non-GMO products, but they don't deserve to. Monsanto may be shocked, but only because Nestle is still one of their own. Sources:</t>
   </si>
   <si>
+    <t>6424    Nestle to launch new non-GMO products ... How ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6424    Vicki Batts
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Even Republican politicians and former politicians are telling Trump to knock off such talk .But, as usual, Trump's shrewdness and defiance of standard political decorum – in which the "opposition" party merely rolls over and surrenders in the face of Democratic pressure – is winning the day.None other than billionaire investor and longtime Democratic supporter George Soros has said that the fix is literally in for the election, in favor of Clinton – no matter how much of the popular vote, and from which battleground states, Trump captures.As reported by Top Right News and other outlets, during a recent interview with Bloomberg News , Soros – a Democrat mega-donor – openly admitted that Trump will win the popular vote in a "landslide."However, he said that none of that would matter, because a President Hillary Clinton is already a "done deal."In the interview, which is now going viral, Soros says with certainty that Trump will take the popular vote, despite what the polls say now (which are completely rigged to oversample Democrats ), but not the Electoral College, which will go to Clinton.When the reporter asks if that is already a "done deal" – that Clinton will be our next president no matter what – Soros says "yes," and nods his head.Is Soros just making a prediction out of overconfidence? Or does he truly know something most of us don't know?In a recent column , Natural News founder and editor Mike Adams, the Health Ranger, says that Soros and Democrats have "bribed electoral college representatives" in a bid to "fix" the election outcome in favor of Clinton. In truth, that would be the only way it could be done, short of massive voter fraud through electronic balloting, as some reports have already claimed .Adams further pointed out that Soros was one of the main money men behind the Black Lives Matter movement, which is being blamed for generating hatred and mistrust of police officers all around the country – some of which has led to the deaths of several officers already.Soros also funds left-wing websites and groups that locate, pay and deploy volunteer "agitators" at Trump rallies, to start fights and engage in physical violence against Trump supporters (acts that the establishment media then blames on Trump ).But aren't electors legally obligated to cast a ballot for the presidential candidate who won the majority vote in that elector's district? No, they're not. Nine-nine percent of electors have done what they're supposed to do throughout our history, but this is no ordinary election Per Archives.gov , there is no constitutional provision or federal law requiring electors to vote according to the results of the popular vote. Rather, these pledges fall into two categories: State law and those who are bound by promises made to respective political parties.In the past, the U.S. Supreme Court has ruled that the Constitution doesn't require electors to be completely free to cast ballots as they please and, therefore, respective political parties may "extract pledges from electors to vote for the parties' nominees," Archives.gov notes. Some state laws hold that "faithless electors" could be subjected to fines or disqualification for casting an invalid ballot, and could then be replaced by a substitute elector."The Supreme Court has not specifically ruled on the question of whether pledges and penalties for failure to vote as pledged may be enforced under the Constitution. No Elector has ever been prosecuted for failing to vote as pledged," said Archives.gov.The site notes that throughout our history, 99 percent of electors have voted as required. But this is no ordinary time, and it's no ordinary election . And Democrats (and the establishment media) have already proven that they will do anything to stop a Trump presidency. Plus, establishment Republicans don't want Trump either, so you can bet they wouldn't balk at or challenge the buying off of electors. Sources:</t>
+  </si>
+  <si>
+    <t>6429    George Soros on tape: Trump will win popular v...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6429    J. D. Heyes
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Hospitals raise their prices despite public outcry from over-burdened patients 
 Thursday, October 27, 2016 by: Ethan A. Huff, staff writer Tags: hospital visits , rising prices , healthcare costs (NaturalNews) When word got out last year that a handful of hospitals throughout Florida were massively price-gouging their patients, experts predicted that the outrageous bills for services at these care facilities would quickly drop in response. But the exact opposite occurred, a new investigation has found, with many of these same hospitals not only charging the same ridiculous prices, but in some cases drastically more .Researchers from the University of Miami looked at hospital prices both before and after the media picked up on the issue, evaluating the billing schemes at some 50 of the priciest Florida hospitals to see how they may have changed. They looked at these hospitals' total billing charges in the quarter of a year before news of the gouging first broke headlines, as well as in the quarter post-headlines.In a five-year period spanning from 2010–2015, Bayfront Health Dade City topped the list of Florida's most expensive hospitals, with price increases nearly doubling. Following were Kendall Regional Medical Center, Heart of Florida Regional Medical Center, North Okaloosa Medical Center and Sebastian River Medical Center.All of these facilities, and many others, despite having their names tarnished for taking advantage of patients, were found to still be charging the same or even higher prices in 2016, the researchers learned. Other than a minor setback of temporarily decreased share prices, these exploitative care facilities are continuing to get away with jacking their prices , and with no end in sight."We were thinking we would see a drop or lowering of some charges," Karoline Mortensen, co-author of a study published in the Journal of Health Care Finance that looked at hospital prices both before and after the publicity, told The Washington Post (WP) . "There's nothing stopping them. They're not being held accountable to anyone." The insurance system is utterly broken, and uninsured patients are even worse off Part of the problem is that hospitals in most states can legally charge whatever they want for medical services because they know that a bulk of their patients' insurance companies will simply foot the bill. Insurance companies are responsible for negotiating rates, which they typically do on behalf of patients, so in the end prices decrease, at least to some degree.But hospital costs are still prohibitively and unnecessarily expensive in many cases – especially for patients who don't have insurance, and who thus have nobody to advocate on their behalf for fairer pricing schemes. In the end, hospitals are raking their uninsured patients over the coals, while these patients have little at their disposal to fight this medical' target='_blank'&gt;http://www.medicalchoice.news/"&gt;medical tyranny.Even government programs like Medicare and Medicaid negotiate better pricing in order to decrease costs, and yet hospitals are still overcharging them at an ever-accelerating rate. With the exception of Maryland and West Virginia, states have no regulatory functions in place to prevent such price-gouging, which is effectively ruining American healthcare.The other major factor is that among the http://www.naturalnews.com/hospitals.html&gt;ho... included in the investigation only one operates as a non-profit. The rest are for-profit companies that apparently care more about making money than they do about caring for patients while charging a fair and appropriate rate for medical services."As http://science.naturalnews.com/hospitals.htm... target="_blank"&gt;hospital charges continue to rise and the best path forward to address price transparency continues to elude policy makers and stakeholders, it is important to recognize that hospitals may not respond quickly to public exposure and these initiatives," the researchers concluded in their earlier study, which likely reflects trends all across the country."The primary causes of extremely high markups in http://www.naturalnews.com/hospital.html&gt;hos... markets are lack of price transparency and negotiating power of uninsured patients, out-of-network patients, and other disadvantaged payers." Sources for this article include: www.washingtonpost.com/news/to-your-health/w... target="_blank"&gt;WashingtonPost.com</t>
   </si>
   <si>
+    <t>6430    Hospitals raise their prices despite public ou...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6430    Ethan A. Huff, staff writer
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Vermont fights the opioid epidemic by limiting prescribed painkillers 
 Thursday, October 27, 2016 by: Daniel Barker Tags: prescriptions , opioids , Vermont (NaturalNews) Vermont Gov. Peter Shumlin is planning to combat his state's opioid problem by limiting the number of painkillers that can be prescribed.The governor's proposal is part of his strategy to address what has become a severe crisis in Vermont over the past few years.In a statement, Shumlin said:"Vermont, and the rest of America, will not get a handle on the opiate and heroin addiction crisis until we confront head-on the source of the problem: FDA-approved opiates that are handed out like candy."Vermont doctors and providers have been on the leading edge of curbing the irrational exuberance with which opiates are handed out. These proposed limits will solidify that progress and help Vermont continue to lead the nation when it comes to combating this crisis." OxyContin 'lit the match that ignited America's opiate and heroin addiction crisis' Shumlin has been outspoken regarding the opioid epidemic , and believes that the easy availability of drugs like OxyContin and other powerful opioid painkillers is the driving factor behind the problem.In this year's State of the State address, Shumlin castigated the FDA and Big Pharma over OxyContin, a drug which he said, "lit the match that ignited America's opiate and heroin addiction crisis.""Just a few months ago, the FDA approved OxyContin for kids," he said. "You can't make this stuff up. The $11 billion a year opiate industry in America knows no shame."The new guidelines are intended to limit the number of pills that can be prescribed ; after a minor procedure, only nine to 12 pills would be included in the first prescription.Without such restrictions, the amount of pills prescribed can vary widely, according to state health commissioner, Harry Chen. This can lead to addiction or the potential for overdose. Chen said that in 2015, enough opioids were prescribed in Vermont to give every man, woman and child a bottle of 100 oxycodone tablets.The proposal would also require doctors to discuss the risks of opioid use with patients, and gain informed consent before prescribing painkillers. Doctors will be expected to discuss alternatives with their patients, "requiring them to consider other treatments before opioids are prescribed, rather than as a last resort," said Chen. How Big Pharma created 2.1 million opioid addicts Waiting for the federal government to effectively tackle the opioid epidemic is a waste of time. For decades, the FDA and DEA looked the other way while Big Pharma quietly began turning a significant portion of the American public into drug addicts.Aggressive marketing by pharmaceutical companies led to the widespread use of opioids to manage long-term chronic pain – as opposed to using opioids only for acute pain or palliative purposes.Purdue – the maker of OxyContin – lied to the public, saying that the time-release properties of its drug made it less addictive than other opioids. In 2007, Purdue pleaded guilty to having misled regulators, physicians and patients, and ended up paying $634 million in fines, but the epidemic continues.Opioid prescriptions in the U.S. more than doubled between 2000 and 2014, and there are an estimated 2.1 million American opioid abusers. More than 40 Americans die each day from prescription opioids, and all the federal government does is drag its feet and make promises.In fact, the FDA seems to be trying to make opioids even more available – to children, no less!In 2015, the FDA approved the "limited" use of OxyContin for children between the ages of 11 and 16.None of this may seem too surprising when one takes into account the fact that Big Pharma spent nearly $900 million in lobbying and campaign contributions between 2006 and 2015.Until we can stop the flow of money from opioid sales into the pockets of drug-makers and politicians, we should expect the epidemic to continue unabated. Sources:</t>
   </si>
   <si>
+    <t>6434    Vermont fights the opioid epidemic by limiting...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6434    Daniel Barker
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Farm owner arrested for protesting Dakota Access Pipeline's theft of her land 
   Vicki Batts Tags: eminent domain , Dakota Access Pipeline , civil liberties (NaturalNews) There have been countless stories across the web that have documented those struggling to fight against the Dakota Access Pipeline. Native Americans, farmers, ranchers, landowners and environmental activists have joined together to oppose the pipeline and bring the project to a grinding halt.Just recently, 127 Native American activists were arrested at a construction site near the Standing Rock Sioux reservation in North Dakota. Despite the corporate media's attempts to suppress information surrounding the controversial pipeline, concerns about the Dakota Access project have become increasingly visible.However, one issue has remained in the dark: the government's abuse of eminent domain.Eminent domain is what gives the government the right to seize private, law-abiding citizens' properties for public use. Normally this means a road, a school or another public structure that will be used by the citizens of a town or which in some way serves them. However, the government can also seize private land if they can prove that it will provide some sort of "public good." This loophole – and yes, it is a loophole – has allowed our government to steal land from taxpayers for years, and then give it to a private citizen or company. Such is the case with the Dakota Access Pipeline.This pipeline is not a public project; it is being conducted by a private company that will profit off their endeavors. And yet, in spite of all the land that will be destroyed and the people whose lives will be disrupted by this project, the government has still seen fit to steal land and give it to the pipeline's creators under the guise of "public good."In Iowa, a major conflict between farmers and the government has broken out. You see, the state government is trying to take their land, and consequently, their livelihoods, to make way for the pipeline .The state's decision to hand over land owned by farmers to the Dakota Access LLC has been met with quite a lot of opposition – as it should have. Just last week, Calhoun County farmer Cyndy Coppola was arrested on her own property for protesting the government's usurpation of her own land .Apparently, they expected farmers to idly sit back and watch them steal what they worked so hard for.Cyndy Coppola's arrest has been ignored by the mainstream media, probably because it doesn't align with their narrative that Big Government knows best. An injurious move at best, her arrest highlights everything wrong with the way our government is being run.The theft of privately owned land simply cannot be ignored any longer – it is unconstitutional for the government to give a tax-paying citizen's land to a multi-billion dollar energy company so that they can make even more money. And it won't just be the oil and gas companies that profit off this disgusting display of government; dozens of big banks and investment firms will also be taking home a piece of the pie. Food and Water Watch reported in September than 17 financial institutions loaned Dakota Access LLC a whopping $2.5 billion to launch their project. They noted that banks have also given a substantial number of resources to the Energy Transfer Family of companies, such as billion-dollar credit lines and revolving credits. In total, a staggering 38 banks have given this corporation over $10 billion in loans and credits.How many of those banks do you think have ties to our government? Goldman Sachs is on the list, as are several other infamous industry names.If you think the pipeline is being constructed to better our country, you're wrong. It's being constructed to make money for a group of elitist corporations – and they plan on taking down anyone and anything that stands in their way. Sources:</t>
   </si>
   <si>
+    <t>6448    Farm owner arrested for protesting Dakota Acce...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6448    Vicki Batts
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Fast food 'combo meals' tied to kids' over-consumption of high-calorie drinks 
 Saturday, October 29, 2016 by: Isabelle Z. Tags: fast food , obesity , children (NaturalNews) Fast food chains know how to squeeze every last dollar out of their customers. From decorating their establishments with appetite-stimulating colors, to pricing their meals to encourage people to get bigger sizes, their every move is perfectly calculated to maximize profits. Unfortunately, these practices are hurting a lot more than just your wallet – they are also affecting the health of your children.A study led by researchers from the NYU Langone Medical Center found that children who ate at any of five fast food chains consumed an average of 179 more calories when their meals came with soda, juice, sweetened tea or flavored milk, when compared to those who drank unsweetened beverages with their meals.The researchers also discovered that the children consumed an average of 82 more drink calories when the drinks were part of bundled meals than when the drinks were bought separately. Moreover, parents who bought a combo meal were 24 percent more likely to buy a high-calorie drink sweetened with sugar.The study looked at almost 500 children aged 18 and younger who ate food from McDonald's, KFC, Burger King, Subway or Wendy's in New York and New Jersey between January 2013 and June 2014. Seventy-four percent of the combo meals purchased were kids' meals. Half of the drinks were sodas , and 38 percent of them were juice, with flavored milk making up 5 percent. A further 5 percent was made up of lemonade, sweetened tea and hot chocolate. Non-sugary drinks proved to be quite unpopular, with regular milk accounting for just 2 percent and water a measly 1 percent.Dr. Brian Elbel of NYU Langone, the study's senior investigator, said: "Our study strongly suggests that uncoupling sugary drinks from combo meal deals might reduce high-calorie beverage consumption and help to curb childhood obesity rates fueled by these kinds of liquid calories." Parents need to take responsibility Combo meals tend to appeal to big families, which can find their bills quickly adding up at fast food restaurants. Well-meaning parents who might not normally allow their children to drink sugary beverages sometimes find themselves giving in when the drink is included.Although the practice on the part of fast food chains of bundling unhealthy foods together to create perceived value encourage unhealthy habits, it is ultimately up to the parents to decide which meals to buy for their children. Parents have the final say, and just because that super-sized Coke comes with your child's meal does not mean that you should let them drink it. Fast track to diabetes Fast food meals are already high in calories, which means that the last thing you should be doing is pairing them with high-calorie beverages. Research published in the journal Diabetes Care showed that drinking even just one sugary beverage each day raised a person's risk of developing type 2 diabetes by as much as 25 percent. It also upped the risk of developing metabolic syndrome by 20 percent.With around 17 percent of our nation's youth believed to be obese, there is an urgent need for poor eating habits to be curbed. Until people start giving up the convenience of the local drive-through and start making a concerted effort to feed their children clean food , the situation is only likely to get worse, and more and more children will end up obese or diabetic.So, the next time you're thinking of ordering that combo meal, keep in mind that any money that you might save on a meal deal is likely to end up costing far more in medical bills down the road. Sources include:</t>
   </si>
   <si>
+    <t>6468    Fast food 'combo meals' tied to kids' over-con...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6468    Isabelle Z.
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Zika: a masterpiece of public mind control 
 Saturday, October 29, 2016 by: Natural News Editors Tags: Zika , mind control , propaganda (NaturalNews) It's been nearly nine months since the word "Zika" flashed like a lightning bolt in the headlines of mainstream news. Before January 1, 2016, Zika was just one of many viruses that public health officials monitored. But suddenly in January of this year everything changed, as a nearly harmless virus was transformed into a worldwide threat.(Article by John P. Thomas, republished from HealthImpactNews.com )As we will see, the Zika propaganda machine was turned on in October of 2015 and it has been running wild ever since. This is a classic example of a mind control program, a public brainwashing project, or a high powered marketing campaign.Regardless of what you call it, it is clear that the mainstream news media, the World Health Organization (WHO), the Pan American Health Organization (PAHO), the US Centers for Disease Control and Prevention (CDC), Big Pharma, Big Chem, and both Republicans and Democrats have joined forces to sell a Zika eradication program to the people of the United States and to the rest of the world.This has been and continues to be one of the best orchestrated programs of propaganda in recent history. This article will discuss how the program started, how it has been developed, and where it is going. Zika is not a Threat to the Babies of the World Just to be absolutely clear from the beginning, there is no solid evidence that Zika is a threat to humanity. It is a minimally dangerous viral infection, which does not cause microcephaly.In the almost 70 years since the Zika virus was patented by the Rockefeller Foundation, [1] no one ever noticed any association between Zika infection of pregnant women and their babies being born with abnormally small heads or with defects in brain development. But in 2015, we were suddenly made aware of this supposed problem. This claim, based on nothing more than circumstantial evidence, was the beginning point for the propaganda campaign. A propaganda claim doesn't need to be true; it just needs to be repeated over and over again until people believe it is true.After half a year of fear and hysteria in the mainstream media, even officials in Brazil admit that Zika is an unlikely cause of their microcephaly .As reported in Nature News &amp; Comment on July 23, 2016, an official from Brazil's ministry of health raises doubts to suggest Zika is not the only factor in the reported microcephaly surge in his country. The report stated: Zika virus has spread throughout Brazil, but extremely high rates of microcephaly have been reported only in the country's northeast. Although evidence suggests that Zika can cause microcephaly, the clustering pattern hints that other environmental, socio-economic or biological factors could be at play. "We suspect that something more than Zika virus is causing the high intensity and severity of cases," says Fatima Marinho, director of information and health analysis at Brazil's ministry of health. If that turns out to be true, it could change researchers' assessment of the risk that Zika poses to pregnant women and their children. [2] Despite this admission from Brazil, the Zika propaganda campaign is moving ahead without interruption. The campaign will not be stopped by contrary evidence about Zika and microcephaly. Zika is a Mild Viral Infection Most people who get Zika, will be completely unaware of being infected. For those who do get sick, it is similar in many ways to having a cold or a mild case of the flu. People experience fever, rash, joint pain, and conjunctivitis. The illness is usually mild with symptoms lasting from several days to a week. Infection is thought to provide lifelong immunity. Severe disease requiring hospitalization is uncommon. Deaths are rare. [3]The fact that almost no one dies from Zika infection made it a very unlikely candidate for the development of a vaccine. For those who actually feel sick from a Zika infection, they can receive comfort care and rest while their immune systems overcome the viral illness. Zika Press Releases Set the Stage for a Propaganda Campaign However, if Zika could be connected to some other horrible consequence, such as microcephaly or paralysis (Guillain-Barre syndrome) for example, then people would insist that we create a Zika vaccine and would insist that every person on planet Earth take it. They would be willing to give up basic individual freedoms for the benefit of society, which is always the goal of mind control programs.In 2015, a number of press releases and reports were released by the Pan American Health Organization / World Health Organization (PAHO/WHO) and the CDC, to set the stage for the unfolding of a grand mind control project.The documents they published raised the red flag of alarm that a Zika epidemic was unfolding throughout South America and Mexico. The conventional media got excited about the epidemic when they saw the word "microcephaly." The prospect of large numbers of babies being born with abnormally small heads and brains was a story that would really grab the attention of their audience.The media used pictures of deformed babies to build fear in the hearts of people and to create the perception that we better watch out or Zika is going to get us and our babies! They worked really hard to instill public panic about Zika in January and February of 2016 .In the timeline that follows, you will see the word "autochthonous." Public Health agencies use the word autochthonous to say that an infection was locally generated. An autochthonous case of Zika is one that was acquired in the local area where a person lives. This is in contrast with a Zika infection that was acquired while visiting another region or country.I will list a few of the key points from some press releases to show how a foundation for the Zika campaign was built and how momentum was established to project the campaign into mainstream media. May 2015: Brazil confirms first autochthonous cases of Zika. [4] October 2015: Columbia confirms first autochthonous cases of Zika. [5] October 2015: Brazil reports unusually high number of babies with microcephaly. [6] November 2015: El Salvador, Guatemala, Mexico, Paraguay, Suriname, and Venezuela report autochthonous Zika infection. [7] November 17, 2015: WHO calls upon member states to watch for the occurrence of microcephaly. [8] December 1, 2015: PAHO/WHO issued the first of dozens of reports, which chronicled the history of the growing Zika epidemic and warned of microcephaly. [9, 10] December 21, 2015: WHO reports autochthonous Zika infections in Honduras. [11] December 22, 2015: WHO reports autochthonous Zika infections in Panama. [12] December 31, 2015: US CDC reports autochthonous Zika infections in Puerto Rico, and makes note of microcephaly in Brazil. [13] Counting Babies with Microcephaly The mainstream media suddenly picked up on the Zika/microcephaly story in January of 2016 and began sensationalizing it. General concern was quickly transformed into alarm as officials in Brazil reported a steady increase in the number of microcephaly cases. As of January 30, 2016, they reported 4,783 cases of microcephaly and/or Central Nervous System (CNS) malformation suggestive of congenital infection. They compared this with 2001 — 2014 data where there was an average of 163 microcephaly cases. [14]The Brazil data about the babies was poor. We didn't know their definition of microcephaly. We didn't know how many of the mothers actually tested positive for Zika. We didn't know how the data was collected. We also didn't know why there was a strong level of insistence that the only thing that could cause these birth defects was infection with the Zika virus. Propaganda campaigns always dismissed other viewpoints other than the one being promoted. They don't want an investigation of truth or a debate about the facts – they just want belief and submission. The US Propaganda Machine Goes Public in January 2016 CDC officials begin to ponder the situation. First they say there might be an association between Zika and microcephaly, but they are far from asserting any kind of causative relationship. [15]"Good for them," I thought when I heard that report. But their apparent wisdom took a nosedive a minute later when the same CDC official went on to issue a travel warning to women to avoid traveling to Brazil and other South American countries if they are pregnant, think they might be pregnant or are thinking of becoming pregnant in the next couple years."What did the CDC just say?" There is no evidence of causation, and we don't even know there is even a problem, but women should stay home any way. "Strange," I thought as I began to remember how the conventional media, the CDC, and the WHO hyped up the African Ebola epidemic in a similar kind of propaganda campaign just 18 months earlier. The worldwide threat of Ebola Zaire completely died out long before a vaccine could be developed, which must have been a major disappointment to Big Pharma.But this time, they have a virus that is not going to die out. This time their propaganda campaign will be much more sophisticated, and it will make major steps toward the acceptance of universal mandatory vaccination for diseases such as Zika. A False International Crisis Involving Deformed Babies Justifies Action All through January and early February of 2016, the news media provided us with a non-stop litany of stories about Zika and deformed babies. In a previous article I examined some of the headlines in the propaganda campaign.The CDC was still using the word "possible association," while the news media insisted on using the word "cause." Despite the initial reserve of the CDC, the news media began to shout the message across America, "Zika is going to deform the heads of our babies while they are in the womb, and there's no vaccine to protect us!"It seems like every Zika story I saw included at least one photo of a baby with microcephaly and always stated that there is no vaccine yet. We were reminded over and over again that Zika is causing babies to be born with abnormally small heads, mental retardation, and blindness. We were warned that some babies were dying at birth because of the severity of their brain deformation. We were told that each baby born with microcephaly will cost ten million dollars or more in medical expenses during the child's life. [16] These stories created ever increasing levels of apprehension and fear as they were intended to do.As the mainstream media struggled to keep the fear level high and keep the story line flowing from week to week, they began to focus in on government efforts to save us from Zika. It didn't take long for them to find people to interview who would ask the question they wanted asked. "What is the Government Going to Do to Protect Our Babies?" This question was asked over and over again even though there was no proof that Zika infection and microcephaly were related. The question was asked so many times by the media that no politician could dare to say, "I am not going to do anything, because as far as we know Zika doesn't cause microcephaly." President Obama Responds to the Question On February 22, 2016, President Obama requested 1.9 billion dollars to study the situation and to develop a Zika vaccine. [17]Let's look at this more carefully. We are going to spend 1.9 billion dollars to develop a vaccine for a virus that almost never kills anyone and has not been proven to cause birth defects — just to be safe. Or is something else going on here?Perhaps the real story is that Big Pharma wants another cash cow vaccine and the Zika threat has been promoted in such a way that people will insist that Big Pharma develop a Zika vaccine for us. Suddenly, Big Pharma companies will be able to put on their white hats and rescue all the babies of the world. This would be such sweet deception if they could pull it off. CDC Declaration: Zika Causes Microcephaly The CDC announced in April of 2016 that Zika causes microcephaly. [18]This decision was based on a CDC analysis of available data. They did not conduct comprehensive research. They used a quacking duck kind of analysis. If it quacks like a duck and walks like a duck then it must be a duck. They couldn't tell if it had feathers like a duck or has a bill like a duck, but they still insisted on calling it a duck named Zika. In doing this, they ignored some of the most important criteria in their analysis.CDC researchers stated: The seventh [of Shepard's] criterion, proof in an experimental system that the agent acts in an unaltered state, is aimed at medications or chemical exposures and does not apply to infectious agents. Thus, given Shepard's criteria as a framework, criteria 1, 3, and 4 have been satisfied — evidence that is considered sufficient to identify an agent as a teratogen. [19] In other words, they used a set of seven criteria to determine whether Zika could be considered to be a cause of microcephaly. They determined that the association between Zika infection and microcephaly was causative for 3 of the 7 criteria. They suggested that additional study was needed before 3 of the other criteria could be met. They excluded the seventh criteria altogether, because it examined whether medications or chemicals might have caused microcephaly.I couldn't believe that they excluded the seventh criteria when it is clear that microcephaly is known to be caused by pesticide exposure, and could just as easily be caused by vaccinations during pregnancy as it was likely to be caused by Zika infection.These CDC scientists were only looking for causation from infectious agents. Nothing else seemed to matter. This exclusionary mindset was present since the very beginning of the Zika propaganda campaign.They ignored the effect of the Tdap vaccine given to pregnant women in Brazil in 2015. They ignored the side effects of medications. They ignored the consumption of GMO food, glyphosate, and Pyriproxyfen that were widely used in Brazil. They ignored chemical exposure from Brazil's large chemical manufacturing facilities. They ignored alcohol and drug use. They ignored the effects of extreme multi-generational nutritional deficiencies and extreme poverty. They ignored the introduction of genetically modified mosquitoes that were released in Brazil. They ignored exposure to rubella, toxoplasmosis, or cytomegalovirus. They ignored the combined effects of all these factors as well as multigenerational modifications to the local gene pool from these potential causes.I discussed these potential causes of microcephaly in my first article on Zika, published in January of 2016.There is one key point that I want to bring forward from the previous article concerning the number of babies born with microcephaly. First we heard that there were some 4,783 cases of microcephaly in Brazil. After the initial shock and panic was produced, we learned that further investigation showed that the number of confirmed cases was only 483.The mainstream media also didn't mention that the number of babies born in the United States with microcephaly in a typical year is 25,000. When adjusting for population differences between the US and Brazil, we find that the rate of microcephaly in the US is actually 40 times higher than the rate in Brazil.In other words, the US microcephaly incidence is much higher than Brazil, and our babies didn't get it from Zika. Maybe our babies got it from the various potential causes I discussed in my previous article.I should also state that the researchers who put their names on this article are all employees of the CDC. [20] I must question whether their analysis was truly objective and whether their findings were influenced by CDC ties to Big Pharma. The Zika Vaccine is in the Pipeline Based on this single poor quality analysis, it's full speed ahead for developing a Zika vaccine. There are at least four companies plus the CDC working on a Zika vaccine. We are told that it will still take several years before a Zika vaccine can be properly tested and made available in large quantities for the population of the world.Zika vaccine trials have already begun and they are already recruiting volunteers in the US. The US National Institutes of Health hopes to start phase II trials of its vaccine in early 2017. [22] Congress Tries to Protect Our Babies with Zika Funding Now that the CDC has settled the Zika-microcephaly question, it was time to get congress to fund the President's request for a Zika vaccine development program. The House and the Senate passed Zika funding bills. However, they have different ideas of how much money should be spent and how the funds should be generated. The funding process stalled at the end of June when the Senate and House could not reconcile their differences. [23]Congress went on a seven week summer vacation, and wasn't available to try to resolve their differences. This created a problem for the Zika mind control campaign, because it might mean there would be no new Zika news to report during the summer. Keeping the Propaganda Campaign Going by Killing Mosquitoes The mainstream media switched their focus from vaccine development to eradication of the Aedes aegypti mosquito, which is known to carry the Zika virus. If an infected mosquito bites a person, then the person might develop the infection. This is a fact that no one is disputing. The Great Mosquito Chase of 2016 The CDC continues to count the number of Zika cases in the US and Puerto Rico. The numbers continue to rise through the spring and early summer. They were looking for autochthonous cases of Zika in the US, but they could only find infected people who had traveled to Zika infected countries or who had sex with people who traveled to those countries.Finally, at the very end of July, 4 people in the Wynnewood section of Miami, Florida, were found to have Zika even though they had not traveled to a Zika infected country or had sex with a Zika infected person. [24]Public health officials at the state and federal level interpreted the presence of these cases to mean that Zika must have been transmitted to these people by mosquito bites. They ignored the possibility that the infected people might have been lying about their exposure, for example, having sexual contact with an infected person. Nevertheless, officials concluded that they must implement a strong mosquito control program to prevent Zika from spreading any further.Now that the Zika epidemic was on US home soil; the media had another fear inducing story to add to their propaganda campaign. "There are mosquitoes that are out to get you and our babies!" The Governor of Florida Goes Door to Door to Find more People with Zika On August 1st, the governor of Florida contacted the US public health system and asked them to send a specially trained squad of federal public health agents to help with the Zika emergency in Miami. These agents and Florida officials went door to door in the Wynwood neighborhood of Miami and collected urine samples to identify additional cases of Zika.10 more cases were found, but all were asymptomatic – the people didn't even know they were infected. [25] Problem — They can't find a Zika Infected Mosquito 5,000 mosquitoes were tested for the presence of Zika, but all tests were negative. [26]Officials dismiss the negative infection results by saying that finding a Zika infected mosquito is like finding a needle in a haystack. [27] Aerial Mosquito Spraying Program Initiated The governor of Florida in conjunction with federal public health agents decided that they needed to do aerial spraying of pesticide. Even though the Aedes aegypti mosquito wouldn't travel more than 300 feet from its birth place in the Wynwood neighborhood where the autochthonous Zika cases were located, the officials decided to spray a ten square mile area just to be safe. [28]A spraying program that covers ten square miles would make a sensational story in the media. It would be much more alarming than a story about a neighborhood aerial spray zone. It also would expose many more people to a toxic pesticide (more about that later).The first aerial spraying took place on August 4, 2016. [29] Toxic Pesticide Used in Aerial Spraying Causes Microcephaly Officials told the public not to worry about the pesticide that was being sprayed, because it (naled) is harmless. They pointed to EPA reports, which supported their claim. [30]They didn't mention that naled was banned in Europe in 2005. They didn't mention that officials in Puerto Rico recently refused to allow the spraying of naled over their citizens. They didn't mention that naled kills many other types of insects and aquatic creatures in addition to mosquitoes. [31] Most importantly, official didn't mention that naled and the chemicals that are created when it breaks down in the environment have the potential for causing human birth defects. [32] Could Pesticide Naled Cause Microcephaly and other Life Threatening Diseases? Officials didn't mention that the pesticide that they were spraying over the densely populated minority neighborhood of Wynwood [33] was particularly dangerous for babies in the womb.This is what the JOURNAL OF PESTICIDE REFORM has to say about naled: Like all organophosphates, naled [Dibrom] is toxic to the nervous system. Symptoms of exposure include headaches, nausea, and diarrhea. Naled is more toxic when exposure occurs by breathing contaminated air than through other kinds of exposure. In laboratory tests, naled exposure caused increased aggressiveness and a deterioration of memory and learning. Naled's breakdown product dichlorvos (another organophosphate insecticide) interferes with prenatal brain development. In laboratory animals, exposure for just 3 days during pregnancy when the brain is growing quickly reduced brain size 15 percent. Dichlorvos also causes cancer, according to the International Agency for Research on Carcinogens. In laboratory tests, it caused leukemia and pancreatic cancer. Two independent studies have shown that children exposed to household "no-pest" strips containing dichlorvos have a higher incidence of brain cancer than unexposed children. [34] [Emphasis added] Naled exposure causes increased aggressiveness and a deterioration of memory and learning. These are some of the symptoms that are also found in children on the autism spectrum.One of the most toxic break down products in Naled is Dichlorvos. This chemical caused a 15% reduction in brain size in pregnant lab animals after 3 days of exposure. Another word for reduced brain size is microcephaly.So, the pesticide they are spraying could increase the rate of autism among children in the spray zone, and could cause microcephaly to occur in the babies of pregnant women.Question: If there are babies born in Miami with microcephaly in the next nine months or if the autism rate in the spray zone increases, will we blame Zika or Naled? I am sure that no one from the CDC or from a public health agency will ever point a finger at Naled. They will use the children to prove beyond a shadow of a doubt that Zika is to blame. Naled is also Harmful to Adults Dr. Naresh Kumar, a Professor of Public Health at the University of Miami, commented about the risks of using pesticides in aerial spraying. His statement came from CBS Miami: "All are a neurotoxin, meaning it will directly affect our nervous system." "It will affect not only the pregnant woman ... it is also equally for children who have asthma and airway disease because when you are spraying in the air, these aerosols stay in the air for at least five days." [35] The Miami Herald provided this advice to people in the pesticide spray zone. They stated: The agency [EPA] says the insecticide poses no risk for the majority of people, but those sensitive to chemicals may want to stay inside during spraying, close windows and turn off window air conditioners. Fruits and vegetables should also be washed before eating and outdoor furniture and grills covered. [36] So, if you are concerned about being exposed to the chemicals they are spraying, then you should stay inside for 5 days until the pesticide falls out of the air. You should keep your windows closed, and turn off window air conditioners. I wonder how many people were able to follow this advice in the subtropical urban climate of Miami in August.Mind control programs always try to make life difficult for those who live outside the box of normality. They want us to follow their instructions, which in this case would be to just not worry about the spraying. If you are concerned, then you can take their ridiculous suggestions, which won't really protect you from the spray. Does Zika also Cause Guillain-Barre Syndrome? Apparently the CDC suspects that Zika causes the paralytic syndrome called Guillain-Barre. If you look at the data collection forms for monitoring Zika in the US you will see another masterful stroke of mind control in the making. They are counting cases of Guillain-Barre Syndrome on the same form with cases of Zika. [37]Why would the CDC try to make this connection? The CDC indicates on their Guillain-Barre Syndrome page that they are not sure what causes this syndrome. They do mention that there were some cases of Guillain-Barre Syndrome associated with the swine flu vaccine in 1976, but otherwise the condition is rare with unknown etiology. [38]If they can make a case for the Zika virus being the cause of Guillain-Barre Syndrome, then they will shift attention away from the fact that many vaccines and pesticides have a harmful effect on the human nervous system and are able to produce this type of paralysis.I anticipate seeing a Guillain-Barre Syndrome research paper just like the one produced by the CDC on microcephaly. Their new paper will just substitute the phrase "Guillain-Barre Syndrome," for the word "microcephaly." They will show through statistical smoke and mirrors that the Zika virus is causative for Guillain-Barre Syndrome as well as microcephaly.If they can pull this off, then the Zika virus will be blamed for all cases of vaccine damage in which microcephaly or paralysis results. If they can pull this off, and I suspect they will, then pesticide manufacturers will also be able to blame the Zika virus for microcephaly, neurological malformation, and paralysis that results from the use of their products. The Zika virus will be the perfect scapegoat. The List of Birth Defects Being Blamed on Zika with No Evidence is Increasing Propaganda campaigns always seek to worsen the devastating effects of whatever they want us to fear. First we heard that Zika causes microcephaly. Then we heard that it might also cause Guillain-Barre Syndrome. Now we are hearing that Zika causes a whole host of other birth defects, some of which might not appear until months or even years after birth.The New York Times stated: The images [of babies with microcephaly], published Tuesday in the journal Radiology, also suggest a grim possibility: Because some of the damage was seen in brain areas that continue to develop after birth, it may be that babies born without obvious impairment will experience problems as they grow. Images of another baby girl show contracted hands and arms, the result of another common symptom. Zika seems to damage the nerves in a developing fetus so that sometimes "muscles aren't developing normally because they don't have the nerve impulses to move normally," she [Dr. Levine] said. With such a vicious and unpredictable virus, "it's key to realize that Zika is more than microcephaly, that there's a number of other abnormalities as they've shown in this paper, and its effects are going to be even more broad," said Dr. Spong, whose agency has begun a study of what will ultimately be 10,000 babies born in Zika epidemic areas including Brazil and Puerto Rico. "It's going to be essential to follow them to look at their development, to look at their ability to learn, to look at hearing problems, balance problems, behavior problems, all those issues, to make sure that we don't miss anyone." [39] Zika: The New Scapegoat for All Childhood Diseases? Can you tell where this is going? It seems to me that they are planning to put together a catalog of major injuries that results from Zika infection.It will include most if not all injuries that result from vaccines, pesticides, GMO food, pharmaceutical drugs, the high-carbohydrate low-fat standard American diet, and anything else that might lead to a successful lawsuit against Big Pharma or Big Chem. Zika might just become the standard defense for suit against corporations. "It wasn't our product that harmed this little baby, it was Zika!" Conclusion: Another Government Tool for "The Greater Good" to Strip Away Freedoms? It won't be long before the mainstream media will be showing us pictures of US babies from Florida who were born with microcephaly. The mainstream media will tug at our heartstrings and will remind us that this horror will soon become preventable when the Zika vaccine is developed.We will hear about more and more connections between Zika and other terrible health conditions experienced by children. We will be told that all this suffering and all this expense will be avoided when all the mosquitoes are killed and everyone receives the Zika vaccine.Mind control programs always talk about the greater good and how individuals must give up their individual freedoms, their rights, and even their preferences for the sake of the collective benefit. Zika will be one of the tools used by mind controllers and the ruling elite to move us toward mass vaccination and total government control over our lives.Read more at: HealthImpactNews.com [1] "Zika Virus is property of Rockefeller Foundation," Feb 7, 2016 Anonews.co [2] "Brazil asks whether Zika acts alone to cause birth defects" July 25, 2016 Nature.com [3] "First case of Zika virus reported in Puerto Rico" Dec 31, 2015 CDC.gov [4] "Epidemiological Alert – Neurological syndrome, congenital malformations, and Zika virus infection – Implications for Public Health in the Americas" Dec 1, 2015 Paho.org [5] IBID.[7] IBID.[8] "Epidemiological Alert Increase of microcephaly in the northeast of Brazil" Nov 17, 2015 Paho.org [9] "Epidemiological Alert – Neurological syndrome, congenital malformations, and Zika virus infection – Implications for Public Health in the Americas" Dec 1, 2015 Paho.org [10] "Archive by Disease – Zika virus infection" Paho.org [11] "Zika virus infection – Honduras" Dec 21, 2015 Who.int [12] "Zika virus infection – Panama" Dec 22, 2015 Who.int [13] "First case of Zika virus reported in Puerto Rico" Dec 31, 2015 CDC.gov [14] "PAHO WHO Reported increase of congenital microcephaly and other central nervous system symptoms" February 10, 2016 Paho.org [15] "Why is Zika virus spreading so quickly?" Jan 28, 2016 Youtube.com [16] "Zika virus: Miami outbreak sparks concern, demand for tests among pregnant women" Aug 3, 2016 Miamiherald.com [17] "Letter From The President — Zika Virus" Feb 22, 2016 WhiteHouse.gov [18] "Zika Virus Causes Birth Defects, Health Officials Confirm" April 13, 2016 NyTimes.com [19] "Zika Virus and Birth Defects — Reviewing the Evidence for Causality" May 19,2016 Nejm.org [20] "So What Became of the $1.9 Billion for Zika?" Aug 17, 2016 TheVaccineReaction.org [22] "NIH kicks off Phi trial for Zika vax as caseload rises in U.S" Aug 3, 2016 FiercePharma.com [23] "Zika Deal In Congress Likely To Be Delayed Until After Recess" June 23, 2016 NyTimes.com [24] "Florida health officials confirm local Zika transmission" July 29, 2016 CNN.com [25] "Gov. Scott: Florida Calls on CDC to Activate Emergency Response Team Following Confirmed Mosquito-Borne Transmissions" Aug 1, 2016 FlGov.com [26] "Florida's Mosquito Control Forces Mobilize Against Zika Threat" May 2016 KHN.org [27] "Florida confirms it is first state with locally transmitted Zika" July 29, 2016 StatNews.com [28] Zika Virus: Miami-Dade County plans to spray naled in Wynwood Aug 11, 2016 MiamiHerald.com [29] "Spraying Begins in Miami to Combat the Zika Virus" Aug 4, 2016 NyTimes.com [30] "Naled for Mosquito Control" Aug 15, 2016 EPA.gov [31] "Friday flight planned to spray for Zika mosquitoes" Aug 11, 2016 MiamiHerald.com [32] "Florida to Spray Residents Like Bugs over Zika — with a Chemical that Ironically Reduces Fetal Brain Size in Studies" Aug 3, 2016 ActivistPost.com [33] "Free 33127 ZIP Code Map, Statistics, and More for Miami, FL" UnitedStatesZipCodes.org [34] "Alternatives to Pesticides factsheet on Naled</t>
   </si>
   <si>
+    <t>6469    Zika: a masterpiece of public mind control
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6469    Natural News Editors
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Superbugs: Big Pharma to blame for coming death of 700,000 people annually 
 Sunday, October 30, 2016 by: Ethan A. Huff, staff writer Tags: superbugs , antibiotics abuse , Big Pharma (NaturalNews) As new guidelines set forth by the U.S. Food and Drug Administration (FDA) to curb antibiotic overuse and abuse on factory farms slowly come into effect, the drug industry is apparently setting its greedy sights elsewhere – towards countries where restrictions on antibiotic use are looser, or simply where "anything goes."Livestock are the single biggest consumers of antibiotic drugs in the U.S. – not by choice, of course, but because farmers have long been sold a bill of goods by Big Pharma when it comes to using them to bulk up their cattle more quickly and get them to market as fast as possible. It's a common practice that generates a lot of money in the short-term, but a whole lot of problems in the long-term.The use of antibiotics on farms is arguably the biggest contributor to antibiotic resistance among humans, where drugs that used to treat deadly bugs no longer do. The result is the emergence of so-called "superbugs" that are capable of outsmarting even the most potent antibiotics, a phenomenon that's killing people by the hundreds of thousands.Some of the latest reports indicate that the superbug epidemic is claiming the lives of some 700,000 people annually all around the world. And if nothing is done now to stop the drug industry from continuing to poison the well, so to speak, then this number is expected to balloon more than 14-fold to 10 million lives lost by the year 2050.According to the World Health Organization (WHO), there are very few countries in the world with any sort of formidable plan in place to address antibiotic resistance. Even with the U.S. somewhat taking the lead with voluntary FDA suggestions on the matter, none of this will stop drug companies from preying on the developing world that has yet to enact any sort of restrictions on antibiotic use."They're international companies," Gail Hansen, a veterinarian and consultant who works with drug companies, governments and nonprofit organizations, told Bloomberg . "What happens in the U.S. does certainly make a difference, but it's not the only market they have." Antibiotic resistance kills 10 times more people than opiate overdoses While it's become common practice for factory animal rearers to exploit antibiotics as a way to fatten their stocks more quickly and supposedly keep them healthy, the use of these drugs for such purposes is disastrous for public health. Comparatively speaking, only 69,000 people die from opiate overdoses globally, which translates to 10 times more people dying from superbugs than from the most deadly pharmaceuticals on the market.Antibiotics are also overused in the realm of human medicine, with some one-third of all prescriptions, according to the U.S. Centers for Disease Control and Prevention (CDC) and the Pew Charitable Trusts, being completely unnecessary. This translates to roughly 47 million prescriptions that aren't even helpful, either because the patients have a viral infection, or don't have an infection at all.The only way anything is going to change is if Big Pharma is barred from selling antibiotics to farmers whose only desire is to rush their animals to market for maximum profits. Doctors must also be reigned in and stopped from indiscriminately handing out antibiotics whenever their patients feel any kind of ailment – and again, these measures must have a global reach."If some of the biggest responsible parties – namely the companies making the products – are still selling the antibiotics in other countries, it just underscores that this has to be a change that happens across the entire world," David Wallinga, a senior health official and physician at the Natural Resources Defense Council (NRDC), told Bloomberg ."And the companies bear a big responsibility for that approach." Sources for this article include:</t>
   </si>
   <si>
+    <t>6472    Superbugs: Big Pharma to blame for coming deat...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6472    Ethan A. Huff, staff writer
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Leaked email shows Monsanto Executive V.P. invited to 'Hillraiser' fundraiser to put Clinton into the White House for Monsanto's benefit 
   Monsanto , Hillary Clinton fundraiser , Charles Burson (NaturalNews) Wikileaks email 28657, part of the John Podesta email leaks, reveals that the Hillary Clinton campaign sought money from a top Monsanto executive to put her into the White House. See the email here .Hillary Clinton, known as the Bride of Frankenfood , is a longtime supporter of Monsanto, a corporation whose deceptive tactics of collusion, intimidation and bullying are a perfect fit for the Clinton regime, which even a former FBI official now describes as a criminal operation .The Monsanto operative invited to the fundraiser was none other than Charles W. Burson, Monsanto's former Executive V.P., Secretary and General Counsel. Burson, who retired from Monsanto in 2006 but still maintained an active Monsanto.com email address all the way through 2015, was praised by Monsanto CEO Hugh Grant for pushing the corporation's international imperialism agenda to force patented seeds down the throats of poor farmers in developing nations. It's sickening. Via PR Newswire : "On behalf of the Monsanto Board of Directors and the employees of Monsanto, I thank Charles for his service to our company," said Hugh Grant, Chairman, President and Chief Executive Officer of Monsanto. "During his tenure, Monsanto successfully transitioned from an agricultural company fueled by its chemistry business to one led by its seeds and traits businesses. Charles has played an important role in building the company's legal organization to better serve our growing business, not only in the United States but also in Latin America and Asia-Pacific, where farmers are increasingly choosing to plant Monsanto seeds and technologies. Clinton fundraiser sought money from one of the most evil corporations in the history of humankind In other words, Charles Burson was instrumental in Monsanto suing farmers whose fields were contaminated by genetically modified Monsanto seeds . This legal action by Monsanto is globally considered to be one of the most evil, anti-human rights abuses of legal power ever witnessed in the modern world, yet the Hillary Clinton campaign saw this man as an opportunity to raise more money to put Hillary Clinton into the White House (where, no doubt, she would return the favor to Monsanto through government policy decisions at the USDA and FDA).Fully consistent with the criminal conduct of the Clinton crime mafia, Charles Burson also took part in excusing Monsanto's illegal bribery of over 140 Indonesian officials as part of its international agricultural imperialism march against subsistence farmers.After caught committing massive bribery and collusion in Indonesia, Monsanto's then general counsel Charles Burson explained that no, Monsanto isn't a bad company. They're super honest, and transparent and ethical, too!"The company has taken remedial actions to address the activities in Indonesia. At every stage of this process -- beginning with our voluntary disclosure and throughout the governmental investigations and settlement process -- Monsanto has been fully cooperative, and has made clear that improper activities will not be tolerated by the company. We are pleased today to begin the process of putting these matters to rest," wrote Burson. Surprise! The Justice Department then "defers prosecution" of Monsanto and forgets these crimes ever happened... Whaddaya know! With the corrupt, lawless Justice Department calling the shots, Monsanto was then given a get out of jail free card by the political elite in Washington.From the same link above: The Justice Department said it had agreed to defer prosecution on the criminal information for three years, saying it would dismiss it after the period if Monsanto fully complied with the terms of the agreement. So, wait. You mean to tell me that a corporation which got caught bribing 140 foreign officials in Indonesia -- a felony crime under U.S. law -- was able to get away with it by claiming they will be honest from now on? And the Justice Department says oh yes, you're fine now, there will be no prosecution for your serious crimes? And then the Clinton fundraiser people specifically reach out to the Monsanto attorney who orchestrated all this and said, "Hey, this guy would be awesome to help support a Clinton presidency?"Yep.That's Hillary Clinton in a nutshell: Hopelessly corrupt... criminally involved... collusion at every level and the total abandonment of human rights and human dignity. This woman shouldn't be behind a desk at the Oval Office... she should be behind bars! Oh, and it case you're curious, here are all the other emails that were cc'd in that same Hillary Clinton fundraiser message . Check out some of the names. Do you now see how deep the Clinton corruption really is?From:ldavis@lannyjdavis.comTo: aegis1865@gmail.com, agoldberg@tridentpllc.com, teaguelr@aol.com, Alan.Kreczko@thehartford.com, amy@weisspublicaffairs.com, annedwards@gmail.com barry_toiv@aau.edu, benjaminmaxwelladams@gmail.com, bethnolan@gmail.com, blindsey@wlj.com, bobjnash@sbcglobal.net, bdsmith@cov.com, mimbroscio@cov.com, bwnussbaum@wlrk.com, c_moscatelli@yahoo.com, cadavis8@gmail.com, charles.w.burson@monsanto.com, cheryl.mills@gmail.com, ches.johnson@gmail.com, christopherlehane@sbcglobal.net, cliffmauton@hotmail.com, dnionakis@gmail.com, davidfein@icloud.com, dmchirwa@live.com, debbzerwitz@gmail.com, ddoufekias@mofo.com, dkendall@wc.com, don@bluetext.com, donna.peel@comcast.net, dsosnik@nba.com, Doug.band@technoholdings.com, dpeel@rddlaw.net, efhughes4@yahoo.com, eangel@legalaiddc.org, Erskine@2Bowles.com, ericgioia@gmail.com, ecomite@scott-scott.com, fitztoiv@yahoo.com, gterzano@hotmail.com, dcanter434@aol.com, Goodstein8@aol.com, gradymccoy@yahoo.com, wgreggburgess@gmail.com, hickes@ickesenright.com, ira.fishman@nflplayers.com, iraij@foley.com, jjohnson@gloverpark.com, jkagan@supremecourt.gov, jkennedy2006@gmail.com, jlockhart@jplgrp.com, jquinn@quinngillespie.com, jakesiewert@gmail.com, jamie.baker@armfor.uscourts.gov, Jane.Sherburne@BNYMellon.com, jennifer.m.palmieri@gmail.com, jeremymgaines@gmail.com, jklein@newscorp.com, jlwitt@wittassociates.com, john.podesta@gmail.com, Jonathan.Yarowsky@wilmerhale.com, joshua.king@thehartford.com, josh@personal.com, juliampayne24@gmail.com, juliemziemba@gmail.com, karen_kucik@yahoo.com, KARacine@venable.com, kathiwhalen@comcast.net, kathyruemmler@gmail.com, kearney_j@sbcglobal.net, kengskov@starbucks.com, kpopp@sidley.com, kumiki.gibson@gmail.com, lbreuer@cov.com, lbrown@georgetown.edu, lisa.krim@georgetown.edu, lizdave@me.com, loriwier@comcast.net, lorriemchugh@comcast.com, moconnor@wc.com, mmelendez@lannyjdavis.com, margaretwhillock@sbcglobal.net, marnacooks@gmail.com, marsha@scottyandura.com, marvin.krislov@oberlin.edu, marystreett@hotmail.com, maryellen_glynn@yahoo.com, marymfrench@sbcglobal.net, Mary_B._DeRosa@nsc.eop.gov, maura.pally@gmail.com, Mdf@markfabiani.com, melissaprober@gmail.com, mecabe@verizon.net, michelle_aronowitz@hotmail.com, mmccurry@psw-inc.com, nadjanaomi@me.com, neal.wolin@gmail.com, claire_e_mccombs@who.eop.gov, ernewman@alumni.princeton.edu, nicole.seligman@us.sony.com, pambcashwell@gmail.com, pmarple@chadbourne.com, info@panettainstitute.org, pauloetken@gmail.com, peter.erichsen@ropesgray.com, prundlet@humanityunited.org, rklain@aol.com, Robert.Weiner@aporter.com, RSlater@PattonBoggs.com, srutherford@clintonschool.uasys.edu, sbradley@mclarty.com, sreich@akingump.com, swilson@cov.com, sally@thepaxtongroupconsulting.com, Sbwhoeop@aol.com, emkarcher.schmitt@yahoo.com, shelia.cheston@ngc.com, shelli_peterson@fd.org, stacyr404@gmail.com, stephenneuwirth@quinnemanuel.com, steveR@metalrecyclingcorp.com, sricchetti@cox.net, stevenfreich@gmail.com, sylvia.burwell@hotmail.com, tfmclarty@maglobal.com, todd_j_campbell@tnmd.uscourts.gov, tschroeder@texarkanalaw.com, vcanter434@aol.com, wdellinger@omm.com, wendy.white@ogc.upenn.edu, wpmarsha@email.unc.edu</t>
   </si>
   <si>
+    <t>6478    Leaked email shows Monsanto Executive V.P. inv...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6478    Mike Adams, NaturalNews Editor
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Clinton crime family must be taken down... ARREST THEM ALL: Clinton, Podesta, Abedin, Lynch, Mook, Stephanopoulos and all the co-conspirators 
   Clinton corruption , John Podesta , crime family (NaturalNews) It's not just that the corruption and criminality of the Clintons knows no bounds; it's also that the democrat political machine trying to thrust her into power also has total disregard for democracy, truth and ethics. Their mission? Put our nation's worst political criminal into the White House by any means necessary, including systematic lying, fraud, money laundering, intimidation of opponents and even murder of those who might testify against her. The Clinton machine is a mafia operation , and every person involved in it must go to jail.That includes not just the deep operatives like Podesta, Lynch and Abedin, but also all the deep cover Clinton operatives pretending to be journalists , including Stephanopoulos, Maddow, Hayes, Milbank and all the rest ( see the list here ). Every one of these people has committed crimes of sedition against the United States of America and is guilty of attempting to defraud democracy, steal the election, and place a mafia criminal into power at the highest level of government through the deliberate pursuit of journalistic malpractice . Seditious Clinton operatives must be arrested and put behind bars to protect America We the People are beyond the stage of merely wanting to vote you out of power and turn off your broadcast networks. It's now time to seek your indictment and imprisonment so that you cannot be allowed to harm this society ever again.Every operative, journalist and co-conspirator with the Clinton Foundation, the Clinton corruption and the Clinton murders must be arrested, indicted and, if found guilty by a fair trial, sent to prison. This nation needs to heal itself from the Clinton nightmare , and the only way that's going to happen is if the criminal traitors, sellouts and corrupt backstabbers are marched away in handcuffs and put behind bars."A former FBI official said Sunday that Bill and Hillary Clinton are part of a crime family and argued top officials hindered the investigation into Hillary Clintons private email server while she was secretary of State," reports TheHill.com : Kallstrom, best known for leading the investigation into the explosion of TWA flight 800 in the late '90s, said that Hillary Clinton, the Democratic presidential nominee, was a pathological liar.He also blasted Attorney General Loretta Lynch, claiming that she impeded the investigation into Clintons private server.The problem here is this investigation was never a real investigation, he said. Thats the problem. They never had a grand jury empanelled, and the reason they never had a grand jury empanelled, Im sure, is Loretta Lynch would not go along with that. God forbid we put someone like that in the White House, he added of Clinton.Kallstrom also said that FBI Director James Comey and the rest of the FBIs leadership were responsible for holding back the investigation, not the rest of the bureau.The agents are furious with whats going on, I know that for a fact, he said. Corrupt, pro-Clinton "journalists" should not be given any quarter in all this. Much like the propagandists of the Third Reich, they abuse their positions of power to operate in conspiracy with an outright criminal who acts against the interests of the American people. Did you know that Hillary Clinton sold off uranium mining rights to the Russians because the oligarchs who made billions off the deal turned around and donated millions to her Clinton Foundation? If you aren't aware of this, you need to watch Clinton Cash immediately . The simple truth is that the entire democrat party is a massive criminal cartel What America has now come to realize via the Wikileaks email dumps , the Project Veritas undercover videos and even the revelations of former FBI agents who know what's really happening inside the agency is that the entire democrat party is a massive criminal cartel .From the DNC (which actively conspired to sideline Bernie Sanders during the nomination process) to the left-wing media (which coordinates false smear attacks against Donald Trump), every element of the democrat party is hopelessly corrupt. Democrat political operatives abide by no laws, no ethics and no boundaries. They lie, cheat and steal their way into power at every election... and they're desperately trying to steal this election, too.It's not just that the Clinton crime family must be taken down, you see: It's that the entire democrat establishment should be disbanded or imprisoned . There isn't a high-level operative inside the DNC who isn't committing election fraud on a daily basis. The coordination and collusion, money laundering and pay-to-play "influence for sale" schemes are all illegal, yet they are the very foundation of the democrat establishment as it exists today.Every one of these people needs to be arrested, indicted and imprisoned. This is the only way genuine democracy can be restored across America. Aside from their criminality, democrats' policy ideas just don't work Even on policy alone, democrats are total failures . None of their ideas or policies actually work. Look at Obamacare, with its insurance costs now doubling every 2-3 years , with coverage options crashing nationwide and the entire failed idea now on the verge of imploding. This was hailed as an historic solution by Obama and the rest of the dummocrats who forced it through Congress and the Supreme Court. In reality, Obamacare was the dumbest idea ever attempted to solve the health care crisis, and I called it that from its inception.Democrats are parasites on society who know nothing other than how to survive as government blood suckers by promising big ideas that routinely fail. They confiscate money from taxpayers, waste it on the most stupid policy ideas ever dreamed up, while siphoning off billions for their own salaries, bonuses and luxurious lifestyles. Then, if you oppose their complete idiocy, they invoke the IRS to have you audited or arrested. This is Amerika today under Obama and the Clintons.This racket must end. The Clintons and all their co-conspirators must be sent to prison. Donald Trump is right when he says this is "Bigger than Watergate." There's no comparison. The crimes of the Clintons are a thousand times larger and more damning to democracy than anything Richard Nixon ever attempted. Corrupt leftist media still lying every hour in a desperate attempt to defeat Trump While all this is happening, the corrupt leftist media -- Washington Post, New York Times, MSNBC, CNN, Google News, Yahoo News, etc. -- has long since abandoned any pretense of engaging in journalism and is now all-in for the Clinton criminal mafia.They have thrown their reputations to the wind, betting everything on the most corrupt criminal to ever seek the office of the presidency. They're bleeding readers and viewers by the millions as fed-up Americans change the channels or turn off their cable TV altogether (who needs politicized ESPN, anyway?) to seek out more accurate news online from sites like Natural News and Breitbart.com .Even the mass censorship of political trends by Facebook and Twitter can't stop the avalanche of awakening now sweeping across America. Across every sector of society, the American people are saying ENOUGH IS ENOUGH! We will not allow the criminal democrats to steal this election and install a totalitarian dictator into the White House.We will vote against the establishment in record numbers. We will overwhelm the fraud, out-vote the brain-dead leftists and achieve a landslide victory for Donald Trump.And if the corrupt, criminal democrats still fake the numbers, bribe the electoral voters or commit massive fraud to steal the election, We the People will take to the streets and take our democracy back . We the People will NOT accept a Clinton presidency under these conditions of massive fraud, collusion and extreme media bias Based on everything we are seeing right now, there is no scenario under which Hillary Clinton will be accepted as the legitimate victor of this election. In no way has this been an open, fair and free election. It has been a warped, one-sided exercise in media collusion that isn't fooling anyone.In the minds of the real American people, Hillary Clinton is done for . The People will not stand for more corruption, collusion and criminals running our system. The revolt has begun , and it will sweep through the voting booths, the electorate and if necessary, the very streets of America to demand an end to the failed, corrupt political establishment run by sinister criminals who belong behind bars.Get ready, my friends, to take this country back. First, vote for Donald Trump as a vote against corruption and collusion of the leftist establishment.Secondly, demand the arrest of all Clinton-linked operatives , including those in the leftist lying media.Thirdly, do not tolerate the theft of your democracy by corrupt Clinton operatives who are trying to steal this election. If they steal the votes or steal the Electoral College outcome, prepare to march in the streets to take your country back .Yes, I'm calling for peaceful mass protests, everywhere across America, if the criminal democrats and corrupt leftist media steal this election through fraud. Bring plenty of rope because you may have to swing across moats and scale the walls of the castle to finally reach the inner layers of corruption and criminality in Washington D.C. (That's a metaphor, for the dumb-as-dirt left-wing media journalists who are too stupid to parse a sentence.) DEFEAT Clinton now or lose America to a totalitarian regime that will never let go of absolute power This is your LAST CHANCE to take America back. If you allow the Clintons and the corrupt democrats to seize power through widespread fraud and theft, there will never be an open, fair and free election in America ever again . All opponents of Clinton will be imprisoned or executed. All conservative media outlets will be taken offline or silenced. The borders will be opened to a massive wave of illegal aliens from all across the world, and they will overrun and occupy America, destroying it from within while the bigoted, intolerant democrats turn the entire nation into a "sanctuary nation" where illegals have absolute immunity while patriots are executed or imprisoned by the millions.That's the "American Holocaust" you're going to be witnessing if you allow these criminals -- Clinton, Abedin, Podesta, Stephanopoulos and all the rest -- to remain in power. Throw them behind bars if you want to see your country survive the next four years .</t>
   </si>
   <si>
+    <t>6479    Clinton crime family must be taken down... ARR...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6479    Mike Adams, NaturalNews Editor
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>SCANDAL: EPA could have issued an emergency order 7 months before Flint water crisis became public knowledge 
 Monday, October 31, 2016 by: J. D. Heyes Tags: Flint , water crisis , EPA cover-up (NaturalNews) The federal bureaucracy and corresponding state agencies have never been much good at responding to crises in a timely fashion, and that tradition was alive and well during the recent toxic water crisis in Flint, Michigan.In fact, according to a newly released watchdog report, Americans now know that the federal Environmental Protection Agency (EPA) could have intervened in the crisis a full seven months before it finally did, meaning thousands of residents in Flint would have had to drink far less water tainted with lead.As reported by The Associated Press , the EPA's inspector general said that the agency had the authority and enough information to issue emergency orders to protect Flint residents from the lead-contaminated water they were drinking as early as June 2015, seven months before officials finally declared an emergency.Inspector General Arthur Elkins said in an interim report that the water crisis should have created "a greater sense of urgency" for the EPA to "intervene when the safety of drinking water is compromised." Everyone is pointing fingers at everyone else The drinking water in Flint became tainted with unsafe levels of lead after city officials decided to begin drawing from the Flint River in April 2014, in a bid to save money. The broke city of about 100,000 residents north of Detroit was under state control at the time.Regulators did not make sure that the water was properly treated, so lead from aging pipes leached into the supply, the AP reported.Since the discovery of high levels of lead, federal, state and local officials have traded accusations about who is most to blame for the crisis , even as residents are still forced to drink bottled or filtered water.Doctors have detected higher than normal levels of lead in hundreds of children around the city. And many taps remain off-limits.Gov. Rick Snyder, a Republican, appointed a panel to look into the matter. It concluded that the state is "fundamentally accountable" for the lead crisis due to decisions made by state environmental regulators as well as state-appointed emergency managers who were in charge of running the city.But that said, once the EPA discovered that water being consumed by city residents was tainted with unsafe levels of lead, Snyder believes the agency should have acted – and he is right."As Gov. Snyder has stated all along, what happened in Flint was the result of failure of government at all levels," his spokeswoman, Anna Heaton, said recently.Since the crisis began, officials have tried to reshuffle the deck, so to speak, and call it "reform." They say some state agencies have undergone "culture changes" that will supposedly prevent future recurrences of epic failure, according to Heaton, who called such changes "encouraging." People should be held accountable – but won't be It's unclear how many people actually believe that, considering that state agencies had mandates already to protect the public from polluted and contaminated water (as did the EPA). By "culture changes," does Heaton mean that people were fired and actually replaced by others who will do what taxpayers are paying them to do?Flint Mayor Karen Weaver, a Democrat who took office after the crisis emerged, said agencies like the EPA and the Michigan Department of Environmental Quality are there "to help ensure the well-being and safety of men, women and children," yet they failed in their core mission to do so. She also called for those who are responsible for the crisis to be held accountable, though we advise her not to hold her breath.As for the EPA's inspector general report, it said that the agency's Midwest region did not issue an emergency order because officials concluded actions taken by the state prevented the EPA from doing so. The report says that their interpretation was not correct, and that according to federal law, when state actions are deemed to be unacceptable, "the EPA can and should proceed with an (emergency) order" designed to protect "the public in a timely manner."Without EPA intervention, "the conditions in Flint persisted, and the state continued to delay taking action to require corrosion control or provide alternative drinking water supplies," the report said. Sources:</t>
   </si>
   <si>
+    <t>6480    SCANDAL: EPA could have issued an emergency or...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6480    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>MUTINY AT THE FBI: Comey warned by his own agents to indict Clinton or watch the FBI's reputation go down in flames 
 Monday, October 31, 2016 Tags: James Comey , FBI mutiny , Clinton investigation (NaturalNews) As America inches toward open revolt over the runaway criminality and collusion of the democrats and the media , another kind of revolt is taking place inside the FBI. According to multiple sources in the independent media -- now the only remaining "free press" in America -- FBI director James Comey was forced into announcing a reopening of the criminal investigation into Hillary Clinton's private email server by "livid" FBI agents who threatened to go public if Comey didn't act.James Comey, long since suspected to be a Clinton operative who deliberately allowed Hillary Clinton to get away with a vast number of felony crimes and national security violations, now finds himself with his back against the wall. If he releases the evidence against Hillary Clinton already possessed by the FBI, he will face the wrath of Obama, the Clintons, the corrupt Loretta Lynch (DOJ) and the entire leftist media. If he once again gives Hillary Clinton a free pass on her numerous crimes, he then faces a mutiny inside the FBI which promises to bypass his authority and leak the criminal evidence directly to the alternative media. FBI agents under Comey are desperately trying to save their agency from going down in flames Agents inside the FBI, in other words, refuse to allow James Comey to let the agency go down in flames as just another corrupt branch of the "Clinton crime family." Via the Daily Mail UK : James Comey's decision to revive the investigation of Hillary Clinton's email server and her handling of classified material came after he could no longer resist mounting pressure by mutinous agents in the FBI , including some of his top deputies, according to a source close to the embattled FBI director. This dovetails with my own sources who tell me that the recent acquittal of the Oregon ranchers has also driven a stake through James Comey's reputation, as he is the FBI official who reportedly ordered the execution of Robert "LaVoy" Finicum, whose suspected execution by FBI agents was caught on tape .Because the Oregon ranchers have now been acquitted by a jury, it means FBI head James Comey seems to have ordered the shooting and killing of an innocent man .Under Comey -- and to the dismay of the many great agents working inside the FBI -- Comey may have turned the agency toward a lawless armed tyranny that guns down innocent Americans while letting corrupt criminal politicians go free. For many FBI agents who have spent their entire careers serving the FBI as honest, dedicated federal agents, the thought of allowing James Comey to single-handedly commit political arson and burn down the FBI's hard-won reputation is just too much to bear.Resignations are beginning to pile up on Comey's desk as livid FBI agents head for the exits...Via the Daily Mail: "The atmosphere at the FBI has been toxic ever since Jim announced last July that he wouldn't recommend an indictment against Hillary," said the source, a close friend who has known Comey for nearly two decades... [Comey] told his wife that he was depressed by the stack of resignation letters piling up on his desk from disaffected agents. The letters reminded him every day that morale in the FBI had hit rock bottom. "And while the decision to reopen the case may appease FBI agents and republicans, in the short-term, we suspect it does very little to restore overall faith in his competence. As such, we continue to question just how long Comey can hold out before being forced to resign his post," adds Zero Hedge . "At a bare minimum, in light of his continued questionable judgement and serious doubts raised about the integrity of the first investigation, we fail to understand how an independent investigation into Hillary's email server isn't warranted." James Comey is an arsonist, and he's going to burn the FBI to the ground unless his agents mutiny The upshot of all this is that James Comey is an arsonist. If his own agents don't force him to apply the law to the Clinton investigations, Comey will burn the agency to the ground, leaving its reputation in ashes. And that, sadly, will make the world a very dangerous place for all the FBI agents in the field, because everyday Americans would begin to see them all as corrupt, lawless tyrants working as part of a criminal regime in Washington that refuses to apply laws to its own kind.The truth is that most FBI agents are hard working, professional men and women who are desperately trying to shut down the operations of terrorists, financial fraudsters, kidnappers, murderers and other dangerous criminals. Yet if James Comey doesn't defend the FBI's reputation by indicting Hillary Clinton , he will likely be placing FBI field agents in grave danger as they face the wrath of citizens who begin to see them all as part of a corrupt criminal tyranny run by the political mafia in D.C.Comey, in other words, is more dangerous to the entire FBI than any other single person in Washington right now. If he doesn't find his moral compass and guide the FBI through this crisis with law and order intact, he's going to go down in history (and in flames) as the man who forever destroyed the credibility of the FBI and likely turned his field agents into ready targets for an enraged populace.No doubt, he'll get an extra bonus from Loretta Lynch if he once again decides to nullify the rule of law in America and announce that Hillary won't be subject to the same laws that would immediately ensnare anyone else. Remember: If Comey gives Hillary Clinton a free pass, he demonstrates to all Americans that lawlessness is now the accepted standard of conduct in Washington . And if our political leaders will not be held to account for their crimes, then practically speaking, why should any citizen feel compelled to follow any federal laws at all? James Comey: If you want to salvage the FBI's reputation, announce a recommendation for the indictment of both Hillary Clinton and Loretta Lynch If there's one thing abundantly clear in all this, it's that both Hillary Clinton and Loretta Lynch should be behind bars . Clinton is a lifelong criminal and mafia boss. Lynch is a third-rate attorney who was tossed into the DOJ solely because of her gender and skin color, not her credentials. And neither one respects the laws of America, of course. Both are deeply corrupt.If the FBI hopes to have any reputation remaining after the Hillary Clinton campaign implodes either before or on November 8th, Comey needs to come out strong right now and lay out the evidence that unambiguously shows Hillary Clinton had CLEAR INTENT to violate national security laws , among other serious crimes.All Comey would have to say is something like, "In the view of the FBI, Hillary Clinton is clearly not qualified to serve as Commander in Chief, and we recommend she be indicted for violations of national security..." and so on. With a single sentence, Comey could reinvigorate the FBI and position himself as an historic American hero.Right now, I'd imagine the Clinton machine is mailing bloody body parts in tiny wooden coffins to James Comey's home address, along with notes that say something like, "You're next." Let's watch and see if he grows a spine and refuses to be intimidated.</t>
+  </si>
+  <si>
+    <t>6481    Mutiny at the Fbi: Comey warned by his own age...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6481    NaN
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Keywords: complimentary medicine , holistic health , homeopathy , nhs 
@@ -1336,16 +1888,48 @@
 This post was written by The Elysian Centre, a multi-disciplinary practice for holistic healing and homeopathy in Rye, East Sussex.</t>
   </si>
   <si>
+    <t>6487    Homeopathy in the NHS: The Big Debate
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6487    Nick Huxsted
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Top university stole millions from taxpayers by faking global warming research 
   J. D. Heyes (NaturalNews) The 'global warming/climate change' charade is bad enough in that it is nothing more than a politically motivated "issue" used by globalists of all political stripes to gain more control over the world's population.But now it's costing some citizens scarce tax dollars.As reported by The Daily Caller , a top university in Britain has been caught stealing millions of taxpayer dollars from a federal budget that is chronically in the red just to produce phony global warming data .A global warming research center at the London School of Economics received millions of dollars (pounds) from UK taxpayers after taking credit for research it did not perform.The UK's Daily Mail noted further that the UK government provided £9 million ($11 million in US dollars) in funding to the Centre for Climate Change Economics and Policy (CCCEP) in exchange for research that was never done. Massive scientific fraud regarding 'global warming' A number of papers that CCCEP claimed to have published to receive government funding were not even about global warming and were written before the organization was even founded, or written by researchers who were not affiliated with the center. Worse, government officials never bothered to check CCCEP's alleged publication lists, saying instead they were "taken on trust," according to a recently released report."It is serious misconduct to claim credit for a paper you haven't supported, and it's fraud to use that in a bid to renew a grant," Professor Richard Tol, a climate economics expert from Sussex University whose research was reportedly stolen by CCCEP, told the Daily Mail . "I've never come across anything like it before. It stinks."The center's chairman since 2008 has been Nick Stern, a well-known global advocate for more policy action supposedly aimed at combating climate change. In addition he is also the president of the British Academy, an invitation-only society that is reserved for the academic elite and which disburses grant money in the millions of pounds to researchers, as well as Lord Stern's own organization.In recent days the CCCEP, which is jointly based at the London School of Economics and the University of Leeds, hosted a gala event that was attended by experts and officials from around the world. The occasion: A celebration to mark the 10th anniversary of the Stern Review, a 700-page report detailing the alleged economic impact of climate change, a review that was commissioned by Tony Blair's government.The massive paper claimed that the world must take immediate action to reduce greenhouse gas emissions or face dramatically higher costs in the future. The review exerted a great amount of power and influence on a series of British governments, as well as international organizations.But now the report's contents and conclusions are in serious doubt. Not the first time global warming data has been FAKED Following the Daily Mail 's report, CCCEP spokesman Bob Ward admitted the organization had "made mistakes," in both claiming credit for studies it did not perform and foro papers that were actually researched and published by other academics.Academics and experts whose work was falsely represented were furious, including one who said CCCEP's actions were "a clear case of fraud – using deception for financial gain," The DC reported.Studies receiving financial support from the public sector are not required to disclose it as an ethical conflict of interest, even when financial support is in the millions of dollars. The DC noted that recent studies in the United States, which the Environmental Protection Agency (EPA) uses to support the 'scientific' case for its massive new power plant regulations, the Clean Power Plan, saw the agency give $32.1 million, $9.5 million, and $3.65 million in public funds to lead authors – all of whom essentially provided the agency with the 'results' it wanted.As Natural News founder and editor Mike Adams, the Health Ranger, reported in June 2014 , this isn't the first time so-called global warming/climate change data has been faked. Sources:</t>
   </si>
   <si>
+    <t>6494    Top university stole millions from taxpayers b...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6494    J. D. Heyes
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Top 10 amazing, indigenous, all-natural cures from around the world 
   S. D. Wells Tags: natural cures , indigenous medicine , healing plants (NaturalNews) Before World War II, very few Americans suffered from cancer, Alzheimer's, Parkinson's, diabetes, heart disease, strokes, arthritis, osteoporosis, food allergies, psoriasis, eczema, autism, Asperger's syndrome or even fibromyalgia. There were no processed foods, no genetically modified organisms, no chemical pesticides, no toxic vaccines loaded with mercury and aluminum, no over-the-counter medications loaded with artificial food dyes and heavy metal toxins, no artificial sweeteners, no fluoride in the tap water, no leaking nuclear reactors, and of course, there were no insidious oncologists giving people lethal chemical drugs (chemotherapy) to fight off cell disorder (cancer) that's caused by chemical consumption in the first place.None of that was going on, because the American Medical Association had yet to figure out that if all mainstream medicine was simply made of chemicals, everybody who got sick would stay sick, and the medicine industry would become one of the biggest money makers in the history of the world.Yes, that was the time of amazing indigenous medicine , when natural healers were doing wonders for sick folks using natural remedies . And when people did get sick, they took medicine that had worked for millennia, not some lab-concocted chemicals that crooked science journals swore would work. The Chinese and the American Indians didn't get lucky; they used food as medicine , and it worked.Have you had enough of medicine that's so poisonous that they have to inform you about side effects more dangerous than the condition being "treated?" Are you sick of paying an arm and a leg for symptom-cover-up chemicals that make you fat, dumb, sicker and closer to death? So is everybody else. Join the club. End the insanity. Try the top 10 amazing, indigenous, all-natural cures from around the world, and never suffer another side effect, never perpetuate illness, and never, ever eat cancer again. All-natural, indigenous cures from around the world #1. Hemp Seed Oil : Ready for the most complete amino acid profile in the world? Hemp seed oil has a 3:1 ratio of Omega-6 to Omega-3 fatty acids that best supports heart health and promotes proper cardiovascular function, thus preventing degenerative diseases . The oil even has antioxidant and anti-inflammatory properties that protect against the aging process! The oil from the seeds also contains essential fatty acids (mercury-free) that are crucial for brain and eye health, especially during the first years of life.#2. Cannabidiol (CBD) : Made from the roots and stems of the cannabis plant, cannabidiol yields none of the psychoactive compound THC (tetrahydrocannabinol) that marijuana contains. Also known as the "ultimate preventative medicine," "the miracle herb," and even referred to as "the forbidden medicine," CBD is a medical wonder, having anti-inflammatory and anti-cancer properties , including the support of mitochondrial function at the cellular level.#3. Oil of oregano : Pharmaceutical companies wish they could patent it. Produced from the perennial herb oregano, the oil is loaded with antioxidants that annihilate the free radicals that cause cancer . One of the most potent remedies in the world, oregano oil beats down viruses and knocks back allergies to pollen.#4. Chlorella : Stressed about keeping your blood sugar levels in a healthy range? A recent clinical study proved that superfood chlorella helps maintain healthy blood sugar metabolism, even at the genetic level! Be sure to buy organic chlorella (but not from China, because it's contaminated with heavy metals).#5. Aloe : Wars have been waged to control areas where aloe flourishes. The Aloe vera plant has been used for thousands of years to heal all kinds of health conditions, including wounds, burns, skin irritations, sunburn and even constipation. Grown in mostly tropical locations, this succulent plant has more than 300 species with over 75 nutrients in the gel, including vitamins A, C, E, B1, B2, B3 (niacin), B6, choline, folic acid, alpha-tocopherol and beta-carotene. Plus, aloe extracts improve absorption of both vitamin C and vitamin E.#6. Maca : A member of the cruciferous family, maca root is an adaptive superfood grown high in the mountains of South America. Maca is very rich in nutrients and supports increased libido, hormone balance, immune boosting effects and increased energy!#7. Garlic cloves : Garlic contains a compound called allicin that's a potent medicine that was used by the Egyptians, Romans, Greeks and Chinese to combat sicknesses, including the common cold.#8. Licorice root : Dating back as far as 190 AD, this Chinese herbal remedy is used in over 5,000 formulas for clinical purposes, including in aiding digestion.#9. Elderberry : Sambucol, a black elderberry extract, short-circuits the flu! Medical doctors will never tell you about this because it's cheap and it works.#10. Medicinal mushrooms : Check out Reishi, Turkey Tail, Maitake, Shiitake and Chaga to boost immunity and brain power, and to fight cancer cells, for everything from brain cancer to breast cancer. Sources for this article include:</t>
   </si>
   <si>
+    <t>6498    Top 10 amazing, indigenous, all-natural cures ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6498    S. D. Wells
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Jimmy John's owner spent $350k to 'trophy hunt' extremely endangered female Black Rhino 
 Tuesday, November 01, 2016 by: Ethan A. Huff, staff writer Tags: Jimmy Johns , endangered species , trophy hunting (NaturalNews) The owner of the American fast food chain Jimmy John's is under fire after photos emerged of him smiling and giving a "thumbs up" beside numerous endangered species that he's hunted and killed throughout Africa over the years, for seemingly no other purpose than simply to invoke death for pleasure.Reports indicate that Jimmy John Liautaud has been spending hundreds of thousands of dollars per hunting trip to gain access to these precious species, including one particular "trophy" hunt in which he spent a whopping $350,000 just to kill an extremely endangered female Black Rhino. Graphic photos of Liautaud with this rhino and other animals are available here , but be warned: these images are horrifyingly upsetting.Liautaud's trophy hunts are apparently a routine pastime of his, just as they are for the many other bored millionaires out there with too much time and money on their hands who seem to get a kick out of taking out the rarest animals on our planet – beautiful creatures like leopards, rhinos, lions, and even elephants, which have the largest brains of any land animals. It's the type of thing that, if more people knew about it, they'd likely stop eating at Jimmy John's altogether.Mr. Jimmy John's poaching fetish has been making the media rounds, and many are now calling on a national boycott of the sandwich chain, which has already been exposed for underpaying its employees and treating them like slave workers. The Wall Street Journal (WSJ) reported that social media users had attempted to launch a boycott of Jimmy John's using the "#boycottjimmyjohns" hashtag on Twitter, though the company didn't seem all that phased.Still, the issue hasn't gone away, and many in the public remain outraged over what they say is reckless and reprehensible behavior. Not only is Liautaud killing these rare and exotic animals in cold blood, but he's doing so in such an utterly cruel way that even the most avid hunters would be hard-pressed not to cringe or perhaps shed a few tears."[U]sually the animals are lured from a national park on to private property," Lara Starr, investigative writer and co-founder of The Earth Child writes, noting that this is not the method Liautaud uses to kill his prey. "Trophy hunters will leave out bait, play the sounds of other animals to lure them in, or a few other tactics to find their animal victims.""Canned hunting is even worse," she adds. "It is the 'shooting fish in a barrel' version of trophy hunting . The animals are often hand raised so they are tame and don't run away. They leave food out for them one day, then some coward creeps up and shoots them with a high powered bow or rifle. Sometimes they don't even have to creep. Sometimes they just shoot them from the back of a truck, then go back to drinking their gin &amp; tonic like it was just a bit of harmless fun." Trophy hunting costs do NOT help repopulate endangered animal species One of the excuses often used as justification for expensive trophy hunting escapades is that all that cash ends up getting donated to conservation programs that help repopulate the prairies, plains, and jungles with endangered species. But this isn't actually true, as only about two percent of the proceeds from these hunts ends up being used for conservation purposes.Non-trophy hunting tourism, on the other hand, is responsible for the bulk of conservation donations -- up to 15 times than what trophy hunting contributes -- according to Heather Callaghan, editor of Natural Blaze . Likewise, the claim that animals killed on trophy hunts are used to provide food for locals is also bunk, as most of the carcasses end up getting left behind for scavengers. Sources:</t>
+  </si>
+  <si>
+    <t>6500    Jimmy John's owner spent $350k to 'trophy hunt...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6500    Ethan A. Huff, staff writer
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Keywords: Alzhemier's disease , anxiety , dementia , depression , food , health , IBD , IBS , immune system , mental health , nutrition , weight loss Fermented Foods: 5 Reasons to Consume this food Group Every Day 
@@ -1373,6 +1957,14 @@
 Sources</t>
   </si>
   <si>
+    <t>6507    5 Reasons to Consume this Every Day
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6507    Tru Foods Nutrition
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Keywords: cranberries , cranberry , cranberry juice , kidney disease , urinary tract infections , UTI , UTIs 
 Cranberry juice and tablets have been recommended as a way to either prevent recurring urinary tract infection (UTI), or treat the symptoms. But a new study finds there’s no difference between people treated with cranberries or placebos. 
 A lack of evidence for cranberry juice or capsules as being an effective preventative measure or treatment has been a recurring argument in the scientific literature for years now. Cranberry Juice – An Unrealistic Recommendation for UTIs 
@@ -1395,20 +1987,52 @@
 This recent randomized clinical trial study titled, “Effect of Cranberry Capsules on Bacteriuria Plus Pyuria Among Older Women in Nursing Homes,” is published in the Journal of the American Medical Association. You might also like…</t>
   </si>
   <si>
+    <t>6511    Cranberry Juice Does Not Prevent Urinary Tract...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6511    George Zapo
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>THE END GAME closes in on the Clintons as the deep state turns... massive collection of criminally damning evidence about to be revealed that will bring down the Clinton crime family forever 
 Wednesday, November 02, 2016 Tags: deep state , Clinton cartel , damning evidence (NaturalNews) My fellow Americans, we are watching history unfold before us with such sound and fury that we are likely to never witness comparable events again in our lifetime. As of today, I am now convinced that the deep state has turned on Hillary Clinton and will unveil damning evidence in the next few days that will end the Clintons' reign of terror over America and collapse her bid for the presidency.The mainstream media, of course, will never report this news for the simple reason that they are the propaganda arm of the criminal Clinton cartel. As such, they will lie to the public to the bitter end, even as the Clinton Titanic sinks with all of them on board (in deep, frigid waters, no less, with no more lifeboats to be found).The so-called "deep state" -- the powerful insiders who really run the intelligence services and inner layers of untouchable bureaucracy -- has decided Hillary Clinton is too damaged to defend any longer . Even if she were to win by stealing the election, she would be so mired in criminal investigations and political illegitimacy that she would rip the nation to shreds while fighting for her own political survival.It has now been decided, I believe, that Hillary Clinton will be taken out of power by releasing criminally damaging emails which have long been held by the NSA and FBI. This will likely happen before the coming weekend. Once that is accomplished, the next goal will be to wait for President Trump to take office, then destroy the U.S. economy through a controlled, global debt collapse so that Trump can be blamed for the near collapse of western economies. (Remember: The deep state isn't pro-Trump. They're still all about defending the establishment. But Hillary is one bridge too far for even the statists to stomach...)Instead of allowing Hillary Clinton to take power and destroy America from the top, in other words, deep state power brokers have reverted to "Plan B" which is to let Trump take the White House, then destroy America through the controlled demolition of its currency and economy. This is simpler than it sounds. Bringing down the debt pyramid of a nation carrying nearly $20 trillion in national debt isn't exactly rocket science. All they have to do is stand back and stop manipulating the markets and stop printing new money for a few months while raising interest rates. Monetary gravity will do the rest...In the mean time, Hillary Clinton and a long list of her co-conspirators are going to find themselves charged with obstruction of justice , lying under oath, destruction of evidence, conspiracy, corruption and other serious charges that will lead to serious prison time for many.The criminal racket of the Clintons is about to implode. The participants will be charged under the RICO Act for "racketeering" activities, for which ample evidence already exists. A new video from Steve Pieczenik describes some of this In this video, intelligence insider Steve Pieczenik lays out how high-level intelligence insiders are now working in concert to "reverse the Clinton coup" that's attempting to take over America and destroy it from within.Even if you don't believe Pieczenik -- and I fully realize he's controversial in his own way -- this short video is a very important "must watch" explanation to know what people in the intelligence community are doing... "we've initiated a counter-coup..." The Clintons are going to go "full murder" in a last ditch, desperate effort to save themselves Beware of what may yet unfold in the coming days. Like a cornered wild animal, the Clintons are extremely dangerous when they realize they have nothing to lose by going "full murder" in an attempt to save themselves.I will not be surprised the least bit if bodies of people in high places start piling up over the next week. Watch for news reports of mysterious car crashes, swimming pool accidents or "natural" deaths involving people like James Comey, who'd better have armed security personnel around him at all times.Look for desperate measures such as the Clintons attempting to blackmail Obama, Comey or anyone who they think might serve as leverage to save their own skins. We might also see desperate false flag attacks unfold in the next few days, although that's increasingly unlikely since it seems the Clintons are now on their own (they would need the assistance of Obama to pull off another Sandy Hook, you see). A deal has already been struck with Obama Most likely, deep state operatives have already struck a deal with Obama to avoid prosecuting him for his own serious crimes as long as he stays out of the way as Hillary Clinton's head is served up on a platter. This likely explains why Obama is now publicly saying he trusts Comey (and refuses to go to bat for Hillary). There's no love lost between Obama and the Clintons (remember 2008?).As all this is going down, the propaganda ministry of the Clinton regime -- CNN, NYT, Washington Post, etc. -- is going to explode into an all-out "bat-s##t crazy" conspiracy theory phase where they blame the Russians, extraterrestrials, Bigfoot and the Loch Ness Monster for everything that's imploding around the Clintons. Mainstream media news reports are going to increasingly sound like sociopathic babble from crazy people grasping at whatever outlandish theories they can invoke. Maybe crop circles were created by the Russians as a secret code to Wikileaks and Donald Trump, eh?Meanwhile, conspiratorial operatives like George Stephanopoulos fully realize they are probably going to jail for collusion and sedition , so they have nothing left to lose by desperately trying to put Hillary in the White House via any means at their disposal, including totally faking negative news against Donald Trump (which is, of course, the entire news mission of CNN at this point, a disgraced propaganda network run by anti-American traitors). If the vote is stolen for Hillary Clinton, all hell breaks loose Should the globalist Soros operators manage to steal the vote, bribe the electoral voters or rig the black box voting machines sufficiently to place Hillary Clinton in the White House, all Hell breaks loose across America :• The FBI goes into full indictment mode to push criminal charges for the Clinton criminal regime.• Donald Trump launches a massive legal challenge to the election outcome, dispatching an army of lawyers to level a vast assortment of charges involving coordinated voter fraud, the rigging of voting machines, the attempted bribery of Electoral voters and so on.• The U.S. military revs up its plans for an armed military coup to depose Clinton and restore democracy. This one should be especially entertaining to watch unfold if it gets activated... (and yes, YOU will beg for a short-term military dictatorship as long as they promise to depose Clinton and restore open, fair and free elections).• Armed U.S. citizens prepare for a massive march on Washington to take back their democracy and restore a lawful society where the political elite don't get away with corruption, fraud and murder. Expect this march to be joined by police officers and federal law enforcement officials of all kinds.• The NSA likely goes into "full dump" mode to unleash every scrap of damning criminal evidence against Hillary Clinton. This will likely be joined by CIA assets who already have the goods on the Clintons and their "Lolita Express" pedo joy rides.• Wikileaks, Anonymous and every former NSA analyst goes into "destroy the Clintons" mode and begins to hack and expose every last shred of email evidence ever possessed by the Clintons and anyone close to them. Anonymous alone has enough technical clout to accomplish this with little or no outside help. (I expect Kim Dotcom to be aiding this entire effort as well, as he rightly holds extreme hatred toward Hillary Clinton... as do we all, come to think of it.)• The establishment Republicans in the U.S. Congress will, as usual, meekly surrender to the democrats, pulls down their britches and bend over to prepare to take it in the rear because that's what they do best when the going gets tough. Totally useless politicrats like John McCain can't get their pants around their ankles quickly enough when democrats start accusing them of something. These useless heaps of human baggage will be tossed out of Washington as the revolution unfolds, replaced with individuals who actually honor the U.S. Constitution (like Rep. Louie Gohmert). I root for all groups working to save America and expose the criminal politicians Bring out the marshmallows and weiners, folks: This is going to be the most bizarre campfire front row seat to U.S. history that anyone has witnessed in over 200 years. Try not to trip and "face plant" into the flames as all this unfolds. It might be a smart idea to have some preparedness supplies at the ready, since no one really knows just how nasty this is all going to get. (And thank God Hillary doesn't have her fingers on the nuclear launch codes, or she'd probably launch them just to change the narrative...)As for me, I'm with anybody who's trying to save America , restore democracy and throw the establishment criminals in prison. Like almost everybody else, I've had enough of the lies, the corruption, the media deceptions and the incessant blood sucking parasites in Washington D.C. who are too arrogant and stupid to realize just how much they're universally despised. The revolution is ON. Anonymous, Wikileaks, Project Veritas, the FBI and the NSA have all been activated. There's no stopping them now, and all the details of all the crimes of the Clintons are about to spill onto the stage of history, dirty deeds and all.Be warned, you are probably not psychologically prepared for the truth about what the Clintons really are. You will probably vomit. Health Ranger Approved AquaTru Water Filter Back in Stock 
 I've secured 500 units of the amazing AquaTru at $100 off for Natural News readers (while supplies last). 
 Breakthrough filter removes nearly 100% of hundreds of contaminants. No plumbing needed. SHIPS TODAY .</t>
   </si>
   <si>
+    <t>6516    THE END GAME closes in on the Clintons as the ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6516    Mike Adams, NaturalNews Editor
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Food poverty: 49 million Americans struggle to put food on the table as Obama's economic schemes collapse 
 Wednesday, November 02, 2016 by: J. D. Heyes Tags: food poverty , hunger , Obama administration (NaturalNews) A Democratic presidential nominee – Hillary Clinton, who is by far the "establishment candidate" in this year's presidential race – wants to take over from another Democratic president, Barack Obama. She is promising to carry on his "successful" economic policies by promising to essentially double down on them .And yet, by any true measure, the economy has been a disaster under Obama. Real growth has nearly flat-lined , real unemployment figures – when a proper count is taken – is far higher than what is being "officially" posted by the administration , and 43 million Americans cannot get enough food without government assistance.In fact, on that last point and as reported by Natural Blaze , in the Obama economy, 1-in-6 Americans are going to bed hungry on most nights, if not every night.And Clinton wants to double down on Obama's economic policies? How can such a great economic recovery produce so many hungry Americans? For the past eight years, Americans have had to listen to lectures from Obama (and other Democrats) about how we, as a first-world nation, should be able to afford things like healthcare and offer a free college education to our citizens (and, increasingly, to non-citizens ). But shouldn't a nation that produces so much excess food each year that we export it to the tune of tens of billions of dollars be able to feed its people too?Of course. But malnutrition during the "great economic recovery" of the Obama years is rising at an alarming rate in the U.S. That's because in real terms, workers' wages are falling, and it is becoming more difficult for families and individuals to earn enough to put decent food on their tables."For many, particularly the low paid [sic], this means two things: fuel and food poverty ," Natural Blaze reported.Low salaries combined with stagnant wages, jobs going to illegal immigrants and part-time work rising as Obamacare forces fewer companies to retain full-time employees, mean that food is increasingly seen as a luxury. And of those who can still afford food, many have to settle for cheap, nutrition-poor junk foods and foods high in starches, carbohydrates and calories. Now, winter approaches, and with it the inevitable supply challenges of natural gas and heating oil, which traditionally produce higher prices.But the establishment media is part of the problem. For example, in February Bloomberg reported that 1-in-7 Americans were on food stamps, despite an economic recovery . No one should ever be hungry in America unless they choose to be What recovery? Obama's economy is growing at about 1–2 percent a quarter – far below what is needed to sustain economic growth to the extent that it would lower our debt and provide well-paying jobs to the tens of millions needing them.So, the caveat is disingenuous. A more accurate story would have reflected on the 1-in-7 figure as it pertained to a real lack of opportunity among Americans to find better employment opportunities. In fact, the story makes no sense when you analyze it; either the economy is really good and a 1-in-7 ratio is no big deal, or the ratio is a big deal because the so-called economic recovery isn't reaching enough people. Which is it?It's the latter of course. And while America will always have a portion of the population that is too sick, too old or too lazy to produce – and they will be a net drain on the Treasury – the goal of any administration ought to be to adopt sound financial policies or to rescind policies that serve as impediments to economic growth. In today's America, that generally means thinning out the massive bureaucracy that is not only robbing millions of a better life because of their negative impact on business and industry, but is actually causing them to go hungry.And that should never happen in America. So why is it? Sources:</t>
+  </si>
+  <si>
+    <t>6517    Food poverty: 49 million Americans struggle to...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6517    J. D. Heyes
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Woman awarded $70M after contracting cancer from Johnson &amp; Johnson talcum powder 
 Wednesday, November 02, 2016 by: David Gutierrez, staff writer Tags: talc , ovarian cancer , jury award (NaturalNews) Once again, a St. Louis jury has ruled that Johnson &amp; Johnson damaged women's health by engaging in a decades-long coverup about the potential risks of talcum powder ("baby powder") as a feminine hygiene product. On October 27, Johnson &amp; Johnson was ordered to pay $70.1 million to Deborah Giannecchini of Modesto, California, who received an ovarian cancer diagnosis in 2012.For 40 years, Giannecchini had used Johnson &amp; Johnson's Baby Powder to keep her genital area dry, a use promoted by the company.The main ingredient in talcum powder is talc, a mineral widely used in paints and plastics as well as cosmetics, where it is used to absorb moisture. Some evidence suggests that regular exposure to talc, particularly in the genital area, can increase the risk of ovarian cancer.The jury found Johnson &amp; Johnson guilty of negligence for failing to warn customers of this fact. Conspiracy to conceal risks Ovarian cancer is a rare but highly lethal disease. Well-established risk factors include obesity, not having children, estrogen therapy after menopause, and a family history of ovarian or breast cancer.The evidence linking talc to ovarian cancer is compelling but not yet conclusive. The International Agency for Research on Cancer lists talc as a "possible" carcinogen.Among the robust studies suggesting a connection are two meta-analyses that found a roughly one-third increase in ovarian cancer risk among women who were regularly exposed to talc . The first, published in 2003, found the connection in all cases. The second, published in 2013, found it only in women who applied talc directly to the genital area.The case marks the third guilty verdict against Johnson &amp; Johnson over this issue. St. Louis juries have previously slapped the company with $55 million and $72 million judgments.The first case was filed by the family of Jackie Fox of Birmingham, Alabama, who had died of ovarian cancer after long-term use of talcum powder. In that case, the jury found the company guilty not just of negligence, but also of "failure to warn and conspiracy to conceal the risks of its products."Another 2,000 lawsuits are pending. Thirty years of deception Even after the recent verdict, Johnson &amp; Johnson continues to insist on the safety of its product, including for genital use. In its home state of New Jersey, the company has successfully gotten two lawsuits over the issue dismissed. It is appealing all three guilty verdicts from Missouri.Investors seem to believe the company will prevail. Its stock price seemed unaffected by the recent guilty verdict.Alexandra Scranton, director of science and research at Women's Voices for the Earth, has characterized Johnson and Johnson's behavior as typical of Big Pharma and other companies that go to extreme lengths to keep selling products even as evidence mounts of their dangers.Scranton said that documents uncovered during the Fox trial show that for decades, Johnson &amp; Johnson sought to take advantage of the scientific uncertainty over the talc-ovarian cancer link, downplaying the potential risk rather than pursing a "clearly more ethical role, to take a precautionary approach." Indeed, Scranton notes, the company "poured money over years into defending talc."Among the documents revealed during the Fox case are internal memos showing that Johnson &amp; Johnson had been preparing to be sued over the health risks of talc for 30 years. In one 1997 memo, a medical consultant warned that anyone who continued to deny a connection between ovarian cancer and genital talc use would eventually be seen as on par with tobacco companies denying a cancer link: "denying the obvious in the face of all evidence to the contrary."Another memo laid out a strategy to counter falling talc sales caused by health concerns by more aggressive marketing to minority communities. Sources for this article include: http://www.naturalnews.com/053112_Johnson_&amp;_talc_ovarian_cancer.html Health Ranger Approved AquaTru Water Filter Back in Stock 
 I've secured 500 units of the amazing AquaTru at $100 off for Natural News readers (while supplies last). 
 Breakthrough filter removes nearly 100% of hundreds of contaminants. No plumbing needed. SHIPS TODAY .</t>
+  </si>
+  <si>
+    <t>6518    Woman awarded $70M after contracting cancer fr...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>6518    David Gutierrez, staff writer
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>By Rmuse on Thu, Oct 27th, 2016 at 10:36 am To avoid climate-ending global temperature rise, it is critical for the world to transition off fossil fuels and embrace renewable, clean energy sources. Share on Twitter Print This Post *The following is an opinion column by R Muse* 
@@ -1425,6 +2049,14 @@
 The IEA couldn’t pass up the chance to note one “sticking point” in their otherwise encouraging report; “ persistent challenges of heating and transportation energy ” that renewables are not affecting. However, since the IEA only monitored and tracked the world’s transistor from oil and gas to biofuels, they note that as electric and hybrid vehicles continue to increase around the world, they will be connected to the same electrical grid that is steadily getting a little greener, significantly cheaper, and one Hell of a lot more friendly for the climate and the people. 
 It is a mystery how Republicans beholden to the Koch brothers and dirty fossil fuel industry, particularly the dirty coal industry, will absorb this good news. In the past eight years, Republicans , the Kochs, their lobbyists at the Heritage Foundation, Americans for Prosperity, and the American Legislative Exchange Council (ALEC) have made killing renewable energy one of their primary goals. It is likely that the IEA’s report will signal they are not winning the war on renewable energy and in the past that may have been worrisome. But now that more Americans are benefitting from renewable energy, particularly solar, Republicans will have a difficult time convincing them to stop getting free electricity from the Sun and saving the climate for their children’s future; something the IEA’s report never mentions. 
 image: J Pat Carter</t>
+  </si>
+  <si>
+    <t>7196    The Media Ignores the Good News On Climate Change
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7196    Rmuse
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>By Hrafnkell Haraldsson on Fri, Oct 28th, 2016 at 9:19 am With the election just 10 days away, Trump has only donated just $56m of the $100m he promised and won't even invest in his own campaign Share on Twitter Print This Post 
@@ -1445,6 +2077,14 @@
 Full FEC report can be found here .</t>
   </si>
   <si>
+    <t>7212    In the First 19 Days of October, Trump Gave Ju...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7212    Hrafnkell Haraldsson
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>The Washington Post reported : 
 Donald Trump raised just $29 million for his presidential campaign committee in the first 19 days of October, about half as much as his Democratic rival, putting him at a severe financial disadvantage in the crucial final days of the White House contest, new campaign finance reports filed Thursday night showed. 
 The GOP presidential nominee had just $16 million left in his campaign coffers on Oct. 19, compared to Hillary Clinton’s $62 million. When the cash reserves of their joint fundraising committees are included, Clinton’s war chest grew to $153 million, while Trump’s totaled $68 million. 
@@ -1452,6 +2092,14 @@
 The plan for Trump is for the campaign to continue to limp along with lots of rallies, which are good for Trump’s ego, but not effective in getting voters to the polls. Trump promised to donate $100 million to his campaign but has only given $56 million . The billionaire who promised to self-finance has run his presidential campaign into the ground. Trump took ten times more money out of his campaign in reimbursements to his own businesses than he gave in October. 
 Fundraising is an indicator of expected election outcomes. The money tends to go towards the winner at the end of an election. Hillary Clinton is having no trouble raising money, which suggests that enthusiasm is high among her supporters. Trump’s cash crush points to a depressed base that doesn’t expect him to win. 
 Trump has done what he does best. He talked a big game while bankrupting the Republican Party for his own personal gain. Convincing Republicans to give him their nomination may go down in history as Trump’s biggest con of all.</t>
+  </si>
+  <si>
+    <t>7215    “Billionaire” Donald Trump’s Presidential Camp...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7215    Jason Easley
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>By Jason Easley on Fri, Oct 28th, 2016 at 1:02 pm If Donald Trump wants to keep Arizona in the Republican column, he will have to spend some of his very limited time, money, and resources there, because Hillary Clinton is campaigning in the red state next week. Share on Twitter Print This Post 
@@ -1464,6 +2112,14 @@
 The Clinton campaign is trying to stretch Trump past his breaking point by making a serious play for Arizona. It is a brilliant move from a campaign that has outwitted its Republican opponent at every turn.</t>
   </si>
   <si>
+    <t>7218    Hillary Clinton Is Brilliantly Forcing Broke T...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7218    Jason Easley
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>A PPP poll of Florida found: 
 Candidates who have been vocal in their support for gun violence prevention perform well in Florida. Democratic presidential nominee Hillary Clinton leads Republican Donald Trump by four points (48/44), and Democratic U.S. Senate candidate Patrick Murphy is tied with Republican incumbent Sen. Marco Rubio, 46/46. By an almost two to-one margin, 51/26, Florida voters would be more likely to vote for a candidate for U.S. Senate who supports strengthening gun laws, suggesting ample room for growth for gun safety candidates before the election next month. 
 The poll was conducted by PPP the Americans for Responsible Solutions PAC, and it illustrates the dilemma that the Florida Senate race has created for Democrats. Democratic leadership is divided on spending more money on expensive Florida media, but there are polls that suggest that Sen. Marco Rubio’s Democratic challenger, Rep. Patrick Murphy, has a chance of winning the seat. 
@@ -1472,6 +2128,14 @@
 Sen. Rubio has refused to commit to serving his full Senate term, which should tell voters all they need to know about his commitment to them. 
 Democrats have a chance to solidify their potential Senate majority by sending Marco Rubio home. With cash to spend and less than two weeks left in the campaign, they’d be foolish not to take it. 
 Marco Rubio Inches Closer To Unemployment As Poll Shows Florida Senate Race Tie added by Jason Easley on Fri, Oct 28th, 2016</t>
+  </si>
+  <si>
+    <t>7219    Marco Rubio Inches Closer To Unemployment As P...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7219    Jason Easley
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>By Sarah Jones on Sat, Oct 29th, 2016 at 12:03 pm Donald Trump uses sexual shaming and humiliation of women as simplistic revenge for the slightest felt spurn. A newly surfaced video via Ryan Grim shows the Trump Humiliation game in action, which I walk everyone through from the POV of the woman. Share on Twitter Print This Post 
@@ -1508,6 +2172,14 @@
 Neither are we by you, Mr. Trump. Neither are we.</t>
   </si>
   <si>
+    <t>7235    Women Everywhere Cringe in Horror Watching Don...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7235    Sarah Jones
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>By Rmuse on Sat, Oct 29th, 2016 at 3:23 pm He is taking the conspiracy theories and obstruction that dogged his presidency from day one and throwing them back in Republicans' faces.   *The following is an opinion column by R Muse* 
 Although this campaign season has been interesting, to say the least, there is something happening one never thought would occur. After spending nearly eight years demonizing, obstructing, and criticizing every and anything about the President of the United States, Republicans desperate to save their jobs are beginning to tout their “ imagined ” close ties to the Democratic President whose approval rating and popularity are growing. 
 It is hypocritical, to say the least, and at some point a result of a toxic Republican candidate for the presidency, but for some GOP candidates it is a very dangerous strategy. If any Republican believed President Obama would allow them to take advantage of him after spending eight years assailing him as illegitimate and corrupt, they were sadly mistaken and underestimated the commander in chief’s tolerance during an election. 
@@ -1524,6 +2196,14 @@
 And the fact is that there are a lot of politicians who knew better. There are a lot of senators who knew better but they went along with these stories because they figured you know what this’ll help rile up the base, it’ll give us an excuse to obstruct what we’re trying to do, we won’t be able to appoint judges, we’ll gum up the works, we’ll create gridlock, it’ll give us a political advantage. So they just stood by and said nothing and their base began to actually believe this stuff. So Donald Trump did not start this. Donald Trump didn’t start it, he just did what he always did which is slap his name on it, take credit for it, and promote it. That’s what he always does. And so now, when suddenly it’s not working and people are saying wow this guy’s kind of out of line, all of a sudden these Republican politicians who were okay with all this crazy stuff up to a point suddenly they’re all walking away. Oh, this is too much. So when you finally get him on tape bragging about actions that qualify as sexual assault and his poll numbers go down, suddenly that’s a deal-breaker. Well what took you so long! What the heck! What took you so long! All these years!” 
 The Mother Jones piece made out like President Obama is seeking retribution, or “ revenge ” against Republicans for their impropriety as legislators over the past eight years. Without knowing what goes on in the President’s head to motivate his campaign rhetoric; that is a hard call to make with any surety. Barack Obama does not strike one as being vindictive. 
 The President is, though, an accomplished campaigner and as his tenure in the White House is winding down and Republicans are struggling to find an identity apart from Donald Trump, it is prudent of the President to remind voters exactly what Republicans are about and what they are about is precisely why Donald Trump is their standard bearer; and why Republicans are hypocrites for both abandoning Trump and embracing the man they obstructed and tried to remove from the White House.</t>
+  </si>
+  <si>
+    <t>7239    President Obama Gets Real, Not Revenge, On Rep...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7239    Rmuse
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>By Reuters   5:51 pm Democratic nominee Hillary Clinton leads Republican Donald Trump by 15 percentage points among early voters surveyed in the past two weeks, according to the Reuters/Ipsos States of the Nation project.   
@@ -1549,6 +2229,14 @@
 Hillary Clinton enjoys solid lead in early voting: Reuters/Ipsos poll added by Reuters on Sat, Oct 29th, 2016</t>
   </si>
   <si>
+    <t>7244    Hillary Clinton enjoys solid lead in early vot...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7244    Reuters
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>By Hrafnkell Haraldsson   5:12 pm Trump sat on the stage, "looking for all the world like an honored donor to the cause," and then got up and left without leaving a donation   
 Not only is Donald Trump a liar and a thin-skinned crybaby, but he is selfish, never spending his own money when he can spend somebody else’s. This behavior was never more in evidence than The Washington Post ‘s David Fahrenthold’s account of a 1996 a ribbon-cutting held by the Association to Benefit Children for a nursery school, when Donald Trump showed up, sat down to appear to be a great supporter, and then left without leaving a donation: 
 As Sopan Deb tweeted , 
@@ -1559,6 +2247,14 @@
 That philanthropist isn’t the real Trump. The only person Trump visibly cares about is Donald Trump. He uses his Foundation to buy himself nice things, spending other peoples’ money for luxury items and collectibles. When he does make donations, it is again, because he gives no money to his own Foundation, with other peoples’ money. 
 Fahrenthold says that the only donation of Trump’s own money the paper could find from the period of 2008 to today, is a $10,000 “gift to the Police Athletic League of New York City, in 2009.” 
 For a man as rich as Trump claims to be, $10,000 in eight years is nothing to brag about. Not that this stops the monumental, deadbeat hypocrite that is Donald Trump from bragging anyway.</t>
+  </si>
+  <si>
+    <t>7245    David Fahrenthold Strikes, Exposing Donald Tru...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7245    Hrafnkell Haraldsson
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>By Rmuse   10:03 am "The archdiocese holds the matter among its highest priorities. If passed, the law would have significantly detrimental impacts on our parishes, our ministries"   *The following is an opinion column by R Muse* 
@@ -1581,6 +2277,14 @@
 h/t Patheos</t>
   </si>
   <si>
+    <t>7260    The Catholic Church Uses Tax-Exempt Funds To S...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7260    Rmuse
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>By Hrafnkell Haraldsson   9:24 am "We can’t do waterboarding, it’s far too tough! We’re fighting on a different level! we have to be tough...and in some cases pretty vicious"   
 Donald Trump complains about spending a fortune on a war in the Middle East that he supported, a war brought to us by a Republican administration that knowingly lied about the facts. Trump is also lying about the facts, which at least brings our country’s Middle East ordeal full-circle. 
 According to Trump, speaking at a rally in New Mexico – and you’ve no doubt seen the barrage of commercials repeating the same lie – “Hillary brought disaster to Iraq, Syria, Libya and every place that she touches. She empowered Iran and she unleashed ISIS by leaving that big vacuum.” 
@@ -1600,12 +2304,28 @@
 This is a man who, no matter how much he claims otherwise, does not understand how the world works. And he does not understand that by promoting torture, he is only fulfilling the wildest propaganda wishes of the Islamic State, by promising to do precisely what they want him to do.</t>
   </si>
   <si>
+    <t>7261    Donald Trump Whines Because ISIS Cuts off Head...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7261    Hrafnkell Haraldsson
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>The Washington Post reported: Donald Trump’s hiring of pollster Tony Fabrizio in May was viewed as a sign that the real estate mogul was finally bringing seasoned operatives into his insurgent operation. 
 But the Republican presidential nominee appears to have taken issue with some of the services provided by the veteran GOP strategist, who has advised candidates from 1996 GOP nominee Bob Dole to Florida Gov. Rick Scott. The Trump campaign’s latest Federal Election Commission report shows that it is disputing nearly $767,000 that Fabrizio’s firm says it is still owed for polling. 
 Trump’s decision not to pay his pollster is the first of this type of story but given Trump’s history of not paying for services performed; it won’t be the last. It is astonishing that the party of supposed fiscal responsibility and conservativism would put someone forward as their presidential nominee who has made a career out of running up debt for personal gain. 
 Donald Trump’s mentality has always been to put himself first. Paying his debts never seems to have been a top priority for Trump. His businesses have been stiffing vendors and contractors for decades, so it isn’t surprising that he would bring this same mentality to the presidential campaign. 
 Anybody who works for the Trump campaign would be smart to get paid up front because Donald Trump’s version of making America great involves taking your money and putting it in his own pocket. 
 Trump Is Deadbeating On His Campaign Debts By Refusing To Pay His Own Pollster added by Jason Easley on Mon, Oct 31st, 2016</t>
+  </si>
+  <si>
+    <t>7267    Trump Is Deadbeating On His Campaign Debts By ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7267    Jason Easley
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>By Sean Colarossi on Mon, Oct 31st, 2016 at 8:47 pm While the media continues to focus on the Clinton email non-story, news about Donald Trump's ties to Russia continues to gain steam. Share on Twitter Print This Post 
@@ -1624,6 +2344,14 @@
 With just a week until Election Day, this is the explosive story the media should be focusing on. It’s critical that the American people know what kind of financial ties a potential president has with an American adversary, especially when that adversary is Russia.</t>
   </si>
   <si>
+    <t>7269    New Report Uncovers Secret Trump Server That R...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7269    Sean Colarossi
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>By Sean Colarossi on Mon, Oct 31st, 2016 at 9:52 pm Trump used a “tax avoidance maneuver so legally dubious his own lawyers advised him that the Internal Revenue Service would likely declare it improper if he were audited.” Share on Twitter Print This Post 
 While Donald Trump has repeatedly said he took advantage of loopholes that allowed him to legally pay nothing in federal income taxes for decades, the New York Times reported on Monday that Trump may have actually crossed a legal boundary to avoid paying his fair share. 
 According to the Times, the Republican nominee used a “tax avoidance maneuver so legally dubious his own lawyers advised him that the Internal Revenue Service would likely declare it improper if he were audited.” 
@@ -1639,6 +2367,14 @@
 The latest New York Times story is just the latest installment of Trump’s shady business background. The media should spend the remaining week of this campaign demanding more answers from a man who wants to be in charge of the country’s pocketbook.</t>
   </si>
   <si>
+    <t>7270    Donald Trump May Have Broken The Law To Avoid ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7270    Sean Colarossi
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>The letter from James Comey about the Hillary Clinton email scandal has motivated Democrats, as the Clinton campaign says they raised $11.3 million online in the last 72 hours. 
 Lisa Lerer of the AP reported: Clinton campaign says they've raised $11.3M online in last 72 hrs – the most $s since Clinton became nominee at the convention 
 — Lisa Lerer (@llerer) November 1, 2016 
@@ -1646,6 +2382,14 @@
 Democrats have seen through Comey’s letter and the Republican spin. The October surprise has failed. Instead, it has made Hillary Clinton even stronger while giving her campaign more resources to use to close out the presidential election. 
 As a political tactic, the Comey letter is harming Republicans. 
 Republicans have thrown everything that they can think of at Hillary Clinton, and nothing has stopped her. Hillary Clinton and her supporters continue to grow stronger, while Donald Trump is marching back into reality television star C-list celebrity obscurity.</t>
+  </si>
+  <si>
+    <t>7278    Comey Letter Hurts GOP As Hillary Clinton Rais...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7278    Jason Easley
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">Interviews US Democratic presidential nominee Hillary Clinton stands with President Barack Obama during an election eve rally on November 7, 2016 in Philadelphia, Pennsylvania. 
@@ -1661,6 +2405,14 @@
 “Donald Trump is going to restore a measure of sanity. He is going to end the wars in the Middle East. He is going to restore the reputation of the United States for integrity, and dealing with the international community,” he noted. 
 “He respects Russia as should any president of the United States, where Barack Obama and Hillary Clinton fell miserably short,” the analyst pointed out. 
 “I believe we are already seeing signs that the situation for the world community is going to vastly, dramatically improve, that the United States is going to conduct itself in accordance with international law, and restrain from regime change, and hopefully we will no longer be the greatest aggressor nation in the world,” Fetzer said in his concluding remarks. Loading ... </t>
+  </si>
+  <si>
+    <t>7507    PressTV-Americans ‘repudiated Clinton foreign ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7507    NaN
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">Politics Vintage cars are parked in the forecourt of Buckingham Palace in London, part of a display of 90 historic British-built motor vehicles to commemorate Queen Elizabeth II's 90th birthday. (Photo by AFP) 
@@ -1680,6 +2432,14 @@
 The grant is financed by the profit coming from the royal family’s 350,000 acres of land across the UK. Loading ... </t>
   </si>
   <si>
+    <t>7509    PressTV-Brits enraged by royal family’s costs
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7509    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>More Police move to disperse students protesting outside the parliament in Cape Town, South Africa, October 26, 2016. (Photo by Reuters) 
 Clashes have erupted outside South Africa's parliament as police struggled to disperse students protesting against financial hardships and the deteriorating economic situation in the country. 
 The protest on Wednesday outside the national assembly building in Cape Town saw a direct confrontation between the police and about 2,000 students. 
@@ -1694,6 +2454,14 @@
 Some senior members of Zuma’s African National Congress (ANC) have dismissed charges against Gordhan as politically motivated, calling on Zuma and the ANC’s senior figures to resign to save the party from the current political turmoil. Loading ...</t>
   </si>
   <si>
+    <t>7525    South Africa police clash with protesting stud...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7525    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Politics Leader of the Islamic Revolution Ayatollah Seyyed Ali Khamenei (R) and Finnish President Sauli Niinistö meet in Tehran on October 26, 2016. (Photos by leader.ir) 
 Leader of the Islamic Revolution Ayatollah Seyyed Ali Khamenei says Saudi Arabia’s killing of Yemenis is "the worst type of terrorism." 
 “Terrorism is not limited to terror acts committed by some unofficial groups, and mass killings of people by certain governments, such as the Saudi attack on people in a mourning procession in Yemen, which left hundreds killed and injured, are the worst type of terrorism,” the Leader said in a meeting with visiting Finnish President Sauli Niinistö in Tehran on Wednesday. 
@@ -1703,6 +2471,14 @@
 “These governments calculate all issues based on their own interests, and they do not think about eradicating the malady of terrorism in Iraq or Syria,” the Leader added. 
 Ayatollah Khamenei further criticized UN Secretary General Ban Ki-moon’s failure to condemn the Saudi war on Yemen. 
 “The UN secretary general said explicitly that it is not possible for the body to condemn the killing of Yemeni children as the UN depends on the Saudi government’s money,” the Leader said, stressing that this approach is indicative of the “deplorable moral state” of politicians at the helm of international organizations. Loading ...</t>
+  </si>
+  <si>
+    <t>7536    Saudi killing of Yemeni people worst type of t...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7536    NaN
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Politics British Prime Minister Theresa May waits for the arrival of the King of Bahrain, Hamad bin Isa Al Khalifa outside 10 Downing Street in London on October 26, 2016. (Photo by AFP) 
@@ -1719,6 +2495,14 @@
 “This is a market on our doorstep, ready for further exploitation by British firms. The membership fee seems rather small for all that access. Why are we so determined to turn our back on it?” he wrote, calling the EU a “boon for the world and for Europe.” Loading ...</t>
   </si>
   <si>
+    <t>7541    Outrage as May’s real idea of Brexit at Goldma...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7541    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>On The News Line ©AFP 
 These are some of the headlines we are tracking for you in this episode of On the News Line: 
 The Syria conundrum 
@@ -1727,6 +2511,14 @@
 Things seem to be falling apart in Europe which many believe is under strain from many factors ranging from the Brexit to the rise of the far-right across the European political spectrum to the refugee crisis, which is the worst to hit the continent. The prospect of the European Union seems so bleak that it has rung the alarm in Germany. German Foreign Minister Frank-Walter Steinmeier has warned: "The financial crisis, the refugee influx into Europe and the shock from the Brexit referendum in Great Britain have brought the European Union into violent turmoil.” Steinmeier warned that this might lead to the collapse of the EU. 
 Saudis aim to starve Yemenis 
 Reports have surfaced that Saudi Arabia is "deliberately targeting impoverished Yemen’s farms and agricultural industry." Increasing evidence suggests that the kingdom is not merely bombing civilians, but it is systematically targeting infrastructure survivors will need to avoid starvation when the war is over. That includes water infrastructures, and even farms. Loading ...</t>
+  </si>
+  <si>
+    <t>7558    The Syria conundrum - Press TV
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7558    NaN
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Politics US Democratic presidential nominee Hillary Clinton listens as Senator Bernie Sanders (I-VT) speaks during an event at University of New Hampshire September 28, 2016 in Durham, New Hampshire. (Photo by AFP) 
@@ -1738,6 +2530,14 @@
 Sanders – a former primary rival of Clinton – suspended his campaign in July and endorsed the former secretary of state, despite leaked emails that showed top officials at the Democratic National Committee (DNC) privately planned to undermine Sanders’s presidential campaign. 
 Sanders had earlier said that he would not endorse Clinton for president until they meet and he could measure her commitment to combating wealth inequality, and other issues that powered his presidential campaign. 
 Sanders’ emphasis on US income inequality and the influence of corporate money on elections and the government helped him attract millions of voters to his campaign. Loading ...</t>
+  </si>
+  <si>
+    <t>7566    Sanders calls Trump 'political coward' over vo...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7566    NaN
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Pakistan Pakistan's cricketer turned politician Imran Khan (C) talks to journalists outside the Supreme Court in Islamabad on October 20, 2016. (Photo by AP) 
@@ -1756,6 +2556,14 @@
 People in Pakistan, with Imran Khan at the helm, are asking for an inquiry to determine how Sharif’s children made all that money to buy offshore companies and real estate in London's prime locations, and whether they had paid their due tax on their income. Loading ...</t>
   </si>
   <si>
+    <t>7572    Pakistan police detain dozens of Imran Khan's ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7572    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Society The US is charging dozens of people with participation in a major Indian-based fraud. 
 The US Justice Department has charged 61 people and entities with involvement in a major India-based scam that targeted thousands of Americans. 
 The scheme involved Indian call centers, where some workers called American citizens and convinced them to pay their non-existent debts by impersonating Internal Revenue Service (IRS), immigration and other federal officials, the Justice Department said in a statement on Thursday. 
@@ -1768,6 +2576,14 @@
 In a bill of indictment for the scammers, the US District Court for the Southern District of Texas had pointed to scare tactics employed by the operators of call centers in Ahmedabad, in the Indian state of Gujarat. 
 They “threatened potential victims with arrest, imprisonment, fines or deportation if they did not pay taxes or penalties to the government,” it read. 
 The extent of the scam was so vast that major federal organizations such as Immigration and Customs Enforcement, Treasury, Homeland Security, US Secret Service and police had to help with the investigation, according to the Justice Department. Loading ...</t>
+  </si>
+  <si>
+    <t>7573    US charges 61 over India-based scam involving ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7573    NaN
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>More Filipino fisherman Arnel Balbero (R), who was held hostage for nearly five years by Somali pirates, cries as he meets his relatives after arriving at the Manila International Airport on October 28, 2016. (Photo by AFP) 
@@ -1793,6 +2609,14 @@
 Piracy off the coast of Somalia has reduced significantly in recent years due to stronger international naval presence. Loading ...</t>
   </si>
   <si>
+    <t>7598    Five Filipino hostages freed by Somali pirates...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7598    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Politics Former British Prime Minister Tony Blair says UK voters ‘have to build the capability to mobilize and to organize’ against Brexit. 
 Former British Prime Minister Tony Blair says Britain should keep its “options open” on whether or not to leave the European Union until after Brexit talks with the bloc are completed. 
 During an interview on Friday with BBC Radio 4's “Today” program, Blair described the EU referendum as “a catastrophe” and said UK voters should be given the option of a second EU referendum. 
@@ -1805,6 +2629,14 @@
 If the UK loses its access to the EU’s single market, the resulting increase in the costs of doing business and exporting to the EU would hurt Britain’s competitive position in Europe. Loading ...</t>
   </si>
   <si>
+    <t>7605    Tony Blair suggests a second referendum to rev...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7605    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Interviews A protester throws a glass bottle containing paint at a police armored personnel carrier during anti-regime demos in the village of Sitra, south of Manama, February 14, 2016. (Photo by Reuters) 
 The Fourth High Criminal Court of Bahrain has sentenced 15 political opponents to long jail terms and also revoked the citizenship of all of them. While several international rights groups have criticized the Al Khalifa regime’s harsh crackdown on the Bahraini opposition, the Western powers turn a blind eye to the Arab state’s violations of human rights. 
 Edward Corrigan, an international human rights lawyer, told Press TV’s Top 5 program that the Western powers are trying to whitewash the crimes committed by the Arab dictatorships in the Persian Gulf region because such regimes are considered the West’s “lap dogs.” 
@@ -1813,6 +2645,14 @@
 Elsewhere in his remarks, Corrigan said the definition of terrorism in Bahrain covers any kind of opposition, because the regime does “not want to allow any sort of political movements there to try to reform the system, to redress this massive discrimination against the Shia population, and to have any sort of voice for democracy; so, all of that is ‘terrorism.’” 
 He added, “It is against the international law to remove people’s nationality from them and this is an extreme sort of punishment, very draconian, as they’re condemned by the international human rights organizations and other organizations.” 
 Manama has been cracking down on dissent since February 2011, when an uprising began against the regime. Scores of people have lost their lives and hundreds of others sustained injuries or got arrested as a result of Al Khalifah regime’s harsh crackdown on anti-regime activists. Loading ...</t>
+  </si>
+  <si>
+    <t>7606    West covering up crimes of Bahraini regime: An...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7606    NaN
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">During the height of the Cold War, the CIA attempted to develop mind control techniques with the MKULTRA program. As it happens, the Communists already had a leg up on them. We’ll explore how this was done, along with some new twists.
@@ -1843,6 +2683,14 @@
 </t>
   </si>
   <si>
+    <t>7939    How A Communist Brainwashing Method Was Export...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7939    Beau Albrecht
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">At the third debate, Donald Trump was asked if he would accept the results of the election. Trump responded that he would have to look at the process to determine if everything was done fairly before he could accept it. The media went berserk claiming that Trump was undermining democracy. But is the US system really rigged? And if it is, can Trump overcome it?
 Why rig the system? The elite realize that their time is short.
 Woe to the inhabiters of the earth and of the sea! for the devil is come down unto you, having great wrath, because he knoweth that he hath but a short time. Revelation 12:12
@@ -1869,6 +2717,14 @@
 </t>
   </si>
   <si>
+    <t>7941    Donald Trump And His Supporters Are Fighting A...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7941    Michael Sebastian
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Home This Month Popular 4 Reasons Why Your Diet Sucks 4 Reasons Why Your Diet Sucks March 2, 2013 19 Comments Body 
 1. You have no idea how much you are eating. 
 Ever wonder why you can’t gain any muscle or lose any body fat? Well, the first place to look for the answer is your diet. Are you eating the requisite amount of calories for your goals? If you want to gain muscle you have to eat more calories than you burn, whereas if you want to lose body fat you have to eat fewer calories than you burn. There is no way around this simple fact. Even though this is nothing more than a grade school physics problem, I’m still baffled by the number of guys out there whining about being “hardgainers” or “endomorphs.” Invest in a food scale and track your intake. It’s really not that hard. 
@@ -1879,6 +2735,14 @@
 4. You think there is one “best” diet for everyone 
 I’ve been in this game long enough to know that there is no one particular diet that is best for everyone. I remember about 10 years ago people were losing their minds over The Atkins Diet. About 5 years later people moved on to The Paleo Diet, and now Intermittent Fasting is all the rage. New diets will always be on the horizon, which pretty much guarantees that arguments on the internet about which diet is the “best” will never end. I do not know what the “best” diet is. What I do know is that all good diets have several things in common such as being based around whole foods, and acknowledging the importance of portion control, protein, fiber, and other important nutrients. Aside from these basics, whether you eat low carb or high carb, three meals a day or six meal, is entirely up to you and your lifestyle but make sure you get the basics down first. 
 If you can get a handle on just these four areas of your nutrition you will be ahead of the vast majority of individuals out there.</t>
+  </si>
+  <si>
+    <t>7944    Comment on 4 Reasons Why Your Diet Sucks by Th...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7944    The Most Important Concepts The Manosphere Tau...
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2008,6 +2872,14 @@
 </t>
   </si>
   <si>
+    <t>7945    The Wisdom Books Of The Old Testament
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7945    Roosh Valizadeh
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Home This Month Popular 5 Ridiculously Stupid Things Men Keep Doing For Women 5 Ridiculously Stupid Things Men Keep Doing For Women David G. Brown 
 David is a lifelong dissident and intellectual rebel. He despises political correctness, which replaces real, needy victims with narcissistic leftists out for a free meal. Though still a young man, he has watched society descend into its present morass with great sadness, combined with a determination to help make things better. He tweets when there's something worth tweeting here . October 28, 2016 Girls 
 Forget the movies that set aloof men against love-seeking women. It is men who are the hopeless romantics much, if not most of the time. And they express this extraordinary naivety by engaging in stupid behaviors that their fathers and other male role models should have beaten out of them. Though feminism, demographic trends, and socioeconomic realities encourage women to be entitled prima donnas, men add to the feedback loop by rewarding modern-day princesses. 
@@ -2029,6 +2901,14 @@
 Perhaps the saddest thing about the man who moves for his girl is that when he wants even a fraction of the favor he gave her, he’s often left in the lurch. Don’t make this mistake. Either she must move to you or you move to her for a lot of reasons that don’t revolve around her. If the relationship fails (and most of them do), you leave yourself in an equal or better position than the one you would otherwise be in. Don’t follow the crowd of thirsty males Too many men slave away in a female desert. Girls are not non-existent, but they’re too often low-quality relative to what a man is willing to do for them. 
 Snap yourself out of these behaviors and help your friends shake them off, too. You may not indulge in them regularly, but the temptation to perform them at least sometimes is likely to be there. More broadly, we need to see a seismic shift in the way many men act. Become part of the solution. 
 So what’s just as bad as an entitled woman? A man who encourages her entitlement with obsequious validation.</t>
+  </si>
+  <si>
+    <t>7947    5 Ridiculously Stupid Things Men Keep Doing Fo...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7947    David G. Brown
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">Alain Soral is an influential French-Swiss thinker, author, and filmmaker. His beliefs are summarized as “French Third Position,” basically a third party for those that reject the traditional left and right political views, and there have been Third Position movements in many European countries over the past several decades.
@@ -2061,6 +2941,14 @@
 An excellent summary of Soral and his beliefs is available here .
 Read More: What Is Neomasculinity? 
 </t>
+  </si>
+  <si>
+    <t>7948    How Influential French Author Alain Soral Beco...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7948    Max Roscoe
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">  How Population Growth, Industrial Agriculture And Environmental Pollution May Have Weakened Society How Population Growth, Industrial Agriculture And Environmental Pollution May Have Weakened Society 
@@ -2108,6 +2996,14 @@
 I hope that, ultimately, you are convinced to help me, and others like me, prevent our world from collapsing entirely into a miserable cyberpunk dystopia. Oct 30, 2016 Kshatriya Indransha</t>
   </si>
   <si>
+    <t>7952    How Population Growth, Industrial Agriculture ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7952    Kshatriya Indransha
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Home This Month Popular Airbnb Goes Full SJW And Demands Users Host Deviants Of Every Kind In Their Home Airbnb Goes Full SJW And Demands Users Host Deviants Of Every Kind In Their Home David G. Brown 
 David is a lifelong dissident and intellectual rebel. He despises political correctness, which replaces real, needy victims with narcissistic leftists out for a free meal. Though still a young man, he has watched society descend into its present morass with great sadness, combined with a determination to help make things better. He tweets when there's something worth tweeting here . October 30, 2016 News 
 You commit to treat everyone–regardless of race, religion, national origin, ethnicity, disability, sex, gender identity, sexual orientation or age–with respect, and without judgment or bias. 
@@ -2124,6 +3020,14 @@
 — Roosh (@rooshv) October 29, 2016 
 Just as Roosh swears by Booking.com, there are plenty of other options you can take in avoiding Airbnb from now on. Like Twitter, the company is quickly falling under the spell of the SJW crowd. It seems certain that, minus a backtrack, Airbnb and its reputation will follow Jack Dorsey’s company into the abyss. Unlike Twitter, though, Airbnb may never make the jump to publicly-listed company. 
 We live in very sad times for freedom. But there’s one freedom we can all exercise now–staying the hell away from Airbnb and its SJW madness.</t>
+  </si>
+  <si>
+    <t>7953    Airbnb Goes Full SJW And Demands Users Host De...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7953    David G. Brown
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">It wasn’t long ago that the Left represented the anti-establishment wing in politics. They used to fight against globalism (remember the anti-globalization movement?) even if their motives were different from those of today’s anti-globalists, as well as being against censorship, imperialist wars, and the expanding powers of governments and corporations. But today, you see leftists protesting against Brexit, attacking and censoring anyone who disagrees with the establishment (using Twitter on their Apple products while sipping on their Starbucks coffee), and are calling for war in Syria to challenge the Russians. So, just how the hell did did they end up becoming the patsies for the elites?
@@ -2158,6 +3062,14 @@
 </t>
   </si>
   <si>
+    <t>7954    How The Elites Are Using “Divide And Rule” To ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7954    Corey Savage
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">October has been a portentous month for the presidential campaign. In the beginning of the month women came forward accusing Trump of unwelcome advances. Later, FBI Director James Comey re-opened the criminal investigation of Hillary Clinton after finding more government emails on pervert Anthony Weiner’s computer. But the most important event may be a meme campaign that highlights Hillary’s support forcing women to register for the selective service.
 The meme campaign consisted of dozens of fake ads posted under the #DraftOurDaughters hashtag that highlight two very important policy points of the Hillary campaign: First, Hillary is a radical feminist. Thus she favors equality in all things—that includes equality in combat. As a step in that direction, Hillary told the Huffington Post that she will support legislation to register for the draft.
 Young women may think registering for the draft is not a big deal. They should reconsider because of the second policy of the Clinton campaign: She will almost certainly start a war against Russia—a war that will see those young women drafted into combat on the front lines.
@@ -2179,6 +3091,14 @@
 The #DraftOurDaughters campaign may be enough to wake some of them up from their folly.
 Read More: Hillary’s Alt Right Speech Bombed 
 </t>
+  </si>
+  <si>
+    <t>7958    Will #DraftOurDaughters Bring Hillary Down?
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7958    Michael Sebastian
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">The greatest trick that feminism has pulled is to convince the masses that women are presently disadvantaged relative to men.
@@ -2204,6 +3124,14 @@
 Here are my social media accounts: Twitter , Facebook , YouTube 
 Read More: Yet Another Media-Hyped Rape Accusation Is Debunked 
 </t>
+  </si>
+  <si>
+    <t>7959    Research Finds That Women As A Group Don’t Pay...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7959    Ricardo Sanchez
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">The above photo was snapped in Ferguson as thugs burned the city down. Could we see a repeat of that fateful event and perhaps a worsening of it soon to a city near you?
@@ -2237,6 +3165,14 @@
 </t>
   </si>
   <si>
+    <t>7960    Will There Be Riots In America The Day After D...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7960    Relampago Furioso
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">Return of Kings has a great variety of information about many subjects: improving your social life , health and fitness , tourism , among several others. Still, our political perspectives might be off-putting to some readers on the left. Although you could tune out whatever you don’t agree with. you might do well to take a closer look. Not all of us agree on everything, but we do have a rough consensus on some items.
 Our views on the political establishment The left blames corporations while the right blames the government, when in reality the two interests work together to subvert the will of the people
 It’s pretty easy to see that this site has a mainly conservative perspective, especially on social matters. Not all of us started out that way. Many of us began our journey away from the political orthodoxy after realizing what a mess feminism has made of society. Others have been turned off by political correctness. Once upon a time, I used to be liberal, and I know I’m not the only one. Be that as it may, some of us are actually friendly to liberalism .
@@ -2260,6 +3196,14 @@
 We understand; enlightenment is a painful process. We’re here for you. The truth hurts, but we’ll do the best we can to tell it like it is, which is much more than can be said for what you’ll see on television. I’ve merely scratched the surface here; stick with us and you’ll see how deep the rabbit hole goes.
 Read More: The 12 Step Social Justice Warrior Recovery Program 
 </t>
+  </si>
+  <si>
+    <t>7961    Friendly Guide To ROK’s World View For Recover...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7961    Beau Albrecht
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">Whether you are looking to attract a long-term girlfriend or wife, or you are experimenting with shorter-term liaisons, learning the art of seduction is essential. Reams of content have been written on the topic, both on ROK and elsewhere: indeed, it’s possible to get lost in a tsunami of pick-up advice.
@@ -2290,6 +3234,14 @@
 Want to find out how to approach and seduce sexy girls? Buy my bestselling book, The Seven Laws of Seduction . For daily game advice connect with me on Twitter @Troy7Laws 
 Read More: Why You Don’t Deserve That Perfect 10 
 </t>
+  </si>
+  <si>
+    <t>7963    5 Habits All Successful Seducers Share
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7963    Troy Francis
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">Lately, gun-free zones and gun control laws are all the rage among the globalists and liberals of all shapes (usually circular) and sizes .
@@ -2349,6 +3301,14 @@
 </t>
   </si>
   <si>
+    <t>7967    6 Reasons To Create Fat Control Laws And Obesi...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7967    Jean-Batave Poqueliche
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">The following post was sponsored by Chad Cocker and written by Matt Forney 
 Everyone says that you shouldn’t judge a book by its cover, but that’s really difficult when the cover makes you throw up a little in your mouth. That’s how I felt when I was tasked with writing a review of Chad T. Cocker’s Memoirs of a Misogynist: An Erotic Novel for Men . What kind of “man” would want to read an erotic novel? Romance and erotica are female masturbation material; trying to write a Harlequin novel men is like marketing lesbian porn to actual lesbians.
 Or so I thought.
@@ -2375,6 +3335,14 @@
 </t>
   </si>
   <si>
+    <t>7969    “Memoirs Of A Misogynist” Is A Brutal And Ente...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7969    Sponsored Post
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">  The Importance Of Patriarchal Religion To Marriage And Childrearing The Importance Of Patriarchal Religion To Marriage And Childrearing Brutus Centinel 
 Brutus Centinel is an American Christian patriarch, leading a family resistance to the decline. Because guns are "liberty's teeth," Brutus is a firearms enthusiast, and a militia officer. Brutus fights to help Americans across the political spectrum wake up to the tyranny of our corporate overloads. November 4, 2016 Religion 
 I live in America, and I am happily married, with kids. I do not write this because I am more manly, or intelligent, or successful than you; I am not. I write this to share the main key to my success: patriarchal, traditional religion. 
@@ -2393,6 +3361,14 @@
 Awhile back we helped another man who was on the verge of divorce. He was working 100 hours a week because he would not stand up to his employer, and had no energy to lead his family. We told him that the marriage counseling he was getting was bullshit (“talk about your feelings more!”), and that his slavish attitude toward his employer was making his wife lose respect for him. The women in our church also talked to his wife about choosing to be respectful and submissive, in spite of her rebellious emotions. 
 He cut back hours at work, which enabled him able to be captain of his ship again. This, along with training his wife received, helped her become more respectful. Now, his wife is less of a bitch, and they have sex several times a week. I doubt this would have happened without patriarchal religion. Children I’ve succeeded as a father! 
 We see that our culture is toxic, feminized, and immoral. Men need a place to raise children apart from these toxins, and church is a great place to do this. My kids go to Sunday School classes where they are taught to be respectful to me, my wife, and legitimate adult authorities. We have several families with well-disciplined children that we can trust won’t corrupt our kids. My wife often takes the kids for play-dates so she can socialize with wholesome women, which is a great alternative to sitting around on social media all day. Conclusion Patriarchal, traditional religion will not change female nature, but it can help restrain it. This is how past generations maintained civilization. I can confidently say that traditional religion is the main reason I can maintain a happy marriage in this cesspool of a culture. Those who are not religious might consider other institutions that may provide similar support for their marriage and child-raising.</t>
+  </si>
+  <si>
+    <t>7972    The Importance Of Patriarchal Religion To Marr...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7972    Brutus Centinel
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Home This Month Popular Is Western Civilization Worth Saving? Is Western Civilization Worth Saving? Beau Albrecht 
@@ -2416,6 +3392,14 @@
 It’s fashionable—especially in academia—to bash Western civilization. We’re not perfect, but nobody else is either. The truth is that we’re a creative, dynamic, and industrious people. Some of us are under the impression that we don’t have any culture (only other people do) but that’s mistaken. I could spend all day listing our major artists, composers, poets, philosophers, writers, theologians, and the like, but I only would scratch the surface. 
 Other cultures have made notable contributions—particularly East Asia and the Middle East—but the fact is that the majority of science and technology that makes life comfortable today originated in the Western world. Electricity, motorized transportation, refrigeration, telecommunications, computers (need I go on)? Yep, that was us. We shared our medical advances with the rest of the world, increasing longevity and quality of life around the globe. Whether the world’s future looks more like Star Trek or more like Blade Runner may have a lot to do with whether or not our people survive. 
 Finally, most of us are going to live out our lives in our native countries. Do we want them to stay the same nations we grew up in? Some time in the future, today’s youth will be running the show while we’re elderly. What kind of a place do we want it to be by then? Western civilization is great; let’s keep it going.</t>
+  </si>
+  <si>
+    <t>7973    Is Western Civilization Worth Saving?
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7973    Beau Albrecht
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">As the election is inching slowly towards it’s end, experts are nervously scrambling to find any dirt that would stop the Trump train.
@@ -2457,6 +3441,14 @@
 </t>
   </si>
   <si>
+    <t>7974    The Only Strategy That Could Have Stopped Dona...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7974    August Moliere
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">  American Woman In Bikini Desecrates French Catacombs For Her “Female Indiana Jones” Brand American Woman In Bikini Desecrates French Catacombs For Her “Female Indiana Jones” Brand 
 André is a young European who left his decaying country in 2012 for greener pastures. He enjoys exploring subterranean places, reading about a host of interconnected topics, and yearns for Tradition. November 5, 2016 Girls 
 The Paris catacombs are a place dear to my heart. Born in this very city, I had a front row seat to see it turn into a giant museum. Every wealthy asshole wanting his own piece of the “city of lights,” and Paris being one of the most visited cities in the world , I could see year after year the streets taken over by luxury clothing shops and expensive venues. The middle and lower classes have been pushed aside by rising living costs so that the rich globalists, the bobos and a never-ending trail of tourists could stroll around. 
@@ -2487,6 +3479,14 @@
 Truly respectable women are not the ones we spot the most easily, and true cataphiles are often discreet as well. Your humble servant bathed there before Teal pretended to “surf” the place, but I would definitely not exhibit myself treading on bones in a pink thong</t>
   </si>
   <si>
+    <t>7977    American Woman In Bikini Desecrates French Cat...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7977    André du Pôle
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">A ten-person federal jury has found that Rolling Stone journalist Sabrina Rubin Erdely defamed University of Virginia dean Nicole Eramo with actual malice over a fraudulent college rape story. Rolling Stone and its parent company Wenner Media were also found to have defamed Eramo, who is seeking $7.5 million in damages, but to a lesser extent than the writer herself. Rubin Erdely’s piece conveyed that Eramo was indifferent and even callous towards the accuser, Jackie Coakley , in addition to discouraging her from reporting the “crime.” And so continues coverage of the rape hoax of the decade.
 The controversy, which began with the publication of Rubin Erdely’s story in 2014, centered on a now debunked fraternity gang rape alleged by fabulist Coakley . Well before this week’s court decision, Rubin Erdely admitted to not bothering to contact the male UVA students accused of the act. These young men, via their Phi Kappa Psi fraternity, are suing separately for $25 million , a surprisingly low figure which makes Eramo’s claim look comparatively astronomical.
 Sabrina Rubin Erdely, far left, arrives for court. Pictured on the right is the Deputy Managing Editor of Rolling Stone, Sean Woods, instrumental in the bogus story’s publication and who defended it later.
@@ -2506,6 +3506,14 @@
 </t>
   </si>
   <si>
+    <t>7979    Federal Jury Finds UVA Rape Hoax Journalist Sa...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7979    David G. Brown
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there any merit in taking a cynical view of life? Are the observations of cynicism realistic, brave observations on human nature, freed from sentimentality, or are they only the somber commentary offered by one who is a loser at the game of life, taking solace in his weakness and failure? There are compelling arguments either way. What is not disputed, however, is that François de La Rouchefoucauld was one of the most brilliantly cynical epigrammers who ever lived.
 It probably did not help that he came from a long line of noblemen, for nothing so enfeebles the soul as much as inherited wealth and titles. He was born in 1613 and inherited the title of duke on the death of his father in 1650. Receiving the usual education of his class, he dabbled in military matters in his teens. Various itinerant love affairs followed with well-placed women, but some of these ended badly; we find him imprisoned in Bastille for a week in 1636 for political intrigue.
 Although married, he continued to pursue other women, as was the custom of the time and his station. Marriages in those days were business affairs to be ignored at each party’s pleasure or necessity; one such dalliance resulted in an illegitimate child, but the woman eventually rejected him for a more appealing competitor. In 1652 he found himself mixed up with a quasi-revolt called the Fronde, an adventure that left him with impaired sight when he was struck with a musket ball in the head. Health problems also intervened to add to his misery in the form of gout and melancholy.
@@ -2520,6 +3528,14 @@
 Montaigne was far wiser, for he took a balanced view of life, accepting the world’s absurdities and joys with the equanimity and calm resolution of a Greek or Roman sage. He was also a better man. La Rochefoucauld was intelligent without being wise, and never found the confidence in himself to submit his ego to the consolatory power of a higher philosophical authority in any form. Cynicism, in the end, strips a man of his most important protective armor, and leaves him naked to face the cruelties of life. No cynic ever died a happy man.
 Read More: 7 Tips On How To Get Into The Best Shape Of Your Life 
 </t>
+  </si>
+  <si>
+    <t>7983    What François De La Rochefoucauld Has To Teach...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7983    Quintus Curtius
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">There are some things that we have learned about the United States from this election. We’ll need to keep these in mind as we make efforts to return sanity to society.
@@ -2544,6 +3560,14 @@
 Conclusion With Trump’s election, the problem of federal government being used for political purposes will be mitigated. However, the problems with our indulgent pseudo-elite will continue to be a force that prevents the patriarchy from returning. In any case, we can be grateful that the election of 2016 has exposed some of the cancers that are eating away at our society.
 Read More: Rigged: FBI Reveals It Has Evidence Hillary Clinton Broke Law, But Will Not Prosecute 
 </t>
+  </si>
+  <si>
+    <t>7995    What The 2016 Election Has Exposed
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7995    Michael Sebastian
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">  Why So-Called Intellectuals Do More Harm Than Good To Society Why So-Called Intellectuals Do More Harm Than Good To Society 
@@ -2581,6 +3605,14 @@
 I have had the same experience with journalists citing each other about my books without the smallest effort to go to my writings—my experience is that most journalists, professional academics, and other in similar phony professions don’t read original sources, but each other, largely because they need to figure out the consensus before making a pronouncement. — Nassim Taleb, Antifragile , chap.23.</t>
   </si>
   <si>
+    <t>7996    Why So-Called Intellectuals Do More Harm Than ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7996    André du Pôle
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Two More Hollywood Films For Men That Leave Today’s SJW Movies In The Dust Two More Hollywood Films For Men That Leave Today’s SJW Movies In The Dust Bob Smith 
 Bob Smith is a man in search of the truth. His favorite quotes are, "We're all fools on this earth, and I can be no different"; "I know it's true, I read it at the LIE-brary"; and "The truth is not misogynistic, it's just the truth". November 11, 2016 Culture 
 Today we are going to take a quick look at two epic Clint Eastwood films, one of which is a well-known, Western classic ( The Outlaw Josey Wales ). The other one is a little-known, under-the-radar gem, which showcases the psychotic insanity of the deranged Western female ( Play Misty for Me ). 
@@ -2608,6 +3640,14 @@
 Play Misty for Me is absolutely worth watching for myriad reasons; but the most important reason of all, I wholeheartedly believe, is because it will clearly demonstrate to you, in no uncertain terms, the subtle and overt signs that a man absolutely has to be able to recognize, in order to avoid being blindsided by a psychotic, unhinged female. And for that reason alone, it’s a must-see classic, no doubt about it; when Clint’s character ultimately gets revenge on his tormentor, at the very end of this excellent RPO film, you’ll feel all warm and fuzzy inside, too—and in a weird, viscerally satisfying way—which makes the whole experience just that much more gratifying. 
 By boycotting all modern SJW Hollywood cinema, you are sending a message to the power structure that is loud and clear—you are not being fooled by their deliberate attempts to poison people’s minds and socially engineer them to be pussified, dumbed-down, blue-pill-sucking robots. 
 Always research the plot lines of any films for which you are seriously considering buying a ticket, or renting on DVD. And if you smell an SJW rat, don’t spend your money. It’s that simple. In the end, it’s just like investigating a potential LTR candidate. You have to conduct your due diligence. Otherwise, you might just get taken for a ride.</t>
+  </si>
+  <si>
+    <t>7998    Two More Hollywood Films For Men That Leave To...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>7998    Bob Smith
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">  Buzz Aldrin Is A Warning Of How Success Can Lead To Depression Buzz Aldrin Is A Warning Of How Success Can Lead To Depression Aaron Clarey 
@@ -2659,6 +3699,14 @@
 Nirvana and heaven are not at the other side of that finish line. An active and rewarding social life, full of close friends and loved ones are the not the reward for success. And it certainly isn’t a life-long party until you die. It is a mentally-barren landscape much like the moon, a place Buzz has been to both literally and metaphorically.</t>
   </si>
   <si>
+    <t>8001    Buzz Aldrin Is A Warning Of How Success Can Le...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8001    Aaron Clarey
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">Since we were children, we have been bombarded with propaganda that romantic love is the ultimate relationship ideal. Hollywood movies, Disney cartoons, and literary fiction all portray romantic love as an absolute necessity in any wedding union, but how much of that narrative has been a lie? Is it possible that our pursuit of romantic love is actually preventing us from forming a lifelong pair bond?
 I began to question the notion of romantic love when thinking about its emotional root. Love is a fleeting emotion, and like all emotions, it comes and goes like the clouds in the sky. Why have I been taught to select my life partner based on an emotion? I’m surely not encouraged to use emotion when buying a house, applying for a job, or doing my personal finances, but when it comes to choosing a human being that I’m supposed to spend the rest of my life with, I’m advised by the establishment narrative to use emotion for the biggest decision of them all.
 Another major clue that romantic love is a childish strategy for choosing mates is the fact that countries with arranged marriages, where partners are picked based on purely practical matters, have lower divorce rates that in countries where romantic love is used to select mates ( 1 , 2 , 3 ). While there are multiple reasons for divorce in any society, it is rather coincidental that the countries most impacted by notions of romantic love happen to have the highest divorce rates .
@@ -2691,6 +3739,14 @@
 But at least we are now armed with the knowledge of what it takes to have a more successful long-term relationship. It’s not romantic love or butterflies in the stomach, but a matter of practicality. Logically evaluate her past, her values, and her beliefs to make sound predictions of how she’ll behave in the future. From this evaluation will come a logical decision that is likely to endure, instead of relying on emotion, which changes as readily as the direction of the wind.
 Read More: Unconditional Love From A Woman Is Impossible 
 </t>
+  </si>
+  <si>
+    <t>8003    The Dangers Of Romantic Love
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8003    Roosh Valizadeh
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">  Shopify Erased Our Store From The Internet While I Was Fulfilling 55 Orders Shopify Erased Our Store From The Internet While I Was Fulfilling 55 Orders November 15, 2016 Work &amp; Money 
@@ -2729,6 +3785,14 @@
 As for the ROK store, I’ve decided to try the open source method. Hopefully we will be ready for orders again within two months. Nov 15, 2016 Roosh Valizadeh</t>
   </si>
   <si>
+    <t>8008    Shopify Erased Our Store From The Internet Whi...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8008    Roosh Valizadeh
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Home This Month Popular Are You On Pace To Reach Your Goals? Are You On Pace To Reach Your Goals? February 2, 2013 20 Comments Lifestyle 
 Today is February 2, 2013 and you’re one month closer to death. What have you done this year to improve yourself? Some may say New Years resolutions are cop-outs for actually setting reasonable goals, instead of starting today we say “In a week I’ll hit the gym and finally get ripped!” I like the idea of coming up with goals and plans to achieve them for January 1st of the next year. The start of each year is a mental rebirth, January 1 is a new snow begging for you to make fresh tracks in it, a blank canvas yearning to be painted on. 
 However, many do use New Years resolutions to feel better about themselves. They gorge themselves on baked goods, drink heartily and fail to exercise throughout the month of December telling themselves that “next year will be different” and “just one last time before I change.” This is not the case for us here at Return of Kings. We are different — writers, readers, and commenters all strive to build themselves into the man they want to be. 
@@ -2736,6 +3800,14 @@
 Most importantly I held myself accountable for all of my actions. If I ate too much, drank too much or didn’t take opportunities I should have, I picked myself up and adapted. Push forward and give everything you have. How bad do you want it? What happens when you reach your goal? Do you aim higher, or do you stop there and remain content with being slightly above average ? If you choose the latter and have finite, concrete goals you are already anticipating the day you can quit building yourself. You’re doomed for failure.Don’t ever miss an opportunity to get better , take risks , analyze your successes/failures, and don’t stop until you’ve surpassed your goals. Then strive to be better, faster and stronger. 
 What are your goals for 2013? Are they SMART ? Do you have a purpose ? Do you want to have sex with more beautiful women, learn a language , lift more weight and make more money? Do you have an accountability buddy or do you journal and meticulously track your progress? 
 How is your progress going? Feb 2, 2013 Western Cancer</t>
+  </si>
+  <si>
+    <t>8010    Comment on Are You On Pace To Reach Your Goals...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8010    4 Goals For The Neomasculinity Movement During...
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">Gentlemen, I am filled to the brim with joy. We have successfully thwarted the globalist’s plans to ruin America—we’ve fought against the big banks, we’ve fought against the Satanic pedophile Elites , and we’ve fought against the corrupt mainstream media.
@@ -2785,6 +3857,14 @@
 </t>
   </si>
   <si>
+    <t>8011    4 Goals For The Neomasculinity Movement During...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8011    Jon Anthony
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">One of the foundations of living a good life in today’s times is having a good place to call home. Whether you want a solid, comfortable place with which to pursue your hobbies, recover from the day’s tribulations, and just to be, or whether you want a bachelor pad for your romantic pursuits, or both; a good home is essential to the modern man.
 I purchased a home and I decided to be my own general contractor for the renovations. My home was an as-originally-furnished home of the 1970s, and I brought its multi-color painted, green shag carpeted datedness up to a sharply trimmed, hardwood-floored modernity while being of a somewhat timeless style. A general contractor is a person hired by the architect or engineer to run the job site, source the labor, follow the schedule, get the materials, and execute the vision of the plan. Here are ten things I learned as my own general contractor.
 1. There are good contractors, and there are bad contractors 
@@ -2823,6 +3903,14 @@
 </t>
   </si>
   <si>
+    <t>8012    10 Things I Learned From Being My Own General ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8012    Luke Stranahan
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">I remember signing up for Facebook ten years ago. At this point in time, the new social media site was geared mostly toward college students and it was uncommon for anyone over the age of 25 to have an account. 
 But over the last decade we’ve seen Facebook morph into a $50 billion conglomerate and information kingpin acquiring massive power and wealth from the endless amounts of time users waste scrolling through their news feeds. This beast of a social media platform has gone on to consume the lives of millions, gather nefarious amounts of data, foster unnecessary personal dramas, and often cause more harm than good for its users. 
 It would be prudent to take a good hard look at your Facebook experience and ask yourself if it’s something that’s actually adding value to your life. Here are five reasons why you should think carefully before using the world’s largest social media site. 
@@ -2847,6 +3935,14 @@
 But the truth is that in many cases, Facebook does cause more trouble than it’s worth. It’s never a bad idea to cut back on your usage or even just opt out entirely. You may no longer be the first to know about an upcoming dinner party or what Brad and Sarah from freshman year have been up to all these years, but I suspect you might be better off as a person.
 Read More: Is Western Civilization Worth Saving? 
 </t>
+  </si>
+  <si>
+    <t>8015    5 Reasons You Should Stop Using Facebook
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8015    Brock Robinson
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">Like me, you now sigh every time you skim-read the synopsis of the new LGBT agenda-approved blockbuster that the septic tank of Hollywood releases which usually stars:
@@ -2891,6 +3987,14 @@
 </t>
   </si>
   <si>
+    <t>8016    The Red Pill Masterpiece That Predates Them All
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8016    Jean-Batave Poqueliche
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">Before Trump’s glorious victory over the forces of progressive darkness, I promised that I would provide a roadmap on what traditional men could do next to usher in a return of the patriarchy. If Hillary had prevailed, the roadmap would have been a grim one, as all of our work would have had to take place underground. Happily, we will be able to work in the open. Here are three ways that we can leverage Trump’s victory to bring back the patriarchy.
 Rule yourself Bruce Wayne is a good role model for traditional men: Urbane, fit, financially independent—and dangerous.
 This may seem obvious, but if we are going to bring back the patriarchy, we have to be men who are worthy of it. A patriarch who relies solely on the fact that he is a man will quickly be overthrown. However, a man who has authority because he has earned it by the way he lives will naturally retain it. Thus, the first step in making progress under a Trump administration is the same as it would have been if Hillary had been elected—self-improvement.
@@ -2913,6 +4017,14 @@
 </t>
   </si>
   <si>
+    <t>8017    How To Live After Trump
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8017    Michael Sebastian
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">With the election over and done with, America is turning its attention to the transition from President Obama to President Trump. In barely two months, the Donald will take office, ejecting the Democrats’ coterie of corrupt courtiers and beginning his mission to right America’s wrongs . But President Trump can’t do it alone: he needs good, talented people to work under him and carry out the hard work of making America great again.
 That’s where you come in.
 The Trump administration is now soliciting people to apply for jobs for when the man himself takes office in January. We are officially calling on all ready and able Return Of Kings readers to submit their applications and take up any job offers. Here’s why you should consider a job in President Trump’s administration (beyond obvious reasons such as money and prestige)…
@@ -2926,6 +4038,14 @@
 If you think you have the job skills, Return Of Kings highly recommends you apply for a job in Trump’s administration . President Trump may have started the fire, but it’s our job to help the fire rise.
 Read More: Did The Anti-Donald Trump Riot In Chicago Help Trump Cruise To Victory On Tuesday? 
 </t>
+  </si>
+  <si>
+    <t>8018    3 Reasons Why You Should Apply For A Job In Th...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8018    Matt Forney
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">Over the last decades, South Korea has emerged as one of the wealthiest countries in all of Asia. Currently the OECD country is roughly on the same material and economic level as other affluent East Asian nations such as Japan, Hong Kong and Taiwan. However, it appears now as perhaps the most potentially strong among them. South Korea seems more dynamic and willful than its larger neighbor and economic main rival, Japan, which perhaps has entered the path of a more long-term decline.
@@ -2956,6 +4076,14 @@
 Conclusion Overall South Korea is a rather impressive modern society that shares many of the good features with its equally rich neighbors. However, recently it has seemingly surpassed places like Japan and Hong Kong in terms of material development, nightlife and popular culture. For some Western males, between the ages of 20-35, South Korea might offer a valuable opportunity for temporary—ranging from weeks to even years— and circular migration. Because eventually it is most likely time to go home, regardless if one wishes it or not.
 Read More: How To Get Laid In South Korea 
 </t>
+  </si>
+  <si>
+    <t>8019    What Modern South Korea Is Like
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8019    William Adams
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">  Men Are Binded By Their Shared Realization Of Truth Men Are Binded By Their Shared Realization Of Truth 
@@ -2987,6 +4115,14 @@
 Always remember the libtards never cared one second about us. They would have let us die off, alone, poor, childless, traumatized and demonized, had we not chosen to follow the path of the red pill. 
 America is a first-tier power, but it is still a battlefield among others. Wherever we are, it is time to thicken our mutual relationships and cooperate more closely. It is a battle, not between nationals and foreigners, but between workers and parasites, between those who feel the void and wrongness in the rotten core of postmodernity and those who dwell in the last liberal trend, between the realists who want freedom and responsibility in a healthy world of values and cultures against those who ravel in blue pill, media bullshit, complacency, parasitism and cucking for the empire of nothing. 
 We are the future. It doesn’t matter where we are. We are those with true awareness, those with genuine and healthy values, those who struggled to hone their abilities, and most importantly those who actually deserve to inherit the Western world. So, save it and conquer it, country after country, institution after institution, outlet after outlet—or there will be nothing left.</t>
+  </si>
+  <si>
+    <t>8020    Men Are Binded By Their Shared Realization Of ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8020    André du Pôle
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">Suppose you are one of those adventurous Americans who meets and marries a beautiful foreign woman. You are the envy of all your friends. What next?
@@ -3028,6 +4164,14 @@
 </t>
   </si>
   <si>
+    <t>8021    What It’s Like To Live In Kiev After Marrying ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8021    GrahamSeibert
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">With her Hollywood and silver screen career options all but dried up, former Charmed actress and constantly near-naked attention-seeker Rose McGowan is now a “leading” feminist. As you would expect, this transition occurred after her looks (which never approached those of co-star Alyssa Milano) had well and truly begun to fade. McGowan is not alone in making this spectacular shift. Pamela Anderson and professional SJW Natasha Devon are among a growing crowd of women who rail against “sexism” and “objectification” after years of trying, often very successfully, to sexualize their youth.
 Seeking to cash in on her new-found fame as an unhinged SJW, Rose McGowan launched the “Rose Army,” a kind of personal cult that tries to hide the overt narcissism of its creator by supporting campaigns against “domestic violence” and “female objectification.” Full SJW mode is just a button away for her. For instance, she attacked gays for not being feminist enough and, probably projecting her jealousy over not landing a significant acting role for an eternity, claimed an X-Men movie poster promoted violence against women .
 So now comes the task of reconciling the new Rose McGowan with the old one, whose self-objectification is best described by this infamous photo with ex-boyfriend Marilyn Manson:
@@ -3050,6 +4194,14 @@
 Rather than seeing these women as twisted and evil, it is better to perceive the behavior for what it is: desperation and the shocking realization that they are sexually irrelevant.
 Read More: Female Danish Athletes Diminish Their Own Championship Victory By Taking Nude Photos 
 </t>
+  </si>
+  <si>
+    <t>8022    Women Only Hate Female Objectification When Th...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8022    David G. Brown
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">Every man who supports Donald Trump came to it from a different path. Some of you support him because of economic impoverishment or because you have seen your neighborhoods degrade from illegal immigrants . Or maybe you support him because you were attacked for being politically incorrect. For me and many other men, we came to support Trump because we shared truths about sex and the true nature of women .
@@ -3088,10 +4240,26 @@
 </t>
   </si>
   <si>
+    <t>8023    The Path Men Took To Trump
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8023    Roosh Valizadeh
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">  The Myth Of Male Privilege The Myth Of Male Privilege November 25, 2012 20 Comments Culture 
 What happens when a woman doesn’t want a baby? She aborts it. She can go to the doctor for a minor procedure that inconveniences her for a day. The man who impregnated her has no legal right to prevent her from doing so. 
 What happens when a man doesn’t want a baby? Assuming the woman wants to keep it, he is ordered by a court to provide payments. If he chooses not to, money will be automatically garnished from his salary. If garnishment is not an option, he is sent to prison . 
 A woman can kill life and she is empowered while receiving no interference from the state. A man can choose to merely ignore life and he can be imprisoned, his life ruined. And we live in a society of male privilege? Nov 25, 2012 Roosh Valizadeh</t>
+  </si>
+  <si>
+    <t>8025    Comment on The Myth Of Male Privilege by An In...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8025    An Infographic Showing What Male Privilege Rea...
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">  Why You Should Become a Minimalist Why You Should Become a Minimalist February 21, 2013 55 Comments Lifestyle 
@@ -3106,6 +4274,14 @@
 Ask yourself this: If your house burned down and you had nothing but the clothes on your back, what would you be worth to society and to yourself? How would you feel about losing all of the possessions you own? Most people plugged into the matrix would rather die than think about replacing Aunt Gladys’s vase or baby pictures they haven’t looked at in a decade. This is an illusion. Once you begin to divorce yourself from this emotional investment to “stuff” you will implicitly place more value on your skills and past experiences. 
 Minimalism is not a synonym for frugality or cheapness. I don’t wear a potato sack while pedaling a used tricycle to work every day — I simply choose to allocate my money to experiences (and a few possessions) that will fulfill me and advance my life’s purpose, rather than enslave myself into debt for trinkets that will collect dust somewhere. 
 Taking the red pill is about learning to separate your priorities and desires from those that society forces upon you. I don’t promise that adopting this mindset will make everybody happy, but it will certainly help to clarify what contributes to your individual sense of self, and will allow you to focus on the internal and external traits that exemplify a man of value.</t>
+  </si>
+  <si>
+    <t>8026    Comment on Why You Should Become a Minimalist ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8026    How Effective Are Books On Fitness?
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">By now everyone has been reminded that the media is not infallible. It is composed of very fallible human beings who make mistakes with the same regularity as all the rest of us. I was recently reading a bit about something in statistics called “Galton’s Problem,” an observational dynamic named after its discoverer, Sir Francis Galton.
@@ -3125,6 +4301,14 @@
 Malicious journalism can do serious damage. Sometimes the damage comes from ignorance, other times from deliberate peddling of falsehood. The motives for lying—whether coming from money, fame, or the desire to “virtue signal”—can always be found if one digs below the surface. In the modern era, the default rule must be to seek independent confirmation of news stories, and to remember that journalists are subject to the same human emotions and weaknesses as all the rest of us.
 Read More : An Examination Of Cult Leader Game 
 </t>
+  </si>
+  <si>
+    <t>8027    The Character Assassination Of Baseball Legend...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8027    Quintus Curtius
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">The media is beginning to demonize the manosphere and alt right. Twitter has suspended multiple accounts, such as Milo Yiannopoulos, Ricky Vaughn, and Matt Forney. The Guardian wrote a hit piece against the red pill . The media has called alt-right groups “xenophobic, racist, and misogynist,” despite not pointing to a single piece of evidence.
@@ -3167,6 +4351,14 @@
 </t>
   </si>
   <si>
+    <t>8028    4 Examples That Show The Globalists Are Losing...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8028    Jon Anthony
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">Home This Month Popular The Path Men Took To Trump The Path Men Took To Trump 
 Daryush "Roosh" Valizadeh created ROK in October 2012. You can visit his blog at RooshV.com or follow him on Twitter and Facebook RSS November 20, 2016 Politics 
 Every man who supports Donald Trump came to it from a different path. Some of you support him because of economic impoverishment or because you have seen your neighborhoods degrade from illegal immigrants . Or maybe you support him because you were attacked for being politically incorrect. For me and many other men, we came to support Trump because we shared truths about sex and the true nature of women . The fight began in 2012 with the Southern Poverty Law Center 
@@ -3199,6 +4391,14 @@
 I’m afraid that those who stand against us are gearing up for even greater authoritarian control over us, but at least now we have our man in the White House who can join us in a fight that we have already been battling for many years. I can’t wait to see where this fight takes us next. Nov 20, 2016 Roosh Valizadeh </t>
   </si>
   <si>
+    <t>8029    The Path Men Took To Trump
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8029    Roosh Valizadeh
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Submit Home This Month Popular 8 Reasons Why You Should Try Photography As A Hobby 8 Reasons Why You Should Try Photography As A Hobby Photography really is one of the most rewarding hobbies a man could pursue Ness Nomadison 
 Ness is a thirty-something American with almost a decade of experience living and traveling across Asia. He's a strong believer in pursuing one's passions, continual self-improvement, and just being the best man he can be. He runs his own website, NessTheNomad.com . November 21, 2016 Lifestyle 
 Have you ever had a curiosity in photography, yet you weren’t sure if it’s a hobby really worthy of your limited time? Then this article was written for you, as I was also once in your shoes. 
@@ -3229,6 +4429,14 @@
 Photography takes decades to master, but it all begins with a single click of the shutter button. Yet sometimes all it takes is one little click to realize you’ve been missing out on something very big and meaningful your entire life. You’ll never know until you try.</t>
   </si>
   <si>
+    <t>8030    8 Reasons Why You Should Try Photography As A ...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8030    Ness Nomadison
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve">As feminism erodes down to its tattooed, lesbian core, we should stop and take a moment to wonder what the point of the third wave part of feminism was. Although it ultimately proves destructive to western societies to give women “equality,” at least the first and second wave had something legitimate to bitch about. Third wave feminism; not so much, and today we’ll talk about the underlying motives and the end game of it all.
 When one looks at modern feminism, you see women who have “flipped the script,” to use their term, and rewired life so that men are not necessary for them. A modern feminist has her own job that can meet her needs, but maybe not all her wants, and has her own small place with her cat(s) and Netflix. When she wants the company of men, she goes out and sluts it up and is always successful due to the biological imperative of men.
 On the surface, a feminist woman may appear to be the analog of a Red Pill Man, yet, upon closer examination, she is actually an imperfect copy. A man works harder, more dangerous jobs, and makes more money because of it, thus he has money for anything he wants and more. A proper man has interesting hobbies and a healthy, fit lifestyle, and he must do this to fulfill his potential and inner drive, but also because he realizes that normal men do not get laid due to hypergamy and he must be the best he can be if he wants to be successful with women.
@@ -3248,6 +4456,14 @@
 The reason that feminism makes no sense, and makes it seem like all men have no way to succeed and must lose everything is because that is precisely the point. There is no way to win, there is no equality, there is only female superiority, males that go along with it, and men that do not.
 Read More: Feminism Has Lost The Minds Of Young Women 
 </t>
+  </si>
+  <si>
+    <t>8034    Is Feminism A Giant Shit Test?
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8034    Luke Stranahan
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">  Mainstream Media Calls Real News “Fake” Because Their Narrative Is Collapsing Mainstream Media Calls Real News “Fake” Because Their Narrative Is Collapsing Relampago Furioso 
@@ -3273,6 +4489,14 @@
 In an age where there’s so much active misinformation, and it’s packaged very well, and it looks the same when you see it on a Facebook page or you turn on your television, where some overzealousness on the part of a US official is equated with constant and severe repression elsewhere, if everything seems to be the same and no distinctions are made, then we won’t know what to protect. If we can’t discriminate between serious arguments and propaganda, then we have problems. 
 The fact he is saying these things should frighten you. It should also make you angry. This statement is a PC way of saying the goal of the power structure is to shut us the fuck up. They want us to listen to clueless “journalists” who encourage the idea of microchipping your children and later, yourselves so every aspect of your life can be controlled by the government. 
 We must fight back by discrediting the “fake news” narrative at every turn and informing those who will listen of the possibility of a fake “Internet 9/11” designed to give the government a reason to curb free expression on the very Libertarian Internet of today.</t>
+  </si>
+  <si>
+    <t>8035    Mainstream Media Calls Real News “Fake” Becaus...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8035    Relampago Furioso
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve">Earlier I skewered nine dictators, thugs, demagogues, and politicians adored by leftists despite considerable failings in policy, ethics, and hygiene. Here are six more over-hyped figures revered by leftists who always get everything wrong.
@@ -3340,6 +4564,14 @@
 </t>
   </si>
   <si>
+    <t>8038    The Ugly Truth Of Six More Leftist “Heroes”
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>8038    Beau Albrecht
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
 Republican presidential nominee Donald Trump has reached a financial accomplishment that no other GOP candidate has before.
 He has amassed the largest small-donor fundraising pack that has ever been seen in the Republican Party.
@@ -3360,13 +4592,45 @@
 What do you think?</t>
   </si>
   <si>
+    <t>12414    Trump Sets GOP Fundraising Milestone In Small-...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12414    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>I think Clinton has bought her way with large donors into this Oresidency, it reeks of BIG money, pay for play, quid pro quo, you scratch my back I'll Scratch yours and it's the antithesis of what democratic voters think they are getting in Hillary Clinton. A sad testimony to an election of the people, for the people, by the people- her campaigh is all about big money, power and greed.</t>
   </si>
   <si>
+    <t>12415    NaN
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12415    Lisa Reed
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>I'd love to see Clinton spend all her money and lose....penniless.</t>
   </si>
   <si>
+    <t>12416    NaN
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12416    Rich Hultén
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>I liked Megan Kelly (past tense). How much did the Clintons pay her? More importantly, Newt Gingrich was 100% accurate with his comment about Megan and her word choice. Ask yourself, why could she not bring herself to use "predator" and Bill Clinton in the same sentence? If these allegations are true, why wouldn't these women have filed lawsuits against a billionair, seeking monetary compensation at the time of the sexual assaults? I would like to point out that every charge of sexual impropriety's against Trump - twenty prior to this last gaggle of liars - have been dismissed or have had not guilty verdicts...each and every one. And it's important to note, none has had a monetary settlement. Why are these women only coming out with their stories 10, 20 years after their bogus claims? Each of these women should be found guilty of interfering with a presidential election, making false charges, and damaging the believability of sexual assault charges by any woman in the future. These women need to be spending some time in prison. Should the Democratic Party be linked to these women's allegations, especially should there have been money exchanged, either Hillary or Bill or both need to be behind bars as well.</t>
+  </si>
+  <si>
+    <t>12428    NaN
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12428    Topher Frankenberg
+Name: author, dtype: object</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -3423,19 +4687,59 @@
 What do you think?</t>
   </si>
   <si>
+    <t>12431    Money Laundering Scheme Exposed: 14 Pro-Clinto...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12431    NaN
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>David Brock went from a Right Wing CS to a Left Wing money laundering CS. That's quite odd, but then David is quite odd.</t>
   </si>
   <si>
+    <t>12432    NaN
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12432    Jerry Miller
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>They also said that Obamacare woulls save you money, and that Benghazi murders were because of a movie, and that the electionisnot rigged! More Obama lies!</t>
   </si>
   <si>
+    <t>12454    NaN
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12454    Kenan Lott
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>It's in the Clinton pockets under the cover up of the Clinton Corrupt Criminal Cartel Charity Foundation that pays for her brother's wanna be ownership of some property and Chelsea's "medical apartment" in NYC, OR it's in a secret account in the Camen Islands or wherever they keep secret money now days.</t>
+  </si>
+  <si>
+    <t>12504    NaN
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12504    Joan Workman
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Kenyan refugee kills co-worker, self 3 others shot by 'hard worker' fired from job Published: 6 mins ago 
 ROANOKE, Va. (AP) — A refugee from Kenya killed one former co-worker, wounded three others and then killed himself Tuesday in a workplace shooting that authorities are still trying to unravel in Virginia, police said. 
 Getachew Fekede, 53, had entered the U.S. through a refugee immigration program and worked for the railcar manufacturer FreightCar America before being fired in March when he stopped showing up for work, Roanoke Police Chief Tim Jones told reporters. 
 A neighbor told the Associated Press that Fekede quit his job over being harassed by a co-worker. Clarence Jones said Fedeke would send money to his mother back in Kenya and had grown concerned about his finances.</t>
+  </si>
+  <si>
+    <t>12596    Kenyan refugee kills co-worker, self
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12596    -NO AUTHOR-
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>State that fired pastor demands his sermons, notes 'This is an excessive display of the government overreaching its authority' Published: 3 mins ago About | | Archive Bob Unruh joined WND in 2006 after nearly three decades with the Associated Press, as well as several Upper Midwest newspapers, where he covered everything from legislative battles and sports to tornadoes and homicidal survivalists. He is also a photographer whose scenic work has been used commercially. Print Dr. Eric Walsh (Photo: First Liberty) 
@@ -3473,10 +4777,26 @@
 In the Houston dispute, voters ultimately soundly rejected Parker’s ordinance giving “gays” and transgendered people special rights.</t>
   </si>
   <si>
+    <t>12598    State that fired pastor demands his sermons, n...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12598    Bob Unruh
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Kenyan refugee kills co-worker, self 3 others shot by 'hard worker' fired from job Published: 13 mins ago 
 ROANOKE, Va. (AP) — A refugee from Kenya killed one former co-worker, wounded three others and then killed himself Tuesday in a workplace shooting that authorities are still trying to unravel in Virginia, police said. 
 Getachew Fekede, 53, had entered the U.S. through a refugee immigration program and worked for the railcar manufacturer FreightCar America before being fired in March when he stopped showing up for work, Roanoke Police Chief Tim Jones told reporters. 
 A neighbor told the Associated Press that Fekede quit his job over being harassed by a co-worker. Clarence Jones said Fedeke would send money to his mother back in Kenya and had grown concerned about his finances.</t>
+  </si>
+  <si>
+    <t>12599    Kenyan refugee kills co-worker, self
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12599    -NO AUTHOR-
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>State that fired pastor demands his sermons, notes 'This is an excessive display of the government overreaching its authority' Published: 5 mins ago Bob Unruh About | | Archive Bob Unruh joined WND in 2006 after nearly three decades with the Associated Press, as well as several Upper Midwest newspapers, where he covered everything from legislative battles and sports to tornadoes and homicidal survivalists. He is also a photographer whose scenic work has been used commercially. Print Dr. Eric Walsh (Photo: First Liberty) 
@@ -3514,16 +4834,40 @@
 In the Houston dispute, voters ultimately soundly rejected Parker’s ordinance giving “gays” and transgendered people special rights.</t>
   </si>
   <si>
+    <t>12603    State that fired pastor demands his sermons, n...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12603    Bob Unruh
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Dow higher as Boeing gains offset Apple's fall 'The fact of the matter is the oil market is rebalancing itself' Published: 2 mins ago 
 (CNBC) — U.S. stock closed mostly lower on Wednesday as earnings season continued, while solid economic data helped financials and oil extended its losing streak despite bullish supply data. 
 The Dow Jones industrial average rose 21 points after briefly dropping more than 100 points, with Boeing contributing gains to the tune of 38 points, offsetting sharp losses in Apple, which took about 20 points off the index. 
 The S&amp;P 500 momentarily eked above breakeven before holding 0.22 percent lower, with real estate falling 1.32 percent to lead decliners while industrials and financials outperformed. The Nasdaq lagged, falling 0.64 percent as Apple shed about 2.7 percent.</t>
   </si>
   <si>
+    <t>12610    Dow higher as Boeing gains offset Apple's fall
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12610    -NO AUTHOR-
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Dow higher as Boeing gains offset Apple's fall 'The fact of the matter is the oil market is rebalancing itself' Published: 58 mins ago 
 (CNBC) — U.S. stock closed mostly lower on Wednesday as earnings season continued, while solid economic data helped financials and oil extended its losing streak despite bullish supply data. 
 The Dow Jones industrial average rose 21 points after briefly dropping more than 100 points, with Boeing contributing gains to the tune of 38 points, offsetting sharp losses in Apple, which took about 20 points off the index. 
 The S&amp;P 500 momentarily eked above breakeven before holding 0.22 percent lower, with real estate falling 1.32 percent to lead decliners while industrials and financials outperformed. The Nasdaq lagged, falling 0.64 percent as Apple shed about 2.7 percent.</t>
+  </si>
+  <si>
+    <t>12613    Dow higher as Boeing gains offset Apple's fall
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12613    -NO AUTHOR-
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Will it be representative government or thugocracy? Exclusive: Erik Rush envisions Clinton using high court 'as a bludgeon' against liberty Published: 15 mins ago Erik Rush About | | Archive Erik Rush is a columnist and author of sociopolitical fare. His latest book is "Negrophilia: From Slave Block to Pedestal - America's Racial Obsession." In 2007, he was the first to give national attention to the story of Sen. Barack Obama's ties to militant Chicago preacher Rev. Jeremiah Wright, initiating a media feeding frenzy. Erik has appeared on Fox News' "Hannity and Colmes," CNN, and is a veteran of numerous radio appearances. Print 
@@ -3540,6 +4884,14 @@
 The bottom line here is that Hillary Clinton represents a class of people who transcend even the loathed archetypal modern politician in their rapaciousness and amorality. What all Americans – not just voters, and not just Republicans – need to realize is that leaders at the highest levels in the Republican Party are every bit as culpable as the gutter operatives of the Democratic Party who pay miscreants to dress up as ducks, instigate fistfights at opposition rallies and, yes, even vote for their candidates. 
 The burning question is this: In the end, are we to be governed by the will of the people, or are we going to continue pretending that we have a representative government, when we are in effect being ruled by abject thugs operating behind a faux veneer of government? 
 Media wishing to interview Erik Rush, please contact . Receive Erik Rush's commentaries in your email BONUS: By signing up for Erik Rush's alerts, you will also be signed up for news and special offers from WND via email. Name *</t>
+  </si>
+  <si>
+    <t>12627    Will it be representative government or thugoc...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12627    Erik Rush
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>For those who are too young or too unwilling to remember, a trip down memory lane. 
@@ -3577,6 +4929,16 @@
 Media wishing to interview Jack Cashill, please contact . Receive Jack Cashill's commentaries in your email BONUS: By signing up for Jack Cashill's alerts, you will also be signed up for news and special offers from WND via email. Name *</t>
   </si>
   <si>
+    <t>12628    29 of Hillary's scandals: The early years
+12639    29 of Hillary's scandals: The early years
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12628    Jack Cashill
+12639    Jack Cashill
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Election crossroads: Socialism or capitalism? Exclusive: Jane Chastain explains impact of Dems' 'living wage' proposal Published: 20 mins ago Jane Chastain About | | Archive Jane Chastain is a Southern California-based broadcaster, author and political commentator. Despite her present emphasis on politics, Jane always will be remembered as the nation's first female TV sportscaster, spending 17 years on the sports beat. Jane blogs at JaneChastain.com. She is a pilot who lives on a private runway. Print 
 Our country is at a crossroads. Never before have we faced such an obvious fork in the road. One road, the one favored by politician Hillary Clinton and her Democratic colleagues, promises to lead us to a socialist utopia. The other, favored by businessman Donald Trump and some of his Republican colleagues, promises to get us back on the road toward free-market capitalism. 
 It is no secret that most career politicians lean toward a socialist system. In this system they control the lion’s share of our money and, in turn, hand out favors. In this system, they make the major decisions that affect our lives. As the government accumulates more and more power, we invariably end up with less. Statistics show that the longer a politician stays in power, the more of our hard-earned money he or she spends. Yet we keep electing the same people over and over and over again, expecting a different result. 
@@ -3596,6 +4958,14 @@
 Media wishing to interview Jane Chastain, please contact . Receive Jane Chastain's commentaries in your email BONUS: By signing up for Jane Chastain's alerts, you will also be signed up for news and special offers from WND via email. Name *</t>
   </si>
   <si>
+    <t>12630    Election crossroads: Socialism or capitalism?
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12630    Jane Chastain
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>Will it be representative government or thugocracy? Exclusive: Erik Rush envisions Clinton using high court 'as a bludgeon' against liberty Published: 43 mins ago About | | Archive Erik Rush is a columnist and author of sociopolitical fare. His latest book is "Negrophilia: From Slave Block to Pedestal - America's Racial Obsession." In 2007, he was the first to give national attention to the story of Sen. Barack Obama's ties to militant Chicago preacher Rev. Jeremiah Wright, initiating a media feeding frenzy. Erik has appeared on Fox News' "Hannity and Colmes," CNN, and is a veteran of numerous radio appearances. Print 
 “ I feel strongly that the Supreme Court needs to stand on the side of the American people, not on the side of the powerful corporations and the wealthy. For me, that means that we need a Supreme Court that will stand up on behalf of women’s rights, on behalf of the rights of the LGBT community, that will stand up and say no to Citizens United, a decision that has undermined the election system in our country because of the way it permits dark, unaccountable money to come into our electoral system. ” 
 – Hillary Clinton 
@@ -3610,6 +4980,14 @@
 The bottom line here is that Hillary Clinton represents a class of people who transcend even the loathed archetypal modern politician in their rapaciousness and amorality. What all Americans – not just voters, and not just Republicans – need to realize is that leaders at the highest levels in the Republican Party are every bit as culpable as the gutter operatives of the Democratic Party who pay miscreants to dress up as ducks, instigate fistfights at opposition rallies and, yes, even vote for their candidates. 
 The burning question is this: In the end, are we to be governed by the will of the people, or are we going to continue pretending that we have a representative government, when we are in effect being ruled by abject thugs operating behind a faux veneer of government? 
 Media wishing to interview Erik Rush, please contact . Receive Erik Rush's commentaries in your email BONUS: By signing up for Erik Rush's alerts, you will also be signed up for news and special offers from WND via email. Name *</t>
+  </si>
+  <si>
+    <t>12638    Will it be representative government or thugoc...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12638    Erik Rush
+Name: author, dtype: object</t>
   </si>
   <si>
     <t>Election crossroads: Socialism or capitalism? Exclusive: Jane Chastain explains impact of Dems' 'living wage' proposal Published: 49 mins ago About | | Archive Jane Chastain is a Southern California-based broadcaster, author and political commentator. Despite her present emphasis on politics, Jane always will be remembered as the nation's first female TV sportscaster, spending 17 years on the sports beat. Jane blogs at JaneChastain.com. She is a pilot who lives on a private runway. Print 
@@ -3631,6 +5009,14 @@
 Media wishing to interview Jane Chastain, please contact . Receive Jane Chastain's commentaries in your email BONUS: By signing up for Jane Chastain's alerts, you will also be signed up for news and special offers from WND via email. Name *</t>
   </si>
   <si>
+    <t>12641    Election crossroads: Socialism or capitalism?
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12641    Jane Chastain
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>26 WikiLeaks bombshells on Hillary you need to know Most explosive revelations that could keep Clinton out of White House Published: 5 mins ago Leo Hohmann About | | Archive Leo Hohmann is a news editor for WND. He has been a reporter and editor at several suburban newspapers in the Atlanta and Charlotte, North Carolina, areas and also served as managing editor of Triangle Business Journal in Raleigh, North Carolina. Print Hillary Clinton with top aide Huma Abedin. 
 WikiLeaks has provided a treasure trove of inside information on what Hillary Clinton really thinks about important issues such as trade and immigration, but Clinton herself has chosen not to answer questions about the revelations. 
 She has focused instead on criticizing the Russians as the source of the hacks, despite the fact there is no proof of Russian involvement. 
@@ -3648,6 +5034,14 @@
 Insider’s insider had sway over DNC A WikiLeaks email dump on July 22 revealed that Debbie Wasserman Schultz used her position as head of the DNC to work in concert with the Clinton campaign to undermine the candidacy of Sen. Bernie Sanders, D-Vt. Schultz was forced to resign over the emails. Issues used to undermine Sanders’ campaign included his faith, or lack thereof. The Clinton campaign tried to reschedule the Illinois presidential primary to lower the chances a moderate Republican would get a boost following the Super Tuesday primaries. “The Clintons won’t forget what their friends have done for them,” wrote Robby Mook, who later became Clinton’s campaign manager, in the November 2014 email to Podesta.</t>
   </si>
   <si>
+    <t>12647    26 WikiLeaks bombshells on Hillary you need to...
+Name: title, dtype: object</t>
+  </si>
+  <si>
+    <t>12647    Leo Hohmann
+Name: author, dtype: object</t>
+  </si>
+  <si>
     <t>26 WikiLeaks bombshells on Hillary you need to know Most explosive revelations that could keep Clinton out of White House Published: 26 mins ago About | | Archive Leo Hohmann is a news editor for WND. He has been a reporter and editor at several suburban newspapers in the Atlanta and Charlotte, North Carolina, areas and also served as managing editor of Triangle Business Journal in Raleigh, North Carolina. Print Hillary Clinton with top aide Huma Abedin. 
 WikiLeaks has provided a treasure trove of inside information on what Hillary Clinton really thinks about important issues such as trade and immigration, but Clinton herself has chosen not to answer questions about the revelations. 
 She has focused instead on criticizing the Russians as the source of the hacks, despite the fact there is no proof of Russian involvement. 
@@ -3665,1402 +5059,8 @@
 Insider’s insider had sway over DNC A WikiLeaks email dump on July 22 revealed that Debbie Wasserman Schultz used her position as head of the DNC to work in concert with the Clinton campaign to undermine the candidacy of Sen. Bernie Sanders, D-Vt. Schultz was forced to resign over the emails. Issues used to undermine Sanders’ campaign included his faith, or lack thereof. The Clinton campaign tried to reschedule the Illinois presidential primary to lower the chances a moderate Republican would get a boost following the Super Tuesday primaries. “The Clintons won’t forget what their friends have done for them,” wrote Robby Mook, who later became Clinton’s campaign manager, in the November 2014 email to Podesta.</t>
   </si>
   <si>
-    <t>0    Muslims BUSTED: They Stole Millions In Gov’t B...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6    BREAKING! NYPD Ready To Make Arrests In Weiner...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>11    SAY GOODBYE! These 23 Hollywood Celebs Threate...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>19    SORRY LIBERALS…You Can Stop With The Petitions...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>20    MARK CUBAN: "In The Event Donald Wins, I Have ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>363    ‘I Don’t Rent To N s’: Smoking Gun Proves Trum...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>365    BREAKING: Melania Trump’s Immigration Records ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>376    ‘The Simpsons’ React To Their Trump Election P...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>1531    Clickventure: You Were Abducted By Aliens. Wil...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>1532    Life: 6 Tips For Throwing The Perfect Hallowee...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>1559    Life: Career Goals FTW: 6 Tips For Asking The ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>1561    Quiz: Do You Have What It Takes To Be Yoda’s L...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>1568    Life: 6 Things That Happen In Every Jane Auste...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>1571    Life: Stepping Up: When This Man’s Brother Die...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>1582    News: Crowning Achievement: Donald Trump Has J...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>1591    9 Breathtaking Photos Of Nature With A Generou...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>1595    They Said What?!: Find Out What Paula Hawkins,...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>2230    NYT: FBI Failed To Connect Trump To Putin
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>2241    11 Stupid Things Vox.com's Matthew Yglesias Ha...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>2244    Video: Women On The Street Explain Why They Ha...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>2280    Democratic Congressman Threatens Violence If G...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>2336    How they could steal the election from Trump e...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>2358    A Way Forward to Liberation for all Peoples: A...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>2363    Rethinking the Khazar Theory!
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>2365    $26 Billion Dollars for the Jewish Lobby: Just...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3685    Project Veritas: "I've Known the President Sin...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3687    Election Law Violation Was Hillary’s Idea
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3688    Realism About the Jihad Threat in Oklahoma
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3692    Hillary Clinton Tops "Islamist Money in Politi...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3694    Bill Clinton Inc: Billions for the Foundation,...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3695    Wife of FBI Official Investigating Hillary Got...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3696    Tom Hayden: From SDS and Viet Cong to Progress...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3697    Obama Votes Against US at UN
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3699    The Left in Power: Clinton to Obama
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3700    Bank Fines Elect Democrats
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3701    What Will Replace ISIS?
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3702    The SPLC’s Libelous New Report on 'Anti-Muslim...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3711    Hillary Clinton Seeks Even More Unfit Secretar...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3726    Americans Seek to Help Persecuted Christians, ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3727    Freedom Center Urges College Presidents to End...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3728    Meet Hillary Clinton’s Secretary of State
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3731    UNESCO’S Anti-Israel Bias
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3738    Democratic Panic
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3740    Obama Won’t Vote With America at the UN
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3743    The Left's Vision
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3746    Hillary Campaign Manager Gets $7K a Month from...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3748    FBI Releases Files on Bill Clinton's Cash for ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3750    Obama’s Secret Muslim List
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3752    HillaryMediaMole.Con
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3753    From Bad to Worse: Obama’s Ransom Payment to I...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3755    The Hostility and Hypocrisy of Left-Wing Israe...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3758    FBI Investigates Saudi Wife-Abusing Clinton Fo...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3763    Yes, 'Jihad' Means Warfare Against Unbelievers
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3764    The Factless Fact-Checkers
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3771    The Rich and Us
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3776    Obama's Weighs Options for His Final Stab at I...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>3780    Potentially the Worst VP in American History
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6424    Nestle to launch new non-GMO products ... How ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6429    George Soros on tape: Trump will win popular v...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6430    Hospitals raise their prices despite public ou...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6434    Vermont fights the opioid epidemic by limiting...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6448    Farm owner arrested for protesting Dakota Acce...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6468    Fast food 'combo meals' tied to kids' over-con...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6469    Zika: a masterpiece of public mind control
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6472    Superbugs: Big Pharma to blame for coming deat...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6478    Leaked email shows Monsanto Executive V.P. inv...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6479    Clinton crime family must be taken down... ARR...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6480    SCANDAL: EPA could have issued an emergency or...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6481    Mutiny at the Fbi: Comey warned by his own age...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6487    Homeopathy in the NHS: The Big Debate
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6494    Top university stole millions from taxpayers b...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6498    Top 10 amazing, indigenous, all-natural cures ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6500    Jimmy John's owner spent $350k to 'trophy hunt...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6507    5 Reasons to Consume this Every Day
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6511    Cranberry Juice Does Not Prevent Urinary Tract...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6516    THE END GAME closes in on the Clintons as the ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6517    Food poverty: 49 million Americans struggle to...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>6518    Woman awarded $70M after contracting cancer fr...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7196    The Media Ignores the Good News On Climate Change
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7212    In the First 19 Days of October, Trump Gave Ju...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7215    “Billionaire” Donald Trump’s Presidential Camp...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7218    Hillary Clinton Is Brilliantly Forcing Broke T...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7219    Marco Rubio Inches Closer To Unemployment As P...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7235    Women Everywhere Cringe in Horror Watching Don...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7239    President Obama Gets Real, Not Revenge, On Rep...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7244    Hillary Clinton enjoys solid lead in early vot...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7245    David Fahrenthold Strikes, Exposing Donald Tru...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7260    The Catholic Church Uses Tax-Exempt Funds To S...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7261    Donald Trump Whines Because ISIS Cuts off Head...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7267    Trump Is Deadbeating On His Campaign Debts By ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7269    New Report Uncovers Secret Trump Server That R...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7270    Donald Trump May Have Broken The Law To Avoid ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7278    Comey Letter Hurts GOP As Hillary Clinton Rais...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7507    PressTV-Americans ‘repudiated Clinton foreign ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7509    PressTV-Brits enraged by royal family’s costs
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7525    South Africa police clash with protesting stud...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7536    Saudi killing of Yemeni people worst type of t...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7541    Outrage as May’s real idea of Brexit at Goldma...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7558    The Syria conundrum - Press TV
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7566    Sanders calls Trump 'political coward' over vo...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7572    Pakistan police detain dozens of Imran Khan's ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7573    US charges 61 over India-based scam involving ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7598    Five Filipino hostages freed by Somali pirates...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7605    Tony Blair suggests a second referendum to rev...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7606    West covering up crimes of Bahraini regime: An...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7939    How A Communist Brainwashing Method Was Export...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7941    Donald Trump And His Supporters Are Fighting A...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7944    Comment on 4 Reasons Why Your Diet Sucks by Th...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7945    The Wisdom Books Of The Old Testament
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7947    5 Ridiculously Stupid Things Men Keep Doing Fo...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7948    How Influential French Author Alain Soral Beco...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7952    How Population Growth, Industrial Agriculture ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7953    Airbnb Goes Full SJW And Demands Users Host De...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7954    How The Elites Are Using “Divide And Rule” To ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7958    Will #DraftOurDaughters Bring Hillary Down?
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7959    Research Finds That Women As A Group Don’t Pay...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7960    Will There Be Riots In America The Day After D...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7961    Friendly Guide To ROK’s World View For Recover...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7963    5 Habits All Successful Seducers Share
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7967    6 Reasons To Create Fat Control Laws And Obesi...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7969    “Memoirs Of A Misogynist” Is A Brutal And Ente...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7972    The Importance Of Patriarchal Religion To Marr...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7973    Is Western Civilization Worth Saving?
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7974    The Only Strategy That Could Have Stopped Dona...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7977    American Woman In Bikini Desecrates French Cat...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7979    Federal Jury Finds UVA Rape Hoax Journalist Sa...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7983    What François De La Rochefoucauld Has To Teach...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7995    What The 2016 Election Has Exposed
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7996    Why So-Called Intellectuals Do More Harm Than ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>7998    Two More Hollywood Films For Men That Leave To...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8001    Buzz Aldrin Is A Warning Of How Success Can Le...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8003    The Dangers Of Romantic Love
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8008    Shopify Erased Our Store From The Internet Whi...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8010    Comment on Are You On Pace To Reach Your Goals...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8011    4 Goals For The Neomasculinity Movement During...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8012    10 Things I Learned From Being My Own General ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8015    5 Reasons You Should Stop Using Facebook
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8016    The Red Pill Masterpiece That Predates Them All
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8017    How To Live After Trump
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8018    3 Reasons Why You Should Apply For A Job In Th...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8019    What Modern South Korea Is Like
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8020    Men Are Binded By Their Shared Realization Of ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8021    What It’s Like To Live In Kiev After Marrying ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8022    Women Only Hate Female Objectification When Th...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8023    The Path Men Took To Trump
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8025    Comment on The Myth Of Male Privilege by An In...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8026    Comment on Why You Should Become a Minimalist ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8027    The Character Assassination Of Baseball Legend...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8028    4 Examples That Show The Globalists Are Losing...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8029    The Path Men Took To Trump
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8030    8 Reasons Why You Should Try Photography As A ...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8034    Is Feminism A Giant Shit Test?
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8035    Mainstream Media Calls Real News “Fake” Becaus...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>8038    The Ugly Truth Of Six More Leftist “Heroes”
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12414    Trump Sets GOP Fundraising Milestone In Small-...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12415    NaN
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12416    NaN
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12428    NaN
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12431    Money Laundering Scheme Exposed: 14 Pro-Clinto...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12432    NaN
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12454    NaN
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12504    NaN
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12596    Kenyan refugee kills co-worker, self
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12598    State that fired pastor demands his sermons, n...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12599    Kenyan refugee kills co-worker, self
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12603    State that fired pastor demands his sermons, n...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12610    Dow higher as Boeing gains offset Apple's fall
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12613    Dow higher as Boeing gains offset Apple's fall
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12627    Will it be representative government or thugoc...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12628    29 of Hillary's scandals: The early years
-12639    29 of Hillary's scandals: The early years
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12630    Election crossroads: Socialism or capitalism?
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12638    Will it be representative government or thugoc...
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12641    Election crossroads: Socialism or capitalism?
-Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>12647    26 WikiLeaks bombshells on Hillary you need to...
-Name: title, dtype: object</t>
-  </si>
-  <si>
     <t>12651    26 WikiLeaks bombshells on Hillary you need to...
 Name: title, dtype: object</t>
-  </si>
-  <si>
-    <t>0    Barracuda Brigade
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6    Fed Up
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>11    Fed Up
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>19    EdJenner
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>20    Fed Up
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>363    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>365    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>376    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>1531    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>1532    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>1559    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>1561    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>1568    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>1571    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>1582    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>1591    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>1595    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>2230    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>2241    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>2244    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>2280    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>2336    Dr. Patrick Slattery
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>2358    Staff
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>2363    Staff
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>2365    Staff
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3685    Daniel Greenfield
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3687    Matthew Vadum
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3688    Robert Spencer
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3692    Daniel Greenfield
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3694    Daniel Greenfield
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3695    Daniel Greenfield
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3696    Paul Kengor
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3697    Daniel Greenfield
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3699    Richard Baehr
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3700    Matthew Vadum
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3701    Daniel Greenfield
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3702    Robert Spencer
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3711    Daniel Greenfield
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3726    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3727    Frontpagemag.com
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3728    Daniel Greenfield
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3731    Joseph Puder
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3738    Matthew Vadum
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3740    Daniel Greenfield
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3743    Thomas Sowell
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3746    Daniel Greenfield
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3748    Daniel Greenfield
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3750    Daniel Greenfield
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3752    Lloyd Billingsley
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3753    Ari Lieberman
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3755    Noah Beck
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3758    Daniel Greenfield
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3763    EdJenner
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3764    EdJenner
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3771    Walter Williams
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3776    Ari Lieberman
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>3780    Discover The Networks
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6424    Vicki Batts
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6429    J. D. Heyes
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6430    Ethan A. Huff, staff writer
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6434    Daniel Barker
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6448    Vicki Batts
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6468    Isabelle Z.
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6469    Natural News Editors
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6472    Ethan A. Huff, staff writer
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6478    Mike Adams, NaturalNews Editor
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6479    Mike Adams, NaturalNews Editor
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6480    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6481    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6487    Nick Huxsted
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6494    J. D. Heyes
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6498    S. D. Wells
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6500    Ethan A. Huff, staff writer
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6507    Tru Foods Nutrition
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6511    George Zapo
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6516    Mike Adams, NaturalNews Editor
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6517    J. D. Heyes
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>6518    David Gutierrez, staff writer
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7196    Rmuse
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7212    Hrafnkell Haraldsson
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7215    Jason Easley
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7218    Jason Easley
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7219    Jason Easley
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7235    Sarah Jones
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7239    Rmuse
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7244    Reuters
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7245    Hrafnkell Haraldsson
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7260    Rmuse
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7261    Hrafnkell Haraldsson
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7267    Jason Easley
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7269    Sean Colarossi
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7270    Sean Colarossi
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7278    Jason Easley
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7507    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7509    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7525    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7536    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7541    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7558    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7566    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7572    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7573    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7598    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7605    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7606    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7939    Beau Albrecht
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7941    Michael Sebastian
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7944    The Most Important Concepts The Manosphere Tau...
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7945    Roosh Valizadeh
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7947    David G. Brown
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7948    Max Roscoe
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7952    Kshatriya Indransha
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7953    David G. Brown
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7954    Corey Savage
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7958    Michael Sebastian
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7959    Ricardo Sanchez
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7960    Relampago Furioso
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7961    Beau Albrecht
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7963    Troy Francis
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7967    Jean-Batave Poqueliche
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7969    Sponsored Post
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7972    Brutus Centinel
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7973    Beau Albrecht
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7974    August Moliere
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7977    André du Pôle
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7979    David G. Brown
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7983    Quintus Curtius
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7995    Michael Sebastian
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7996    André du Pôle
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>7998    Bob Smith
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8001    Aaron Clarey
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8003    Roosh Valizadeh
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8008    Roosh Valizadeh
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8010    4 Goals For The Neomasculinity Movement During...
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8011    Jon Anthony
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8012    Luke Stranahan
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8015    Brock Robinson
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8016    Jean-Batave Poqueliche
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8017    Michael Sebastian
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8018    Matt Forney
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8019    William Adams
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8020    André du Pôle
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8021    GrahamSeibert
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8022    David G. Brown
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8023    Roosh Valizadeh
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8025    An Infographic Showing What Male Privilege Rea...
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8026    How Effective Are Books On Fitness?
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8027    Quintus Curtius
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8028    Jon Anthony
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8029    Roosh Valizadeh
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8030    Ness Nomadison
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8034    Luke Stranahan
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8035    Relampago Furioso
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>8038    Beau Albrecht
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12414    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12415    Lisa Reed
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12416    Rich Hultén
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12428    Topher Frankenberg
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12431    NaN
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12432    Jerry Miller
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12454    Kenan Lott
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12504    Joan Workman
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12596    -NO AUTHOR-
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12598    Bob Unruh
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12599    -NO AUTHOR-
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12603    Bob Unruh
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12610    -NO AUTHOR-
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12613    -NO AUTHOR-
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12627    Erik Rush
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12628    Jack Cashill
-12639    Jack Cashill
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12630    Jane Chastain
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12638    Erik Rush
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12641    Jane Chastain
-Name: author, dtype: object</t>
-  </si>
-  <si>
-    <t>12647    Leo Hohmann
-Name: author, dtype: object</t>
   </si>
   <si>
     <t>12651    Leo Hohmann
@@ -5070,8 +5070,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5082,10 +5083,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5106,16 +5106,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5123,17 +5123,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5142,10 +5162,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5183,69 +5203,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5269,54 +5291,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5326,7 +5347,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5335,7 +5356,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5344,7 +5365,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5352,10 +5373,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -5384,7 +5405,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -5397,13 +5418,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -5421,2485 +5441,2495 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="57.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.75">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="253.5">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="962.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="107.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.75">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="118.5">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="96">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="129.75">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="1108.5">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="84.75">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="84.75">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="84.75">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="107.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="84.75">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="28.5">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="28.5">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="557.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="141">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="84.75">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="242.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="1209.75">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="28.5">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D60" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="A107" s="3">
+        <v>105</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="A111" s="3">
+        <v>109</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="A113" s="3">
+        <v>111</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="A115" s="3">
+        <v>113</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="A117" s="3">
+        <v>115</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" t="s">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="A119" s="3">
+        <v>117</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C119" s="4" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D119" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" t="s">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C120" s="4" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D120" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" t="s">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="A121" s="3">
+        <v>119</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C121" s="4" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D121" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" t="s">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C122" s="4" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D122" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" t="s">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+      <c r="A123" s="3">
+        <v>121</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C123" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D123" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" t="s">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C124" s="4" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D124" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" t="s">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+      <c r="A125" s="3">
+        <v>123</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C125" s="4" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="D125" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" t="s">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C126" s="4" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="D126" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>203</v>
-      </c>
-      <c r="D27" t="s">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+      <c r="A127" s="3">
+        <v>125</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>204</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C127" s="4" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D127" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" t="s">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+      <c r="A128" s="3">
+        <v>126</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C128" s="4" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>208</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="D128" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" t="s">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+      <c r="A129" s="3">
+        <v>127</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C129" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>211</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="D129" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" t="s">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+      <c r="A130" s="3">
+        <v>128</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>213</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C130" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>214</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="D130" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s">
-        <v>215</v>
-      </c>
-      <c r="D39" t="s">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+      <c r="A131" s="3">
+        <v>129</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" t="s">
-        <v>216</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C131" s="4" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D131" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>218</v>
-      </c>
-      <c r="D42" t="s">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+      <c r="A132" s="3">
+        <v>130</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" t="s">
-        <v>219</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C132" s="4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" t="s">
-        <v>220</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="D132" s="4" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" t="s">
-        <v>221</v>
-      </c>
-      <c r="D45" t="s">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+      <c r="A133" s="3">
+        <v>131</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" t="s">
-        <v>222</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C133" s="4" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" t="s">
-        <v>223</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="D133" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" t="s">
-        <v>224</v>
-      </c>
-      <c r="D48" t="s">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+      <c r="A134" s="3">
+        <v>132</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C134" s="4" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" t="s">
-        <v>226</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="D134" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" t="s">
-        <v>227</v>
-      </c>
-      <c r="D51" t="s">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+      <c r="A135" s="3">
+        <v>133</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" t="s">
-        <v>228</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C135" s="4" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" t="s">
-        <v>229</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="D135" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" t="s">
-        <v>230</v>
-      </c>
-      <c r="D54" t="s">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+      <c r="A136" s="3">
+        <v>134</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" t="s">
-        <v>231</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C136" s="4" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" t="s">
-        <v>232</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="D136" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" t="s">
-        <v>233</v>
-      </c>
-      <c r="D57" t="s">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+      <c r="A137" s="3">
+        <v>135</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" t="s">
-        <v>234</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C137" s="4" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" t="s">
-        <v>235</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="D137" s="4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="s">
-        <v>236</v>
-      </c>
-      <c r="D60" t="s">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+      <c r="A138" s="3">
+        <v>136</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" t="s">
-        <v>237</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C138" s="4" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" t="s">
-        <v>238</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="D138" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" t="s">
-        <v>239</v>
-      </c>
-      <c r="D63" t="s">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+      <c r="A139" s="3">
+        <v>137</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" t="s">
-        <v>240</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C139" s="4" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" t="s">
-        <v>241</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="D139" s="4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" t="s">
-        <v>242</v>
-      </c>
-      <c r="D66" t="s">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+      <c r="A140" s="3">
+        <v>138</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" t="s">
-        <v>243</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C140" s="4" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" t="s">
-        <v>244</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="D140" s="4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" t="s">
-        <v>245</v>
-      </c>
-      <c r="D69" t="s">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+      <c r="A141" s="3">
+        <v>139</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" t="s">
-        <v>246</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C141" s="4" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" t="s">
-        <v>247</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="D141" s="4" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" t="s">
-        <v>248</v>
-      </c>
-      <c r="D72" t="s">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+      <c r="A142" s="3">
+        <v>140</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" t="s">
-        <v>249</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C142" s="4" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" t="s">
-        <v>250</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="D142" s="4" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" t="s">
-        <v>251</v>
-      </c>
-      <c r="D75" t="s">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+      <c r="A143" s="3">
+        <v>141</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" t="s">
-        <v>252</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C143" s="4" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" t="s">
-        <v>253</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="D143" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" t="s">
-        <v>254</v>
-      </c>
-      <c r="D78" t="s">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+      <c r="A144" s="3">
+        <v>142</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" t="s">
-        <v>255</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C144" s="4" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" t="s">
-        <v>256</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="D144" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" t="s">
-        <v>257</v>
-      </c>
-      <c r="D81" t="s">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+      <c r="A145" s="3">
+        <v>143</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" t="s">
-        <v>258</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="C145" s="4" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" t="s">
-        <v>259</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="D145" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" t="s">
-        <v>260</v>
-      </c>
-      <c r="D84" t="s">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+      <c r="A146" s="3">
+        <v>144</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>261</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="C146" s="4" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" t="s">
-        <v>262</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="D146" s="4" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" t="s">
-        <v>263</v>
-      </c>
-      <c r="D87" t="s">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+      <c r="A147" s="3">
+        <v>145</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" t="s">
-        <v>264</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="C147" s="4" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" t="s">
-        <v>265</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="D147" s="4" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" t="s">
-        <v>266</v>
-      </c>
-      <c r="D90" t="s">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+      <c r="A148" s="3">
+        <v>146</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" t="s">
-        <v>267</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C148" s="4" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92" t="s">
-        <v>268</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="D148" s="4" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" t="s">
-        <v>269</v>
-      </c>
-      <c r="D93" t="s">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+      <c r="A149" s="3">
+        <v>147</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C94" t="s">
-        <v>270</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="C149" s="4" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" t="s">
-        <v>271</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="D149" s="4" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>97</v>
-      </c>
-      <c r="C96" t="s">
-        <v>272</v>
-      </c>
-      <c r="D96" t="s">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
+      <c r="A150" s="3">
+        <v>148</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" t="s">
-        <v>273</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C150" s="4" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C98" t="s">
-        <v>274</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="D150" s="4" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>100</v>
-      </c>
-      <c r="C99" t="s">
-        <v>275</v>
-      </c>
-      <c r="D99" t="s">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+      <c r="A151" s="3">
+        <v>149</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" t="s">
-        <v>276</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="C151" s="4" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>102</v>
-      </c>
-      <c r="C101" t="s">
-        <v>277</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="D151" s="4" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>103</v>
-      </c>
-      <c r="C102" t="s">
-        <v>278</v>
-      </c>
-      <c r="D102" t="s">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
+      <c r="A152" s="3">
+        <v>150</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" t="s">
-        <v>279</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C152" s="4" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>105</v>
-      </c>
-      <c r="C104" t="s">
-        <v>280</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="D152" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>106</v>
-      </c>
-      <c r="C105" t="s">
-        <v>281</v>
-      </c>
-      <c r="D105" t="s">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
+      <c r="A153" s="3">
+        <v>151</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106" t="s">
-        <v>282</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="C153" s="4" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" t="s">
-        <v>283</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="D153" s="4" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>109</v>
-      </c>
-      <c r="C108" t="s">
-        <v>284</v>
-      </c>
-      <c r="D108" t="s">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
+      <c r="A154" s="3">
+        <v>152</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" t="s">
-        <v>285</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="C154" s="4" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>111</v>
-      </c>
-      <c r="C110" t="s">
-        <v>286</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="D154" s="4" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111" t="s">
-        <v>287</v>
-      </c>
-      <c r="D111" t="s">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
+      <c r="A155" s="3">
+        <v>153</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>113</v>
-      </c>
-      <c r="C112" t="s">
-        <v>288</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="C155" s="4" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>114</v>
-      </c>
-      <c r="C113" t="s">
-        <v>289</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="D155" s="4" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>115</v>
-      </c>
-      <c r="C114" t="s">
-        <v>290</v>
-      </c>
-      <c r="D114" t="s">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
+      <c r="A156" s="3">
+        <v>154</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115" t="s">
-        <v>291</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="C156" s="4" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116" t="s">
-        <v>292</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="D156" s="4" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>118</v>
-      </c>
-      <c r="C117" t="s">
-        <v>293</v>
-      </c>
-      <c r="D117" t="s">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
+      <c r="A157" s="3">
+        <v>155</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>119</v>
-      </c>
-      <c r="C118" t="s">
-        <v>294</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="C157" s="4" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>120</v>
-      </c>
-      <c r="C119" t="s">
-        <v>295</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="D157" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120" t="s">
-        <v>296</v>
-      </c>
-      <c r="D120" t="s">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
+      <c r="A158" s="3">
+        <v>156</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>122</v>
-      </c>
-      <c r="C121" t="s">
-        <v>297</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="C158" s="4" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>123</v>
-      </c>
-      <c r="C122" t="s">
-        <v>298</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="D158" s="4" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>124</v>
-      </c>
-      <c r="C123" t="s">
-        <v>299</v>
-      </c>
-      <c r="D123" t="s">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
+      <c r="A159" s="3">
+        <v>157</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>125</v>
-      </c>
-      <c r="C124" t="s">
-        <v>300</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="C159" s="4" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
-        <v>126</v>
-      </c>
-      <c r="C125" t="s">
-        <v>301</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="D159" s="4" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>127</v>
-      </c>
-      <c r="C126" t="s">
-        <v>302</v>
-      </c>
-      <c r="D126" t="s">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
+      <c r="A160" s="3">
+        <v>158</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>128</v>
-      </c>
-      <c r="C127" t="s">
-        <v>303</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="C160" s="4" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>129</v>
-      </c>
-      <c r="C128" t="s">
-        <v>304</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="D160" s="4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>130</v>
-      </c>
-      <c r="C129" t="s">
-        <v>305</v>
-      </c>
-      <c r="D129" t="s">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
+      <c r="A161" s="3">
+        <v>159</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>131</v>
-      </c>
-      <c r="C130" t="s">
-        <v>306</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="C161" s="4" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>132</v>
-      </c>
-      <c r="C131" t="s">
-        <v>307</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="D161" s="4" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>133</v>
-      </c>
-      <c r="C132" t="s">
-        <v>308</v>
-      </c>
-      <c r="D132" t="s">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
+      <c r="A162" s="3">
+        <v>160</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
-        <v>134</v>
-      </c>
-      <c r="C133" t="s">
-        <v>309</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="C162" s="4" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>135</v>
-      </c>
-      <c r="C134" t="s">
-        <v>310</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="D162" s="4" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
-        <v>136</v>
-      </c>
-      <c r="C135" t="s">
-        <v>311</v>
-      </c>
-      <c r="D135" t="s">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
+      <c r="A163" s="3">
+        <v>161</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136" t="s">
-        <v>312</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="C163" s="4" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>138</v>
-      </c>
-      <c r="C137" t="s">
-        <v>313</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="D163" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>139</v>
-      </c>
-      <c r="C138" t="s">
-        <v>314</v>
-      </c>
-      <c r="D138" t="s">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
+      <c r="A164" s="3">
+        <v>162</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>140</v>
-      </c>
-      <c r="C139" t="s">
-        <v>315</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="C164" s="4" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>141</v>
-      </c>
-      <c r="C140" t="s">
-        <v>316</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="D164" s="4" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
-        <v>142</v>
-      </c>
-      <c r="C141" t="s">
-        <v>317</v>
-      </c>
-      <c r="D141" t="s">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
+      <c r="A165" s="3">
+        <v>163</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
-        <v>143</v>
-      </c>
-      <c r="C142" t="s">
-        <v>318</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="C165" s="4" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
-        <v>144</v>
-      </c>
-      <c r="C143" t="s">
-        <v>319</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="D165" s="4" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
-        <v>145</v>
-      </c>
-      <c r="C144" t="s">
-        <v>320</v>
-      </c>
-      <c r="D144" t="s">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
+      <c r="A166" s="3">
+        <v>164</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>146</v>
-      </c>
-      <c r="C145" t="s">
-        <v>321</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="C166" s="4" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>147</v>
-      </c>
-      <c r="C146" t="s">
-        <v>322</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="D166" s="4" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>148</v>
-      </c>
-      <c r="C147" t="s">
-        <v>323</v>
-      </c>
-      <c r="D147" t="s">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
+      <c r="A167" s="3">
+        <v>165</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>149</v>
-      </c>
-      <c r="C148" t="s">
-        <v>324</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="C167" s="4" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>150</v>
-      </c>
-      <c r="C149" t="s">
-        <v>325</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="D167" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
-        <v>151</v>
-      </c>
-      <c r="C150" t="s">
-        <v>326</v>
-      </c>
-      <c r="D150" t="s">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
+      <c r="A168" s="3">
+        <v>166</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151" t="s">
-        <v>152</v>
-      </c>
-      <c r="C151" t="s">
-        <v>327</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="C168" s="4" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152" t="s">
-        <v>153</v>
-      </c>
-      <c r="C152" t="s">
-        <v>328</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="D168" s="4" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
-        <v>154</v>
-      </c>
-      <c r="C153" t="s">
-        <v>329</v>
-      </c>
-      <c r="D153" t="s">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
+      <c r="A169" s="3">
+        <v>167</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>155</v>
-      </c>
-      <c r="C154" t="s">
-        <v>330</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="C169" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155" t="s">
-        <v>156</v>
-      </c>
-      <c r="C155" t="s">
-        <v>331</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="D169" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
-        <v>157</v>
-      </c>
-      <c r="C156" t="s">
-        <v>332</v>
-      </c>
-      <c r="D156" t="s">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
+      <c r="A170" s="3">
+        <v>168</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>158</v>
-      </c>
-      <c r="C157" t="s">
-        <v>333</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="C170" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>159</v>
-      </c>
-      <c r="C158" t="s">
-        <v>334</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="D170" s="4" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>160</v>
-      </c>
-      <c r="C159" t="s">
-        <v>335</v>
-      </c>
-      <c r="D159" t="s">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
+      <c r="A171" s="3">
+        <v>169</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>161</v>
-      </c>
-      <c r="C160" t="s">
-        <v>336</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="C171" s="4" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>162</v>
-      </c>
-      <c r="C161" t="s">
-        <v>337</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="D171" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>163</v>
-      </c>
-      <c r="C162" t="s">
-        <v>338</v>
-      </c>
-      <c r="D162" t="s">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
+      <c r="A172" s="3">
+        <v>170</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
-        <v>164</v>
-      </c>
-      <c r="C163" t="s">
-        <v>339</v>
-      </c>
-      <c r="D163" t="s">
+      <c r="C172" s="4" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164" t="s">
-        <v>165</v>
-      </c>
-      <c r="C164" t="s">
-        <v>340</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="D172" s="4" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165" t="s">
-        <v>166</v>
-      </c>
-      <c r="C165" t="s">
-        <v>341</v>
-      </c>
-      <c r="D165" t="s">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
+      <c r="A173" s="3">
+        <v>171</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166" t="s">
-        <v>167</v>
-      </c>
-      <c r="C166" t="s">
-        <v>342</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="C173" s="4" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167" t="s">
-        <v>168</v>
-      </c>
-      <c r="C167" t="s">
-        <v>343</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="D173" s="4" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168" t="s">
-        <v>169</v>
-      </c>
-      <c r="C168" t="s">
-        <v>344</v>
-      </c>
-      <c r="D168" t="s">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
+      <c r="A174" s="3">
+        <v>172</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
+      <c r="A175" s="3">
+        <v>173</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" t="s">
-        <v>170</v>
-      </c>
-      <c r="C169" t="s">
-        <v>345</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="C175" s="4" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" t="s">
-        <v>171</v>
-      </c>
-      <c r="C170" t="s">
-        <v>346</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="D175" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171" t="s">
-        <v>172</v>
-      </c>
-      <c r="C171" t="s">
-        <v>347</v>
-      </c>
-      <c r="D171" t="s">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
+      <c r="A176" s="3">
+        <v>174</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172" t="s">
-        <v>173</v>
-      </c>
-      <c r="C172" t="s">
-        <v>348</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="C176" s="4" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>174</v>
-      </c>
-      <c r="C173" t="s">
-        <v>349</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="D176" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" t="s">
-        <v>172</v>
-      </c>
-      <c r="C174" t="s">
-        <v>347</v>
-      </c>
-      <c r="D174" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
+      <c r="A177" s="3">
         <v>175</v>
       </c>
-      <c r="C175" t="s">
-        <v>350</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="B177" s="4" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" t="s">
-        <v>176</v>
-      </c>
-      <c r="C176" t="s">
-        <v>351</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="C177" s="4" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>177</v>
-      </c>
-      <c r="C177" t="s">
-        <v>352</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="D177" s="4" t="s">
         <v>527</v>
       </c>
     </row>

--- a/fake_edited.xlsx
+++ b/fake_edited.xlsx
@@ -5072,13 +5072,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -5096,7 +5102,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -5125,13 +5138,13 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
